--- a/AAII_Financials/Yearly/CO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CO_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>141600</v>
+        <v>138100</v>
       </c>
       <c r="E8" s="3">
-        <v>134400</v>
+        <v>131100</v>
       </c>
       <c r="F8" s="3">
-        <v>109000</v>
+        <v>106400</v>
       </c>
       <c r="G8" s="3">
-        <v>95100</v>
+        <v>92800</v>
       </c>
       <c r="H8" s="3">
-        <v>91100</v>
+        <v>88900</v>
       </c>
       <c r="I8" s="3">
-        <v>82200</v>
+        <v>80200</v>
       </c>
       <c r="J8" s="3">
-        <v>75500</v>
+        <v>73600</v>
       </c>
       <c r="K8" s="3">
         <v>56500</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26700</v>
+        <v>26000</v>
       </c>
       <c r="E9" s="3">
-        <v>26000</v>
+        <v>25400</v>
       </c>
       <c r="F9" s="3">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="G9" s="3">
-        <v>20700</v>
+        <v>20200</v>
       </c>
       <c r="H9" s="3">
-        <v>18700</v>
+        <v>18300</v>
       </c>
       <c r="I9" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="J9" s="3">
-        <v>15300</v>
+        <v>14900</v>
       </c>
       <c r="K9" s="3">
         <v>12900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>114900</v>
+        <v>112100</v>
       </c>
       <c r="E10" s="3">
-        <v>108400</v>
+        <v>105700</v>
       </c>
       <c r="F10" s="3">
-        <v>88600</v>
+        <v>86400</v>
       </c>
       <c r="G10" s="3">
-        <v>74400</v>
+        <v>72600</v>
       </c>
       <c r="H10" s="3">
-        <v>72400</v>
+        <v>70600</v>
       </c>
       <c r="I10" s="3">
-        <v>67000</v>
+        <v>65300</v>
       </c>
       <c r="J10" s="3">
-        <v>60200</v>
+        <v>58700</v>
       </c>
       <c r="K10" s="3">
         <v>43600</v>
@@ -821,7 +821,7 @@
         <v>1900</v>
       </c>
       <c r="E12" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F12" s="3">
         <v>1300</v>
@@ -911,22 +911,22 @@
         <v>2400</v>
       </c>
       <c r="E15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H15" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I15" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J15" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86800</v>
+        <v>84700</v>
       </c>
       <c r="E17" s="3">
-        <v>94300</v>
+        <v>91900</v>
       </c>
       <c r="F17" s="3">
-        <v>71400</v>
+        <v>69700</v>
       </c>
       <c r="G17" s="3">
-        <v>68900</v>
+        <v>67200</v>
       </c>
       <c r="H17" s="3">
-        <v>57400</v>
+        <v>56000</v>
       </c>
       <c r="I17" s="3">
-        <v>48900</v>
+        <v>47700</v>
       </c>
       <c r="J17" s="3">
-        <v>45500</v>
+        <v>44300</v>
       </c>
       <c r="K17" s="3">
         <v>36500</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>54800</v>
+        <v>53400</v>
       </c>
       <c r="E18" s="3">
-        <v>40200</v>
+        <v>39200</v>
       </c>
       <c r="F18" s="3">
-        <v>37600</v>
+        <v>36700</v>
       </c>
       <c r="G18" s="3">
-        <v>26300</v>
+        <v>25600</v>
       </c>
       <c r="H18" s="3">
-        <v>33700</v>
+        <v>32900</v>
       </c>
       <c r="I18" s="3">
-        <v>33300</v>
+        <v>32500</v>
       </c>
       <c r="J18" s="3">
-        <v>30000</v>
+        <v>29300</v>
       </c>
       <c r="K18" s="3">
         <v>20000</v>
@@ -1023,22 +1023,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="E20" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F20" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G20" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="H20" s="3">
         <v>3000</v>
       </c>
       <c r="I20" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J20" s="3">
         <v>2700</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>58700</v>
+        <v>57200</v>
       </c>
       <c r="E21" s="3">
-        <v>51300</v>
+        <v>50000</v>
       </c>
       <c r="F21" s="3">
-        <v>48200</v>
+        <v>47000</v>
       </c>
       <c r="G21" s="3">
-        <v>43000</v>
+        <v>41900</v>
       </c>
       <c r="H21" s="3">
-        <v>44000</v>
+        <v>42900</v>
       </c>
       <c r="I21" s="3">
-        <v>42800</v>
+        <v>41700</v>
       </c>
       <c r="J21" s="3">
-        <v>37900</v>
+        <v>37000</v>
       </c>
       <c r="K21" s="3">
         <v>27400</v>
@@ -1089,19 +1089,19 @@
         <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>17100</v>
+        <v>16700</v>
       </c>
       <c r="G22" s="3">
-        <v>15500</v>
+        <v>15100</v>
       </c>
       <c r="H22" s="3">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="I22" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="J22" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="K22" s="3">
         <v>500</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>51100</v>
+        <v>49900</v>
       </c>
       <c r="E23" s="3">
-        <v>43600</v>
+        <v>42500</v>
       </c>
       <c r="F23" s="3">
-        <v>23900</v>
+        <v>23300</v>
       </c>
       <c r="G23" s="3">
-        <v>20300</v>
+        <v>19800</v>
       </c>
       <c r="H23" s="3">
-        <v>22300</v>
+        <v>21700</v>
       </c>
       <c r="I23" s="3">
-        <v>27400</v>
+        <v>26700</v>
       </c>
       <c r="J23" s="3">
-        <v>22700</v>
+        <v>22100</v>
       </c>
       <c r="K23" s="3">
         <v>22500</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E24" s="3">
         <v>8800</v>
       </c>
-      <c r="E24" s="3">
-        <v>9000</v>
-      </c>
       <c r="F24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J24" s="3">
         <v>5400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>8400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>5500</v>
       </c>
       <c r="K24" s="3">
         <v>1400</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>42400</v>
+        <v>41300</v>
       </c>
       <c r="E26" s="3">
-        <v>34600</v>
+        <v>33700</v>
       </c>
       <c r="F26" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>15100</v>
+      </c>
+      <c r="I26" s="3">
         <v>18500</v>
       </c>
-      <c r="G26" s="3">
-        <v>13100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>15500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>19000</v>
-      </c>
       <c r="J26" s="3">
-        <v>17200</v>
+        <v>16700</v>
       </c>
       <c r="K26" s="3">
         <v>21100</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>41800</v>
+        <v>40700</v>
       </c>
       <c r="E27" s="3">
-        <v>34000</v>
+        <v>33200</v>
       </c>
       <c r="F27" s="3">
-        <v>16700</v>
+        <v>16300</v>
       </c>
       <c r="G27" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="H27" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="I27" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="J27" s="3">
-        <v>16100</v>
+        <v>15700</v>
       </c>
       <c r="K27" s="3">
         <v>19600</v>
@@ -1383,22 +1383,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E32" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="F32" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="G32" s="3">
-        <v>-9500</v>
+        <v>-9300</v>
       </c>
       <c r="H32" s="3">
         <v>-3000</v>
       </c>
       <c r="I32" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="J32" s="3">
         <v>-2700</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>41800</v>
+        <v>40700</v>
       </c>
       <c r="E33" s="3">
-        <v>34000</v>
+        <v>33200</v>
       </c>
       <c r="F33" s="3">
-        <v>16700</v>
+        <v>16300</v>
       </c>
       <c r="G33" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="H33" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="I33" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="J33" s="3">
-        <v>16100</v>
+        <v>15700</v>
       </c>
       <c r="K33" s="3">
         <v>19600</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>41800</v>
+        <v>40700</v>
       </c>
       <c r="E35" s="3">
-        <v>34000</v>
+        <v>33200</v>
       </c>
       <c r="F35" s="3">
-        <v>16700</v>
+        <v>16300</v>
       </c>
       <c r="G35" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="H35" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="I35" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="J35" s="3">
-        <v>16100</v>
+        <v>15700</v>
       </c>
       <c r="K35" s="3">
         <v>19600</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>717100</v>
+        <v>700500</v>
       </c>
       <c r="E41" s="3">
-        <v>609900</v>
+        <v>595800</v>
       </c>
       <c r="F41" s="3">
-        <v>503700</v>
+        <v>492000</v>
       </c>
       <c r="G41" s="3">
-        <v>431600</v>
+        <v>421700</v>
       </c>
       <c r="H41" s="3">
-        <v>349600</v>
+        <v>341500</v>
       </c>
       <c r="I41" s="3">
-        <v>270200</v>
+        <v>263900</v>
       </c>
       <c r="J41" s="3">
-        <v>214400</v>
+        <v>209400</v>
       </c>
       <c r="K41" s="3">
         <v>117900</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15500</v>
+        <v>15100</v>
       </c>
       <c r="E43" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="F43" s="3">
-        <v>16900</v>
+        <v>16500</v>
       </c>
       <c r="G43" s="3">
-        <v>18900</v>
+        <v>18500</v>
       </c>
       <c r="H43" s="3">
-        <v>18100</v>
+        <v>17700</v>
       </c>
       <c r="I43" s="3">
-        <v>16000</v>
+        <v>15700</v>
       </c>
       <c r="J43" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="K43" s="3">
         <v>11900</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G44" s="3">
         <v>4000</v>
       </c>
-      <c r="E44" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="G44" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>4500</v>
-      </c>
       <c r="J44" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K44" s="3">
         <v>1000</v>
@@ -1689,22 +1689,22 @@
         <v>2100</v>
       </c>
       <c r="E45" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F45" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G45" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H45" s="3">
         <v>4000</v>
       </c>
       <c r="I45" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J45" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K45" s="3">
         <v>2300</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>738600</v>
+        <v>721500</v>
       </c>
       <c r="E46" s="3">
-        <v>632500</v>
+        <v>617900</v>
       </c>
       <c r="F46" s="3">
-        <v>526800</v>
+        <v>514600</v>
       </c>
       <c r="G46" s="3">
-        <v>457100</v>
+        <v>446500</v>
       </c>
       <c r="H46" s="3">
-        <v>375700</v>
+        <v>367000</v>
       </c>
       <c r="I46" s="3">
-        <v>295300</v>
+        <v>288500</v>
       </c>
       <c r="J46" s="3">
-        <v>229300</v>
+        <v>224000</v>
       </c>
       <c r="K46" s="3">
         <v>133100</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>57600</v>
+        <v>56300</v>
       </c>
       <c r="E47" s="3">
-        <v>63800</v>
+        <v>62300</v>
       </c>
       <c r="F47" s="3">
-        <v>75300</v>
+        <v>73600</v>
       </c>
       <c r="G47" s="3">
-        <v>74200</v>
+        <v>72400</v>
       </c>
       <c r="H47" s="3">
-        <v>72600</v>
+        <v>70900</v>
       </c>
       <c r="I47" s="3">
-        <v>80200</v>
+        <v>78300</v>
       </c>
       <c r="J47" s="3">
-        <v>75600</v>
+        <v>73900</v>
       </c>
       <c r="K47" s="3">
         <v>72200</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>78200</v>
+        <v>76400</v>
       </c>
       <c r="E48" s="3">
-        <v>79300</v>
+        <v>77500</v>
       </c>
       <c r="F48" s="3">
-        <v>79100</v>
+        <v>77300</v>
       </c>
       <c r="G48" s="3">
-        <v>82400</v>
+        <v>80500</v>
       </c>
       <c r="H48" s="3">
-        <v>86500</v>
+        <v>84500</v>
       </c>
       <c r="I48" s="3">
-        <v>89900</v>
+        <v>87800</v>
       </c>
       <c r="J48" s="3">
-        <v>67200</v>
+        <v>65600</v>
       </c>
       <c r="K48" s="3">
         <v>39800</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="E49" s="3">
-        <v>14600</v>
+        <v>14300</v>
       </c>
       <c r="F49" s="3">
-        <v>15300</v>
+        <v>15000</v>
       </c>
       <c r="G49" s="3">
-        <v>16000</v>
+        <v>15600</v>
       </c>
       <c r="H49" s="3">
-        <v>16600</v>
+        <v>16200</v>
       </c>
       <c r="I49" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="J49" s="3">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="K49" s="3">
         <v>19300</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>51500</v>
+        <v>50300</v>
       </c>
       <c r="E52" s="3">
-        <v>48200</v>
+        <v>47100</v>
       </c>
       <c r="F52" s="3">
-        <v>47100</v>
+        <v>46000</v>
       </c>
       <c r="G52" s="3">
-        <v>43000</v>
+        <v>42000</v>
       </c>
       <c r="H52" s="3">
-        <v>39100</v>
+        <v>38200</v>
       </c>
       <c r="I52" s="3">
-        <v>38300</v>
+        <v>37400</v>
       </c>
       <c r="J52" s="3">
-        <v>38400</v>
+        <v>37500</v>
       </c>
       <c r="K52" s="3">
         <v>6300</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>939900</v>
+        <v>918200</v>
       </c>
       <c r="E54" s="3">
-        <v>838600</v>
+        <v>819200</v>
       </c>
       <c r="F54" s="3">
-        <v>743600</v>
+        <v>726400</v>
       </c>
       <c r="G54" s="3">
-        <v>672600</v>
+        <v>657100</v>
       </c>
       <c r="H54" s="3">
-        <v>589900</v>
+        <v>576300</v>
       </c>
       <c r="I54" s="3">
-        <v>521000</v>
+        <v>508900</v>
       </c>
       <c r="J54" s="3">
-        <v>428500</v>
+        <v>418600</v>
       </c>
       <c r="K54" s="3">
         <v>270700</v>
@@ -2014,7 +2014,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E57" s="3">
         <v>1600</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>147900</v>
+        <v>144500</v>
       </c>
       <c r="G58" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="H58" s="3">
-        <v>17200</v>
+        <v>16800</v>
       </c>
       <c r="I58" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="J58" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="K58" s="3">
         <v>6700</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80600</v>
+        <v>78800</v>
       </c>
       <c r="E59" s="3">
-        <v>65500</v>
+        <v>64000</v>
       </c>
       <c r="F59" s="3">
-        <v>58100</v>
+        <v>56800</v>
       </c>
       <c r="G59" s="3">
-        <v>56700</v>
+        <v>55400</v>
       </c>
       <c r="H59" s="3">
-        <v>49900</v>
+        <v>48700</v>
       </c>
       <c r="I59" s="3">
-        <v>46900</v>
+        <v>45800</v>
       </c>
       <c r="J59" s="3">
-        <v>39100</v>
+        <v>38200</v>
       </c>
       <c r="K59" s="3">
         <v>18800</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>85500</v>
+        <v>83500</v>
       </c>
       <c r="E60" s="3">
-        <v>67200</v>
+        <v>65600</v>
       </c>
       <c r="F60" s="3">
-        <v>207600</v>
+        <v>202800</v>
       </c>
       <c r="G60" s="3">
-        <v>65100</v>
+        <v>63600</v>
       </c>
       <c r="H60" s="3">
-        <v>60300</v>
+        <v>58900</v>
       </c>
       <c r="I60" s="3">
-        <v>57000</v>
+        <v>55700</v>
       </c>
       <c r="J60" s="3">
-        <v>47700</v>
+        <v>46600</v>
       </c>
       <c r="K60" s="3">
         <v>29300</v>
@@ -2143,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>130000</v>
+        <v>127000</v>
       </c>
       <c r="H61" s="3">
-        <v>115900</v>
+        <v>113300</v>
       </c>
       <c r="I61" s="3">
-        <v>111600</v>
+        <v>109000</v>
       </c>
       <c r="J61" s="3">
-        <v>107900</v>
+        <v>105400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>363400</v>
+        <v>355000</v>
       </c>
       <c r="E62" s="3">
-        <v>323900</v>
+        <v>316400</v>
       </c>
       <c r="F62" s="3">
-        <v>271600</v>
+        <v>265400</v>
       </c>
       <c r="G62" s="3">
-        <v>231600</v>
+        <v>226300</v>
       </c>
       <c r="H62" s="3">
-        <v>192300</v>
+        <v>187800</v>
       </c>
       <c r="I62" s="3">
-        <v>145800</v>
+        <v>142400</v>
       </c>
       <c r="J62" s="3">
-        <v>94800</v>
+        <v>92600</v>
       </c>
       <c r="K62" s="3">
         <v>58100</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>449600</v>
+        <v>439200</v>
       </c>
       <c r="E66" s="3">
-        <v>391900</v>
+        <v>382800</v>
       </c>
       <c r="F66" s="3">
-        <v>479900</v>
+        <v>468800</v>
       </c>
       <c r="G66" s="3">
-        <v>427400</v>
+        <v>417500</v>
       </c>
       <c r="H66" s="3">
-        <v>369300</v>
+        <v>360800</v>
       </c>
       <c r="I66" s="3">
-        <v>315100</v>
+        <v>307800</v>
       </c>
       <c r="J66" s="3">
-        <v>251000</v>
+        <v>245200</v>
       </c>
       <c r="K66" s="3">
         <v>92200</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>201900</v>
+        <v>197200</v>
       </c>
       <c r="E72" s="3">
-        <v>160200</v>
+        <v>156500</v>
       </c>
       <c r="F72" s="3">
-        <v>126200</v>
+        <v>123300</v>
       </c>
       <c r="G72" s="3">
-        <v>108100</v>
+        <v>105600</v>
       </c>
       <c r="H72" s="3">
-        <v>95100</v>
+        <v>92900</v>
       </c>
       <c r="I72" s="3">
-        <v>79700</v>
+        <v>77800</v>
       </c>
       <c r="J72" s="3">
-        <v>60800</v>
+        <v>59300</v>
       </c>
       <c r="K72" s="3">
         <v>46200</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>490300</v>
+        <v>479000</v>
       </c>
       <c r="E76" s="3">
-        <v>446700</v>
+        <v>436400</v>
       </c>
       <c r="F76" s="3">
-        <v>263700</v>
+        <v>257600</v>
       </c>
       <c r="G76" s="3">
-        <v>245200</v>
+        <v>239600</v>
       </c>
       <c r="H76" s="3">
-        <v>220600</v>
+        <v>215500</v>
       </c>
       <c r="I76" s="3">
-        <v>205900</v>
+        <v>201100</v>
       </c>
       <c r="J76" s="3">
-        <v>177500</v>
+        <v>173400</v>
       </c>
       <c r="K76" s="3">
         <v>178500</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>41800</v>
+        <v>40700</v>
       </c>
       <c r="E81" s="3">
-        <v>34000</v>
+        <v>33200</v>
       </c>
       <c r="F81" s="3">
-        <v>16700</v>
+        <v>16300</v>
       </c>
       <c r="G81" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="H81" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="I81" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="J81" s="3">
-        <v>16100</v>
+        <v>15700</v>
       </c>
       <c r="K81" s="3">
         <v>19600</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="E83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="F83" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="G83" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="H83" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="I83" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="J83" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="K83" s="3">
         <v>4400</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>113700</v>
+        <v>110900</v>
       </c>
       <c r="E89" s="3">
-        <v>117500</v>
+        <v>114600</v>
       </c>
       <c r="F89" s="3">
-        <v>91500</v>
+        <v>89200</v>
       </c>
       <c r="G89" s="3">
-        <v>83400</v>
+        <v>81300</v>
       </c>
       <c r="H89" s="3">
-        <v>85400</v>
+        <v>83300</v>
       </c>
       <c r="I89" s="3">
-        <v>76900</v>
+        <v>75000</v>
       </c>
       <c r="J89" s="3">
-        <v>83000</v>
+        <v>81000</v>
       </c>
       <c r="K89" s="3">
         <v>52500</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="E91" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="F91" s="3">
         <v>-3500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="H91" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="I91" s="3">
-        <v>-21500</v>
+        <v>-21000</v>
       </c>
       <c r="J91" s="3">
-        <v>-32500</v>
+        <v>-31700</v>
       </c>
       <c r="K91" s="3">
         <v>-6400</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="E94" s="3">
-        <v>-9500</v>
+        <v>-9300</v>
       </c>
       <c r="F94" s="3">
-        <v>-13000</v>
+        <v>-12700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="H94" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="I94" s="3">
-        <v>-21500</v>
+        <v>-21000</v>
       </c>
       <c r="J94" s="3">
-        <v>-70800</v>
+        <v>-69100</v>
       </c>
       <c r="K94" s="3">
         <v>-18200</v>
@@ -3065,7 +3065,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>-300</v>
       </c>
       <c r="F100" s="3">
-        <v>-8600</v>
+        <v>-8400</v>
       </c>
       <c r="G100" s="3">
         <v>-200</v>
@@ -3203,7 +3203,7 @@
         <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>88800</v>
+        <v>86600</v>
       </c>
       <c r="K100" s="3">
         <v>-6600</v>
@@ -3224,7 +3224,7 @@
         <v>2100</v>
       </c>
       <c r="G101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H101" s="3">
         <v>200</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>107200</v>
+        <v>104600</v>
       </c>
       <c r="E102" s="3">
-        <v>106200</v>
+        <v>103600</v>
       </c>
       <c r="F102" s="3">
-        <v>72000</v>
+        <v>70200</v>
       </c>
       <c r="G102" s="3">
-        <v>82000</v>
+        <v>80000</v>
       </c>
       <c r="H102" s="3">
-        <v>79500</v>
+        <v>77500</v>
       </c>
       <c r="I102" s="3">
-        <v>55800</v>
+        <v>54400</v>
       </c>
       <c r="J102" s="3">
-        <v>100400</v>
+        <v>97900</v>
       </c>
       <c r="K102" s="3">
         <v>27100</v>

--- a/AAII_Financials/Yearly/CO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>CO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>138100</v>
+        <v>177400</v>
       </c>
       <c r="E8" s="3">
-        <v>131100</v>
+        <v>143300</v>
       </c>
       <c r="F8" s="3">
-        <v>106400</v>
+        <v>136000</v>
       </c>
       <c r="G8" s="3">
-        <v>92800</v>
+        <v>110400</v>
       </c>
       <c r="H8" s="3">
-        <v>88900</v>
+        <v>96300</v>
       </c>
       <c r="I8" s="3">
-        <v>80200</v>
+        <v>92200</v>
       </c>
       <c r="J8" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K8" s="3">
         <v>73600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26000</v>
+        <v>27500</v>
       </c>
       <c r="E9" s="3">
-        <v>25400</v>
+        <v>27000</v>
       </c>
       <c r="F9" s="3">
-        <v>20000</v>
+        <v>26400</v>
       </c>
       <c r="G9" s="3">
-        <v>20200</v>
+        <v>20700</v>
       </c>
       <c r="H9" s="3">
-        <v>18300</v>
+        <v>21000</v>
       </c>
       <c r="I9" s="3">
+        <v>19000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K9" s="3">
         <v>14900</v>
       </c>
-      <c r="J9" s="3">
-        <v>14900</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>112100</v>
+        <v>149900</v>
       </c>
       <c r="E10" s="3">
-        <v>105700</v>
+        <v>116300</v>
       </c>
       <c r="F10" s="3">
-        <v>86400</v>
+        <v>109700</v>
       </c>
       <c r="G10" s="3">
-        <v>72600</v>
+        <v>89700</v>
       </c>
       <c r="H10" s="3">
-        <v>70600</v>
+        <v>75300</v>
       </c>
       <c r="I10" s="3">
-        <v>65300</v>
+        <v>73300</v>
       </c>
       <c r="J10" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K10" s="3">
         <v>58700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,22 +824,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
-        <v>1600</v>
-      </c>
       <c r="F12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G12" s="3">
         <v>1300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1100</v>
       </c>
       <c r="H12" s="3">
         <v>1100</v>
@@ -836,14 +849,17 @@
         <v>1100</v>
       </c>
       <c r="J12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,26 +887,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -898,42 +917,48 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E15" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="F15" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G15" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I15" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="J15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K15" s="3">
         <v>1900</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>84700</v>
+        <v>96200</v>
       </c>
       <c r="E17" s="3">
-        <v>91900</v>
+        <v>87900</v>
       </c>
       <c r="F17" s="3">
+        <v>95400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>72300</v>
+      </c>
+      <c r="H17" s="3">
         <v>69700</v>
       </c>
-      <c r="G17" s="3">
-        <v>67200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>56000</v>
-      </c>
       <c r="I17" s="3">
-        <v>47700</v>
+        <v>58100</v>
       </c>
       <c r="J17" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K17" s="3">
         <v>44300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>53400</v>
+        <v>81200</v>
       </c>
       <c r="E18" s="3">
-        <v>39200</v>
+        <v>55400</v>
       </c>
       <c r="F18" s="3">
-        <v>36700</v>
+        <v>40600</v>
       </c>
       <c r="G18" s="3">
-        <v>25600</v>
+        <v>38100</v>
       </c>
       <c r="H18" s="3">
-        <v>32900</v>
+        <v>26600</v>
       </c>
       <c r="I18" s="3">
-        <v>32500</v>
+        <v>34100</v>
       </c>
       <c r="J18" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K18" s="3">
         <v>29300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3500</v>
+        <v>2900</v>
       </c>
       <c r="E20" s="3">
-        <v>3800</v>
+        <v>-3700</v>
       </c>
       <c r="F20" s="3">
-        <v>3300</v>
+        <v>3900</v>
       </c>
       <c r="G20" s="3">
-        <v>9300</v>
+        <v>3400</v>
       </c>
       <c r="H20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>57200</v>
+        <v>91200</v>
       </c>
       <c r="E21" s="3">
-        <v>50000</v>
+        <v>59300</v>
       </c>
       <c r="F21" s="3">
-        <v>47000</v>
+        <v>51900</v>
       </c>
       <c r="G21" s="3">
-        <v>41900</v>
+        <v>48800</v>
       </c>
       <c r="H21" s="3">
-        <v>42900</v>
+        <v>43500</v>
       </c>
       <c r="I21" s="3">
-        <v>41700</v>
+        <v>44500</v>
       </c>
       <c r="J21" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K21" s="3">
         <v>37000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1086,89 +1125,98 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
-        <v>16700</v>
-      </c>
       <c r="G22" s="3">
-        <v>15100</v>
+        <v>17300</v>
       </c>
       <c r="H22" s="3">
-        <v>14200</v>
+        <v>15700</v>
       </c>
       <c r="I22" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K22" s="3">
         <v>9800</v>
       </c>
-      <c r="J22" s="3">
-        <v>9800</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>49900</v>
+        <v>84100</v>
       </c>
       <c r="E23" s="3">
-        <v>42500</v>
+        <v>51800</v>
       </c>
       <c r="F23" s="3">
-        <v>23300</v>
+        <v>44100</v>
       </c>
       <c r="G23" s="3">
-        <v>19800</v>
+        <v>24200</v>
       </c>
       <c r="H23" s="3">
-        <v>21700</v>
+        <v>20500</v>
       </c>
       <c r="I23" s="3">
-        <v>26700</v>
+        <v>22500</v>
       </c>
       <c r="J23" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K23" s="3">
         <v>22100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8600</v>
+        <v>14700</v>
       </c>
       <c r="E24" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F24" s="3">
-        <v>5300</v>
+        <v>9100</v>
       </c>
       <c r="G24" s="3">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="H24" s="3">
-        <v>6600</v>
+        <v>7300</v>
       </c>
       <c r="I24" s="3">
-        <v>8200</v>
+        <v>6900</v>
       </c>
       <c r="J24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K24" s="3">
         <v>5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>41300</v>
+        <v>69400</v>
       </c>
       <c r="E26" s="3">
-        <v>33700</v>
+        <v>42900</v>
       </c>
       <c r="F26" s="3">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="G26" s="3">
-        <v>12800</v>
+        <v>18700</v>
       </c>
       <c r="H26" s="3">
-        <v>15100</v>
+        <v>13300</v>
       </c>
       <c r="I26" s="3">
-        <v>18500</v>
+        <v>15700</v>
       </c>
       <c r="J26" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K26" s="3">
         <v>16700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>40700</v>
+        <v>68400</v>
       </c>
       <c r="E27" s="3">
-        <v>33200</v>
+        <v>42300</v>
       </c>
       <c r="F27" s="3">
-        <v>16300</v>
+        <v>34400</v>
       </c>
       <c r="G27" s="3">
-        <v>12700</v>
+        <v>16900</v>
       </c>
       <c r="H27" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="I27" s="3">
-        <v>16400</v>
+        <v>14400</v>
       </c>
       <c r="J27" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K27" s="3">
         <v>15700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19600</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3500</v>
+        <v>-2900</v>
       </c>
       <c r="E32" s="3">
-        <v>-3800</v>
+        <v>3700</v>
       </c>
       <c r="F32" s="3">
-        <v>-3300</v>
+        <v>-3900</v>
       </c>
       <c r="G32" s="3">
-        <v>-9300</v>
+        <v>-3400</v>
       </c>
       <c r="H32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>40700</v>
+        <v>68400</v>
       </c>
       <c r="E33" s="3">
-        <v>33200</v>
+        <v>42300</v>
       </c>
       <c r="F33" s="3">
-        <v>16300</v>
+        <v>34400</v>
       </c>
       <c r="G33" s="3">
-        <v>12700</v>
+        <v>16900</v>
       </c>
       <c r="H33" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="I33" s="3">
-        <v>16400</v>
+        <v>14400</v>
       </c>
       <c r="J33" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K33" s="3">
         <v>15700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19600</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>40700</v>
+        <v>68400</v>
       </c>
       <c r="E35" s="3">
-        <v>33200</v>
+        <v>42300</v>
       </c>
       <c r="F35" s="3">
-        <v>16300</v>
+        <v>34400</v>
       </c>
       <c r="G35" s="3">
-        <v>12700</v>
+        <v>16900</v>
       </c>
       <c r="H35" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="I35" s="3">
-        <v>16400</v>
+        <v>14400</v>
       </c>
       <c r="J35" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K35" s="3">
         <v>15700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19600</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>700500</v>
+        <v>794900</v>
       </c>
       <c r="E41" s="3">
-        <v>595800</v>
+        <v>725800</v>
       </c>
       <c r="F41" s="3">
-        <v>492000</v>
+        <v>617300</v>
       </c>
       <c r="G41" s="3">
-        <v>421700</v>
+        <v>509800</v>
       </c>
       <c r="H41" s="3">
-        <v>341500</v>
+        <v>436900</v>
       </c>
       <c r="I41" s="3">
-        <v>263900</v>
+        <v>353900</v>
       </c>
       <c r="J41" s="3">
+        <v>273500</v>
+      </c>
+      <c r="K41" s="3">
         <v>209400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>117900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1604,234 +1693,258 @@
       <c r="F42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>1100</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15100</v>
+        <v>16000</v>
       </c>
       <c r="E43" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="F43" s="3">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="G43" s="3">
-        <v>18500</v>
+        <v>17100</v>
       </c>
       <c r="H43" s="3">
-        <v>17700</v>
+        <v>19100</v>
       </c>
       <c r="I43" s="3">
-        <v>15700</v>
+        <v>18300</v>
       </c>
       <c r="J43" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K43" s="3">
         <v>10600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3900</v>
+        <v>6400</v>
       </c>
       <c r="E44" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F44" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="G44" s="3">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="H44" s="3">
-        <v>3300</v>
+        <v>4100</v>
       </c>
       <c r="I44" s="3">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="J44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>4400</v>
-      </c>
       <c r="H45" s="3">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="I45" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="J45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>721500</v>
+        <v>822900</v>
       </c>
       <c r="E46" s="3">
-        <v>617900</v>
+        <v>747600</v>
       </c>
       <c r="F46" s="3">
-        <v>514600</v>
+        <v>640200</v>
       </c>
       <c r="G46" s="3">
-        <v>446500</v>
+        <v>533200</v>
       </c>
       <c r="H46" s="3">
-        <v>367000</v>
+        <v>462700</v>
       </c>
       <c r="I46" s="3">
-        <v>288500</v>
+        <v>380300</v>
       </c>
       <c r="J46" s="3">
+        <v>298900</v>
+      </c>
+      <c r="K46" s="3">
         <v>224000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>133100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56300</v>
+        <v>65400</v>
       </c>
       <c r="E47" s="3">
-        <v>62300</v>
+        <v>58300</v>
       </c>
       <c r="F47" s="3">
-        <v>73600</v>
+        <v>64600</v>
       </c>
       <c r="G47" s="3">
-        <v>72400</v>
+        <v>76300</v>
       </c>
       <c r="H47" s="3">
-        <v>70900</v>
+        <v>75100</v>
       </c>
       <c r="I47" s="3">
-        <v>78300</v>
+        <v>73500</v>
       </c>
       <c r="J47" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K47" s="3">
         <v>73900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>72200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>76400</v>
+        <v>76600</v>
       </c>
       <c r="E48" s="3">
-        <v>77500</v>
+        <v>79200</v>
       </c>
       <c r="F48" s="3">
-        <v>77300</v>
+        <v>80300</v>
       </c>
       <c r="G48" s="3">
-        <v>80500</v>
+        <v>80100</v>
       </c>
       <c r="H48" s="3">
-        <v>84500</v>
+        <v>83400</v>
       </c>
       <c r="I48" s="3">
-        <v>87800</v>
+        <v>87600</v>
       </c>
       <c r="J48" s="3">
+        <v>91000</v>
+      </c>
+      <c r="K48" s="3">
         <v>65600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>39800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="E49" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="F49" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="G49" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="H49" s="3">
         <v>16200</v>
       </c>
       <c r="I49" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="J49" s="3">
         <v>17500</v>
       </c>
       <c r="K49" s="3">
+        <v>17500</v>
+      </c>
+      <c r="L49" s="3">
         <v>19300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>50300</v>
+        <v>70200</v>
       </c>
       <c r="E52" s="3">
-        <v>47100</v>
+        <v>52100</v>
       </c>
       <c r="F52" s="3">
-        <v>46000</v>
+        <v>48800</v>
       </c>
       <c r="G52" s="3">
-        <v>42000</v>
+        <v>47700</v>
       </c>
       <c r="H52" s="3">
-        <v>38200</v>
+        <v>43500</v>
       </c>
       <c r="I52" s="3">
-        <v>37400</v>
+        <v>39500</v>
       </c>
       <c r="J52" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K52" s="3">
         <v>37500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>918200</v>
+        <v>1048500</v>
       </c>
       <c r="E54" s="3">
-        <v>819200</v>
+        <v>951400</v>
       </c>
       <c r="F54" s="3">
-        <v>726400</v>
+        <v>848800</v>
       </c>
       <c r="G54" s="3">
-        <v>657100</v>
+        <v>752700</v>
       </c>
       <c r="H54" s="3">
-        <v>576300</v>
+        <v>680800</v>
       </c>
       <c r="I54" s="3">
-        <v>508900</v>
+        <v>597100</v>
       </c>
       <c r="J54" s="3">
+        <v>527300</v>
+      </c>
+      <c r="K54" s="3">
         <v>418600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>270700</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,128 +2137,141 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4700</v>
+        <v>2900</v>
       </c>
       <c r="E57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F58" s="3">
-        <v>144500</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>8400</v>
+        <v>149800</v>
       </c>
       <c r="H58" s="3">
-        <v>16800</v>
+        <v>8700</v>
       </c>
       <c r="I58" s="3">
-        <v>8400</v>
+        <v>17400</v>
       </c>
       <c r="J58" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K58" s="3">
         <v>7000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6700</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78800</v>
+        <v>80000</v>
       </c>
       <c r="E59" s="3">
-        <v>64000</v>
+        <v>81600</v>
       </c>
       <c r="F59" s="3">
-        <v>56800</v>
+        <v>66300</v>
       </c>
       <c r="G59" s="3">
-        <v>55400</v>
+        <v>58800</v>
       </c>
       <c r="H59" s="3">
-        <v>48700</v>
+        <v>57400</v>
       </c>
       <c r="I59" s="3">
-        <v>45800</v>
+        <v>50500</v>
       </c>
       <c r="J59" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K59" s="3">
         <v>38200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>83500</v>
+        <v>82900</v>
       </c>
       <c r="E60" s="3">
-        <v>65600</v>
+        <v>86500</v>
       </c>
       <c r="F60" s="3">
-        <v>202800</v>
+        <v>68000</v>
       </c>
       <c r="G60" s="3">
-        <v>63600</v>
+        <v>210200</v>
       </c>
       <c r="H60" s="3">
-        <v>58900</v>
+        <v>65900</v>
       </c>
       <c r="I60" s="3">
-        <v>55700</v>
+        <v>61000</v>
       </c>
       <c r="J60" s="3">
+        <v>57700</v>
+      </c>
+      <c r="K60" s="3">
         <v>46600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29300</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2143,53 +2285,59 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>127000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>113300</v>
+        <v>131600</v>
       </c>
       <c r="I61" s="3">
-        <v>109000</v>
+        <v>117400</v>
       </c>
       <c r="J61" s="3">
+        <v>113000</v>
+      </c>
+      <c r="K61" s="3">
         <v>105400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>355000</v>
+        <v>400900</v>
       </c>
       <c r="E62" s="3">
-        <v>316400</v>
+        <v>367800</v>
       </c>
       <c r="F62" s="3">
-        <v>265400</v>
+        <v>327900</v>
       </c>
       <c r="G62" s="3">
-        <v>226300</v>
+        <v>275000</v>
       </c>
       <c r="H62" s="3">
-        <v>187800</v>
+        <v>234400</v>
       </c>
       <c r="I62" s="3">
-        <v>142400</v>
+        <v>194600</v>
       </c>
       <c r="J62" s="3">
+        <v>147500</v>
+      </c>
+      <c r="K62" s="3">
         <v>92600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>58100</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>439200</v>
+        <v>484700</v>
       </c>
       <c r="E66" s="3">
-        <v>382800</v>
+        <v>455100</v>
       </c>
       <c r="F66" s="3">
-        <v>468800</v>
+        <v>396600</v>
       </c>
       <c r="G66" s="3">
-        <v>417500</v>
+        <v>485800</v>
       </c>
       <c r="H66" s="3">
-        <v>360800</v>
+        <v>432600</v>
       </c>
       <c r="I66" s="3">
-        <v>307800</v>
+        <v>373800</v>
       </c>
       <c r="J66" s="3">
+        <v>318900</v>
+      </c>
+      <c r="K66" s="3">
         <v>245200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>197200</v>
+        <v>272700</v>
       </c>
       <c r="E72" s="3">
-        <v>156500</v>
+        <v>204400</v>
       </c>
       <c r="F72" s="3">
-        <v>123300</v>
+        <v>162200</v>
       </c>
       <c r="G72" s="3">
-        <v>105600</v>
+        <v>127800</v>
       </c>
       <c r="H72" s="3">
-        <v>92900</v>
+        <v>109400</v>
       </c>
       <c r="I72" s="3">
-        <v>77800</v>
+        <v>96200</v>
       </c>
       <c r="J72" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K72" s="3">
         <v>59300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>479000</v>
+        <v>563800</v>
       </c>
       <c r="E76" s="3">
-        <v>436400</v>
+        <v>496300</v>
       </c>
       <c r="F76" s="3">
-        <v>257600</v>
+        <v>452200</v>
       </c>
       <c r="G76" s="3">
-        <v>239600</v>
+        <v>266900</v>
       </c>
       <c r="H76" s="3">
-        <v>215500</v>
+        <v>248200</v>
       </c>
       <c r="I76" s="3">
-        <v>201100</v>
+        <v>223300</v>
       </c>
       <c r="J76" s="3">
+        <v>208400</v>
+      </c>
+      <c r="K76" s="3">
         <v>173400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>178500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>40700</v>
+        <v>68400</v>
       </c>
       <c r="E81" s="3">
-        <v>33200</v>
+        <v>42300</v>
       </c>
       <c r="F81" s="3">
-        <v>16300</v>
+        <v>34400</v>
       </c>
       <c r="G81" s="3">
-        <v>12700</v>
+        <v>16900</v>
       </c>
       <c r="H81" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="I81" s="3">
-        <v>16400</v>
+        <v>14400</v>
       </c>
       <c r="J81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K81" s="3">
         <v>15700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19600</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F83" s="3">
         <v>7300</v>
       </c>
-      <c r="E83" s="3">
-        <v>7100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7100</v>
-      </c>
       <c r="G83" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H83" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="I83" s="3">
-        <v>5200</v>
+        <v>7300</v>
       </c>
       <c r="J83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K83" s="3">
         <v>5000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4400</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>110900</v>
+        <v>90600</v>
       </c>
       <c r="E89" s="3">
-        <v>114600</v>
+        <v>115000</v>
       </c>
       <c r="F89" s="3">
-        <v>89200</v>
+        <v>118900</v>
       </c>
       <c r="G89" s="3">
-        <v>81300</v>
+        <v>92600</v>
       </c>
       <c r="H89" s="3">
-        <v>83300</v>
+        <v>84400</v>
       </c>
       <c r="I89" s="3">
-        <v>75000</v>
+        <v>86400</v>
       </c>
       <c r="J89" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K89" s="3">
         <v>81000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>52500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4300</v>
+        <v>-3500</v>
       </c>
       <c r="E91" s="3">
-        <v>-9400</v>
+        <v>-4500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3500</v>
+        <v>-9700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2300</v>
+        <v>-3600</v>
       </c>
       <c r="H91" s="3">
-        <v>-5300</v>
+        <v>-2400</v>
       </c>
       <c r="I91" s="3">
-        <v>-21000</v>
+        <v>-5500</v>
       </c>
       <c r="J91" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-31700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4200</v>
+        <v>-21200</v>
       </c>
       <c r="E94" s="3">
-        <v>-9300</v>
+        <v>-4400</v>
       </c>
       <c r="F94" s="3">
-        <v>-12700</v>
+        <v>-9700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2300</v>
+        <v>-13200</v>
       </c>
       <c r="H94" s="3">
-        <v>-5900</v>
+        <v>-2400</v>
       </c>
       <c r="I94" s="3">
-        <v>-21000</v>
+        <v>-6200</v>
       </c>
       <c r="J94" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-69100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,16 +3291,17 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3000</v>
+        <v>-600</v>
       </c>
       <c r="E100" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
-        <v>-8400</v>
-      </c>
       <c r="G100" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>86600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2100</v>
       </c>
-      <c r="G101" s="3">
-        <v>1200</v>
-      </c>
       <c r="H101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>104600</v>
+        <v>69100</v>
       </c>
       <c r="E102" s="3">
-        <v>103600</v>
+        <v>108500</v>
       </c>
       <c r="F102" s="3">
-        <v>70200</v>
+        <v>107500</v>
       </c>
       <c r="G102" s="3">
-        <v>80000</v>
+        <v>72900</v>
       </c>
       <c r="H102" s="3">
-        <v>77500</v>
+        <v>83000</v>
       </c>
       <c r="I102" s="3">
-        <v>54400</v>
+        <v>80400</v>
       </c>
       <c r="J102" s="3">
+        <v>56500</v>
+      </c>
+      <c r="K102" s="3">
         <v>97900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CO_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>177400</v>
+        <v>185800</v>
       </c>
       <c r="E8" s="3">
-        <v>143300</v>
+        <v>150100</v>
       </c>
       <c r="F8" s="3">
-        <v>136000</v>
+        <v>142500</v>
       </c>
       <c r="G8" s="3">
-        <v>110400</v>
+        <v>115600</v>
       </c>
       <c r="H8" s="3">
-        <v>96300</v>
+        <v>100900</v>
       </c>
       <c r="I8" s="3">
-        <v>92200</v>
+        <v>96600</v>
       </c>
       <c r="J8" s="3">
-        <v>83200</v>
+        <v>87100</v>
       </c>
       <c r="K8" s="3">
         <v>73600</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27500</v>
+        <v>28800</v>
       </c>
       <c r="E9" s="3">
-        <v>27000</v>
+        <v>28300</v>
       </c>
       <c r="F9" s="3">
-        <v>26400</v>
+        <v>27600</v>
       </c>
       <c r="G9" s="3">
-        <v>20700</v>
+        <v>21700</v>
       </c>
       <c r="H9" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="I9" s="3">
-        <v>19000</v>
+        <v>19900</v>
       </c>
       <c r="J9" s="3">
-        <v>15400</v>
+        <v>16200</v>
       </c>
       <c r="K9" s="3">
         <v>14900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>149900</v>
+        <v>157000</v>
       </c>
       <c r="E10" s="3">
-        <v>116300</v>
+        <v>121800</v>
       </c>
       <c r="F10" s="3">
-        <v>109700</v>
+        <v>114900</v>
       </c>
       <c r="G10" s="3">
-        <v>89700</v>
+        <v>93900</v>
       </c>
       <c r="H10" s="3">
-        <v>75300</v>
+        <v>78900</v>
       </c>
       <c r="I10" s="3">
-        <v>73300</v>
+        <v>76700</v>
       </c>
       <c r="J10" s="3">
-        <v>67800</v>
+        <v>71000</v>
       </c>
       <c r="K10" s="3">
         <v>58700</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E12" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G12" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H12" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I12" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J12" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K12" s="3">
         <v>900</v>
@@ -909,7 +909,7 @@
         <v>400</v>
       </c>
       <c r="H14" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F15" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G15" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H15" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J15" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K15" s="3">
         <v>1900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>96200</v>
+        <v>100800</v>
       </c>
       <c r="E17" s="3">
-        <v>87900</v>
+        <v>92000</v>
       </c>
       <c r="F17" s="3">
-        <v>95400</v>
+        <v>99900</v>
       </c>
       <c r="G17" s="3">
-        <v>72300</v>
+        <v>75700</v>
       </c>
       <c r="H17" s="3">
-        <v>69700</v>
+        <v>73000</v>
       </c>
       <c r="I17" s="3">
-        <v>58100</v>
+        <v>60900</v>
       </c>
       <c r="J17" s="3">
-        <v>49500</v>
+        <v>51900</v>
       </c>
       <c r="K17" s="3">
         <v>44300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>81200</v>
+        <v>85000</v>
       </c>
       <c r="E18" s="3">
-        <v>55400</v>
+        <v>58100</v>
       </c>
       <c r="F18" s="3">
-        <v>40600</v>
+        <v>42600</v>
       </c>
       <c r="G18" s="3">
-        <v>38100</v>
+        <v>39900</v>
       </c>
       <c r="H18" s="3">
-        <v>26600</v>
+        <v>27800</v>
       </c>
       <c r="I18" s="3">
-        <v>34100</v>
+        <v>35700</v>
       </c>
       <c r="J18" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="K18" s="3">
         <v>29300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="F20" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="G20" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="H20" s="3">
-        <v>9600</v>
+        <v>10100</v>
       </c>
       <c r="I20" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J20" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="K20" s="3">
         <v>2700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>91200</v>
+        <v>95600</v>
       </c>
       <c r="E21" s="3">
-        <v>59300</v>
+        <v>62200</v>
       </c>
       <c r="F21" s="3">
-        <v>51900</v>
+        <v>54400</v>
       </c>
       <c r="G21" s="3">
-        <v>48800</v>
+        <v>51100</v>
       </c>
       <c r="H21" s="3">
-        <v>43500</v>
+        <v>45600</v>
       </c>
       <c r="I21" s="3">
-        <v>44500</v>
+        <v>46700</v>
       </c>
       <c r="J21" s="3">
-        <v>43300</v>
+        <v>45300</v>
       </c>
       <c r="K21" s="3">
         <v>37000</v>
@@ -1131,16 +1131,16 @@
         <v>500</v>
       </c>
       <c r="G22" s="3">
-        <v>17300</v>
+        <v>18200</v>
       </c>
       <c r="H22" s="3">
-        <v>15700</v>
+        <v>16400</v>
       </c>
       <c r="I22" s="3">
-        <v>14700</v>
+        <v>15400</v>
       </c>
       <c r="J22" s="3">
-        <v>10200</v>
+        <v>10700</v>
       </c>
       <c r="K22" s="3">
         <v>9800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>84100</v>
+        <v>88000</v>
       </c>
       <c r="E23" s="3">
-        <v>51800</v>
+        <v>54200</v>
       </c>
       <c r="F23" s="3">
-        <v>44100</v>
+        <v>46200</v>
       </c>
       <c r="G23" s="3">
-        <v>24200</v>
+        <v>25300</v>
       </c>
       <c r="H23" s="3">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="I23" s="3">
-        <v>22500</v>
+        <v>23600</v>
       </c>
       <c r="J23" s="3">
-        <v>27700</v>
+        <v>29000</v>
       </c>
       <c r="K23" s="3">
         <v>22100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14700</v>
+        <v>15400</v>
       </c>
       <c r="E24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J24" s="3">
         <v>8900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>9100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>6900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>8500</v>
       </c>
       <c r="K24" s="3">
         <v>5400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>69400</v>
+        <v>72700</v>
       </c>
       <c r="E26" s="3">
-        <v>42900</v>
+        <v>44900</v>
       </c>
       <c r="F26" s="3">
-        <v>35000</v>
+        <v>36600</v>
       </c>
       <c r="G26" s="3">
-        <v>18700</v>
+        <v>19600</v>
       </c>
       <c r="H26" s="3">
-        <v>13300</v>
+        <v>13900</v>
       </c>
       <c r="I26" s="3">
-        <v>15700</v>
+        <v>16400</v>
       </c>
       <c r="J26" s="3">
-        <v>19200</v>
+        <v>20200</v>
       </c>
       <c r="K26" s="3">
         <v>16700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>68400</v>
+        <v>71600</v>
       </c>
       <c r="E27" s="3">
-        <v>42300</v>
+        <v>44300</v>
       </c>
       <c r="F27" s="3">
-        <v>34400</v>
+        <v>36100</v>
       </c>
       <c r="G27" s="3">
-        <v>16900</v>
+        <v>17700</v>
       </c>
       <c r="H27" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="I27" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="J27" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="K27" s="3">
         <v>15700</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F32" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="G32" s="3">
-        <v>-3400</v>
+        <v>-3600</v>
       </c>
       <c r="H32" s="3">
-        <v>-9600</v>
+        <v>-10100</v>
       </c>
       <c r="I32" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J32" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="K32" s="3">
         <v>-2700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>68400</v>
+        <v>71600</v>
       </c>
       <c r="E33" s="3">
-        <v>42300</v>
+        <v>44300</v>
       </c>
       <c r="F33" s="3">
-        <v>34400</v>
+        <v>36100</v>
       </c>
       <c r="G33" s="3">
-        <v>16900</v>
+        <v>17700</v>
       </c>
       <c r="H33" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="I33" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="J33" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="K33" s="3">
         <v>15700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>68400</v>
+        <v>71600</v>
       </c>
       <c r="E35" s="3">
-        <v>42300</v>
+        <v>44300</v>
       </c>
       <c r="F35" s="3">
-        <v>34400</v>
+        <v>36100</v>
       </c>
       <c r="G35" s="3">
-        <v>16900</v>
+        <v>17700</v>
       </c>
       <c r="H35" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="I35" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="J35" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="K35" s="3">
         <v>15700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>794900</v>
+        <v>832600</v>
       </c>
       <c r="E41" s="3">
-        <v>725800</v>
+        <v>760300</v>
       </c>
       <c r="F41" s="3">
-        <v>617300</v>
+        <v>646600</v>
       </c>
       <c r="G41" s="3">
-        <v>509800</v>
+        <v>534000</v>
       </c>
       <c r="H41" s="3">
-        <v>436900</v>
+        <v>457600</v>
       </c>
       <c r="I41" s="3">
-        <v>353900</v>
+        <v>370700</v>
       </c>
       <c r="J41" s="3">
-        <v>273500</v>
+        <v>286400</v>
       </c>
       <c r="K41" s="3">
         <v>209400</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16000</v>
+        <v>16800</v>
       </c>
       <c r="E43" s="3">
-        <v>15600</v>
+        <v>16400</v>
       </c>
       <c r="F43" s="3">
+        <v>17800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>17900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J43" s="3">
         <v>17000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>17100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>19100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>18300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>16200</v>
       </c>
       <c r="K43" s="3">
         <v>10600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="E44" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="F44" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G44" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H44" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="I44" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J44" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="K44" s="3">
         <v>1400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="E45" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
-        <v>1800</v>
-      </c>
       <c r="H45" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="I45" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="J45" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="K45" s="3">
         <v>2600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>822900</v>
+        <v>861900</v>
       </c>
       <c r="E46" s="3">
-        <v>747600</v>
+        <v>783100</v>
       </c>
       <c r="F46" s="3">
-        <v>640200</v>
+        <v>670600</v>
       </c>
       <c r="G46" s="3">
-        <v>533200</v>
+        <v>558500</v>
       </c>
       <c r="H46" s="3">
-        <v>462700</v>
+        <v>484600</v>
       </c>
       <c r="I46" s="3">
-        <v>380300</v>
+        <v>398400</v>
       </c>
       <c r="J46" s="3">
-        <v>298900</v>
+        <v>313100</v>
       </c>
       <c r="K46" s="3">
         <v>224000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>65400</v>
+        <v>68500</v>
       </c>
       <c r="E47" s="3">
-        <v>58300</v>
+        <v>61100</v>
       </c>
       <c r="F47" s="3">
-        <v>64600</v>
+        <v>67700</v>
       </c>
       <c r="G47" s="3">
-        <v>76300</v>
+        <v>79900</v>
       </c>
       <c r="H47" s="3">
-        <v>75100</v>
+        <v>78600</v>
       </c>
       <c r="I47" s="3">
-        <v>73500</v>
+        <v>76900</v>
       </c>
       <c r="J47" s="3">
-        <v>81200</v>
+        <v>85000</v>
       </c>
       <c r="K47" s="3">
         <v>73900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>76600</v>
+        <v>80200</v>
       </c>
       <c r="E48" s="3">
-        <v>79200</v>
+        <v>83000</v>
       </c>
       <c r="F48" s="3">
-        <v>80300</v>
+        <v>84100</v>
       </c>
       <c r="G48" s="3">
-        <v>80100</v>
+        <v>83900</v>
       </c>
       <c r="H48" s="3">
-        <v>83400</v>
+        <v>87400</v>
       </c>
       <c r="I48" s="3">
-        <v>87600</v>
+        <v>91800</v>
       </c>
       <c r="J48" s="3">
-        <v>91000</v>
+        <v>95300</v>
       </c>
       <c r="K48" s="3">
         <v>65600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13500</v>
+        <v>14100</v>
       </c>
       <c r="E49" s="3">
-        <v>14200</v>
+        <v>14800</v>
       </c>
       <c r="F49" s="3">
-        <v>14800</v>
+        <v>15500</v>
       </c>
       <c r="G49" s="3">
-        <v>15500</v>
+        <v>16200</v>
       </c>
       <c r="H49" s="3">
-        <v>16200</v>
+        <v>16900</v>
       </c>
       <c r="I49" s="3">
-        <v>16800</v>
+        <v>17600</v>
       </c>
       <c r="J49" s="3">
-        <v>17500</v>
+        <v>18300</v>
       </c>
       <c r="K49" s="3">
         <v>17500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>70200</v>
+        <v>73500</v>
       </c>
       <c r="E52" s="3">
-        <v>52100</v>
+        <v>54600</v>
       </c>
       <c r="F52" s="3">
-        <v>48800</v>
+        <v>51100</v>
       </c>
       <c r="G52" s="3">
-        <v>47700</v>
+        <v>50000</v>
       </c>
       <c r="H52" s="3">
-        <v>43500</v>
+        <v>45500</v>
       </c>
       <c r="I52" s="3">
-        <v>39500</v>
+        <v>41400</v>
       </c>
       <c r="J52" s="3">
-        <v>38800</v>
+        <v>40600</v>
       </c>
       <c r="K52" s="3">
         <v>37500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1048500</v>
+        <v>1098300</v>
       </c>
       <c r="E54" s="3">
-        <v>951400</v>
+        <v>996500</v>
       </c>
       <c r="F54" s="3">
-        <v>848800</v>
+        <v>889100</v>
       </c>
       <c r="G54" s="3">
-        <v>752700</v>
+        <v>788400</v>
       </c>
       <c r="H54" s="3">
-        <v>680800</v>
+        <v>713100</v>
       </c>
       <c r="I54" s="3">
-        <v>597100</v>
+        <v>625500</v>
       </c>
       <c r="J54" s="3">
-        <v>527300</v>
+        <v>552400</v>
       </c>
       <c r="K54" s="3">
         <v>418600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="F57" s="3">
         <v>1700</v>
       </c>
       <c r="G57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J57" s="3">
         <v>1600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1500</v>
       </c>
       <c r="K57" s="3">
         <v>1400</v>
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>149800</v>
+        <v>156900</v>
       </c>
       <c r="H58" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="I58" s="3">
-        <v>17400</v>
+        <v>18300</v>
       </c>
       <c r="J58" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="K58" s="3">
         <v>7000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80000</v>
+        <v>83800</v>
       </c>
       <c r="E59" s="3">
-        <v>81600</v>
+        <v>85500</v>
       </c>
       <c r="F59" s="3">
-        <v>66300</v>
+        <v>69500</v>
       </c>
       <c r="G59" s="3">
-        <v>58800</v>
+        <v>61600</v>
       </c>
       <c r="H59" s="3">
-        <v>57400</v>
+        <v>60100</v>
       </c>
       <c r="I59" s="3">
-        <v>50500</v>
+        <v>52900</v>
       </c>
       <c r="J59" s="3">
-        <v>47500</v>
+        <v>49700</v>
       </c>
       <c r="K59" s="3">
         <v>38200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>82900</v>
+        <v>86800</v>
       </c>
       <c r="E60" s="3">
-        <v>86500</v>
+        <v>90600</v>
       </c>
       <c r="F60" s="3">
-        <v>68000</v>
+        <v>71200</v>
       </c>
       <c r="G60" s="3">
-        <v>210200</v>
+        <v>220100</v>
       </c>
       <c r="H60" s="3">
-        <v>65900</v>
+        <v>69100</v>
       </c>
       <c r="I60" s="3">
-        <v>61000</v>
+        <v>63900</v>
       </c>
       <c r="J60" s="3">
-        <v>57700</v>
+        <v>60400</v>
       </c>
       <c r="K60" s="3">
         <v>46600</v>
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>131600</v>
+        <v>137900</v>
       </c>
       <c r="I61" s="3">
-        <v>117400</v>
+        <v>122900</v>
       </c>
       <c r="J61" s="3">
-        <v>113000</v>
+        <v>118300</v>
       </c>
       <c r="K61" s="3">
         <v>105400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400900</v>
+        <v>419900</v>
       </c>
       <c r="E62" s="3">
-        <v>367800</v>
+        <v>385300</v>
       </c>
       <c r="F62" s="3">
-        <v>327900</v>
+        <v>343400</v>
       </c>
       <c r="G62" s="3">
-        <v>275000</v>
+        <v>288000</v>
       </c>
       <c r="H62" s="3">
-        <v>234400</v>
+        <v>245600</v>
       </c>
       <c r="I62" s="3">
-        <v>194600</v>
+        <v>203900</v>
       </c>
       <c r="J62" s="3">
-        <v>147500</v>
+        <v>154500</v>
       </c>
       <c r="K62" s="3">
         <v>92600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>484700</v>
+        <v>507700</v>
       </c>
       <c r="E66" s="3">
-        <v>455100</v>
+        <v>476700</v>
       </c>
       <c r="F66" s="3">
-        <v>396600</v>
+        <v>415500</v>
       </c>
       <c r="G66" s="3">
-        <v>485800</v>
+        <v>508900</v>
       </c>
       <c r="H66" s="3">
-        <v>432600</v>
+        <v>453100</v>
       </c>
       <c r="I66" s="3">
-        <v>373800</v>
+        <v>391500</v>
       </c>
       <c r="J66" s="3">
-        <v>318900</v>
+        <v>334100</v>
       </c>
       <c r="K66" s="3">
         <v>245200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>272700</v>
+        <v>285700</v>
       </c>
       <c r="E72" s="3">
-        <v>204400</v>
+        <v>214100</v>
       </c>
       <c r="F72" s="3">
-        <v>162200</v>
+        <v>169900</v>
       </c>
       <c r="G72" s="3">
-        <v>127800</v>
+        <v>133800</v>
       </c>
       <c r="H72" s="3">
-        <v>109400</v>
+        <v>114600</v>
       </c>
       <c r="I72" s="3">
-        <v>96200</v>
+        <v>100800</v>
       </c>
       <c r="J72" s="3">
-        <v>80600</v>
+        <v>84500</v>
       </c>
       <c r="K72" s="3">
         <v>59300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>563800</v>
+        <v>590500</v>
       </c>
       <c r="E76" s="3">
-        <v>496300</v>
+        <v>519800</v>
       </c>
       <c r="F76" s="3">
-        <v>452200</v>
+        <v>473600</v>
       </c>
       <c r="G76" s="3">
-        <v>266900</v>
+        <v>279600</v>
       </c>
       <c r="H76" s="3">
-        <v>248200</v>
+        <v>260000</v>
       </c>
       <c r="I76" s="3">
-        <v>223300</v>
+        <v>233900</v>
       </c>
       <c r="J76" s="3">
-        <v>208400</v>
+        <v>218300</v>
       </c>
       <c r="K76" s="3">
         <v>173400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>68400</v>
+        <v>71600</v>
       </c>
       <c r="E81" s="3">
-        <v>42300</v>
+        <v>44300</v>
       </c>
       <c r="F81" s="3">
-        <v>34400</v>
+        <v>36100</v>
       </c>
       <c r="G81" s="3">
-        <v>16900</v>
+        <v>17700</v>
       </c>
       <c r="H81" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="I81" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="J81" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="K81" s="3">
         <v>15700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="E83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H83" s="3">
         <v>7600</v>
       </c>
-      <c r="F83" s="3">
-        <v>7300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7300</v>
-      </c>
       <c r="I83" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="J83" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="K83" s="3">
         <v>5000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>90600</v>
+        <v>94900</v>
       </c>
       <c r="E89" s="3">
-        <v>115000</v>
+        <v>120500</v>
       </c>
       <c r="F89" s="3">
-        <v>118900</v>
+        <v>124600</v>
       </c>
       <c r="G89" s="3">
-        <v>92600</v>
+        <v>97000</v>
       </c>
       <c r="H89" s="3">
-        <v>84400</v>
+        <v>88400</v>
       </c>
       <c r="I89" s="3">
-        <v>86400</v>
+        <v>90500</v>
       </c>
       <c r="J89" s="3">
-        <v>77800</v>
+        <v>81500</v>
       </c>
       <c r="K89" s="3">
         <v>81000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="E91" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="F91" s="3">
-        <v>-9700</v>
+        <v>-10200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I91" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="J91" s="3">
-        <v>-21800</v>
+        <v>-22800</v>
       </c>
       <c r="K91" s="3">
         <v>-31700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21200</v>
+        <v>-22200</v>
       </c>
       <c r="E94" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="F94" s="3">
-        <v>-9700</v>
+        <v>-10100</v>
       </c>
       <c r="G94" s="3">
-        <v>-13200</v>
+        <v>-13800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I94" s="3">
-        <v>-6200</v>
+        <v>-6500</v>
       </c>
       <c r="J94" s="3">
-        <v>-21800</v>
+        <v>-22800</v>
       </c>
       <c r="K94" s="3">
         <v>-69100</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3433,22 +3433,22 @@
         <v>-600</v>
       </c>
       <c r="E100" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="F100" s="3">
         <v>-300</v>
       </c>
       <c r="G100" s="3">
-        <v>-8700</v>
+        <v>-9100</v>
       </c>
       <c r="H100" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K100" s="3">
         <v>86600</v>
@@ -3466,22 +3466,22 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F101" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H101" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I101" s="3">
         <v>200</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>69100</v>
+        <v>72300</v>
       </c>
       <c r="E102" s="3">
-        <v>108500</v>
+        <v>113700</v>
       </c>
       <c r="F102" s="3">
-        <v>107500</v>
+        <v>112600</v>
       </c>
       <c r="G102" s="3">
-        <v>72900</v>
+        <v>76300</v>
       </c>
       <c r="H102" s="3">
-        <v>83000</v>
+        <v>87000</v>
       </c>
       <c r="I102" s="3">
-        <v>80400</v>
+        <v>84200</v>
       </c>
       <c r="J102" s="3">
-        <v>56500</v>
+        <v>59100</v>
       </c>
       <c r="K102" s="3">
         <v>97900</v>

--- a/AAII_Financials/Yearly/CO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CO_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>185800</v>
+        <v>186600</v>
       </c>
       <c r="E8" s="3">
-        <v>150100</v>
+        <v>150800</v>
       </c>
       <c r="F8" s="3">
-        <v>142500</v>
+        <v>143100</v>
       </c>
       <c r="G8" s="3">
-        <v>115600</v>
+        <v>116100</v>
       </c>
       <c r="H8" s="3">
-        <v>100900</v>
+        <v>101300</v>
       </c>
       <c r="I8" s="3">
-        <v>96600</v>
+        <v>97000</v>
       </c>
       <c r="J8" s="3">
-        <v>87100</v>
+        <v>87500</v>
       </c>
       <c r="K8" s="3">
         <v>73600</v>
@@ -750,22 +750,22 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28800</v>
+        <v>28900</v>
       </c>
       <c r="E9" s="3">
-        <v>28300</v>
+        <v>28400</v>
       </c>
       <c r="F9" s="3">
-        <v>27600</v>
+        <v>27700</v>
       </c>
       <c r="G9" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="H9" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="I9" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="J9" s="3">
         <v>16200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>157000</v>
+        <v>157700</v>
       </c>
       <c r="E10" s="3">
-        <v>121800</v>
+        <v>122300</v>
       </c>
       <c r="F10" s="3">
-        <v>114900</v>
+        <v>115400</v>
       </c>
       <c r="G10" s="3">
-        <v>93900</v>
+        <v>94300</v>
       </c>
       <c r="H10" s="3">
-        <v>78900</v>
+        <v>79200</v>
       </c>
       <c r="I10" s="3">
-        <v>76700</v>
+        <v>77100</v>
       </c>
       <c r="J10" s="3">
-        <v>71000</v>
+        <v>71300</v>
       </c>
       <c r="K10" s="3">
         <v>58700</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100800</v>
+        <v>101200</v>
       </c>
       <c r="E17" s="3">
-        <v>92000</v>
+        <v>92400</v>
       </c>
       <c r="F17" s="3">
-        <v>99900</v>
+        <v>100400</v>
       </c>
       <c r="G17" s="3">
-        <v>75700</v>
+        <v>76000</v>
       </c>
       <c r="H17" s="3">
-        <v>73000</v>
+        <v>73300</v>
       </c>
       <c r="I17" s="3">
-        <v>60900</v>
+        <v>61100</v>
       </c>
       <c r="J17" s="3">
-        <v>51900</v>
+        <v>52100</v>
       </c>
       <c r="K17" s="3">
         <v>44300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>85000</v>
+        <v>85400</v>
       </c>
       <c r="E18" s="3">
-        <v>58100</v>
+        <v>58300</v>
       </c>
       <c r="F18" s="3">
-        <v>42600</v>
+        <v>42800</v>
       </c>
       <c r="G18" s="3">
-        <v>39900</v>
+        <v>40100</v>
       </c>
       <c r="H18" s="3">
-        <v>27800</v>
+        <v>28000</v>
       </c>
       <c r="I18" s="3">
-        <v>35700</v>
+        <v>35900</v>
       </c>
       <c r="J18" s="3">
-        <v>35300</v>
+        <v>35400</v>
       </c>
       <c r="K18" s="3">
         <v>29300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>95600</v>
+        <v>96000</v>
       </c>
       <c r="E21" s="3">
-        <v>62200</v>
+        <v>62500</v>
       </c>
       <c r="F21" s="3">
-        <v>54400</v>
+        <v>54600</v>
       </c>
       <c r="G21" s="3">
-        <v>51100</v>
+        <v>51400</v>
       </c>
       <c r="H21" s="3">
+        <v>45800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>46900</v>
+      </c>
+      <c r="J21" s="3">
         <v>45600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>46700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>45300</v>
       </c>
       <c r="K21" s="3">
         <v>37000</v>
@@ -1134,7 +1134,7 @@
         <v>18200</v>
       </c>
       <c r="H22" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="I22" s="3">
         <v>15400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>88000</v>
+        <v>88400</v>
       </c>
       <c r="E23" s="3">
-        <v>54200</v>
+        <v>54500</v>
       </c>
       <c r="F23" s="3">
-        <v>46200</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="3">
-        <v>25300</v>
+        <v>25400</v>
       </c>
       <c r="H23" s="3">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="I23" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="J23" s="3">
-        <v>29000</v>
+        <v>29200</v>
       </c>
       <c r="K23" s="3">
         <v>22100</v>
@@ -1191,10 +1191,10 @@
         <v>15400</v>
       </c>
       <c r="E24" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="F24" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="G24" s="3">
         <v>5700</v>
@@ -1254,22 +1254,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>72700</v>
+        <v>73000</v>
       </c>
       <c r="E26" s="3">
-        <v>44900</v>
+        <v>45100</v>
       </c>
       <c r="F26" s="3">
-        <v>36600</v>
+        <v>36800</v>
       </c>
       <c r="G26" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="H26" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="I26" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="J26" s="3">
         <v>20200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>71600</v>
+        <v>71900</v>
       </c>
       <c r="E27" s="3">
-        <v>44300</v>
+        <v>44500</v>
       </c>
       <c r="F27" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="G27" s="3">
         <v>17700</v>
       </c>
       <c r="H27" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="I27" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="J27" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="K27" s="3">
         <v>15700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>71600</v>
+        <v>71900</v>
       </c>
       <c r="E33" s="3">
-        <v>44300</v>
+        <v>44500</v>
       </c>
       <c r="F33" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="G33" s="3">
         <v>17700</v>
       </c>
       <c r="H33" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="I33" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="J33" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="K33" s="3">
         <v>15700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>71600</v>
+        <v>71900</v>
       </c>
       <c r="E35" s="3">
-        <v>44300</v>
+        <v>44500</v>
       </c>
       <c r="F35" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="G35" s="3">
         <v>17700</v>
       </c>
       <c r="H35" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="I35" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="J35" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="K35" s="3">
         <v>15700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>832600</v>
+        <v>836200</v>
       </c>
       <c r="E41" s="3">
-        <v>760300</v>
+        <v>763600</v>
       </c>
       <c r="F41" s="3">
-        <v>646600</v>
+        <v>649400</v>
       </c>
       <c r="G41" s="3">
-        <v>534000</v>
+        <v>536300</v>
       </c>
       <c r="H41" s="3">
-        <v>457600</v>
+        <v>459600</v>
       </c>
       <c r="I41" s="3">
-        <v>370700</v>
+        <v>372300</v>
       </c>
       <c r="J41" s="3">
-        <v>286400</v>
+        <v>287700</v>
       </c>
       <c r="K41" s="3">
         <v>209400</v>
@@ -1721,22 +1721,22 @@
         <v>16800</v>
       </c>
       <c r="E43" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="F43" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="G43" s="3">
-        <v>17900</v>
+        <v>18000</v>
       </c>
       <c r="H43" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="I43" s="3">
         <v>19200</v>
       </c>
       <c r="J43" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="K43" s="3">
         <v>10600</v>
@@ -1787,7 +1787,7 @@
         <v>5900</v>
       </c>
       <c r="E45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F45" s="3">
         <v>2000</v>
@@ -1802,7 +1802,7 @@
         <v>4300</v>
       </c>
       <c r="J45" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K45" s="3">
         <v>2600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>861900</v>
+        <v>865700</v>
       </c>
       <c r="E46" s="3">
-        <v>783100</v>
+        <v>786500</v>
       </c>
       <c r="F46" s="3">
-        <v>670600</v>
+        <v>673500</v>
       </c>
       <c r="G46" s="3">
-        <v>558500</v>
+        <v>560900</v>
       </c>
       <c r="H46" s="3">
-        <v>484600</v>
+        <v>486700</v>
       </c>
       <c r="I46" s="3">
-        <v>398400</v>
+        <v>400100</v>
       </c>
       <c r="J46" s="3">
-        <v>313100</v>
+        <v>314400</v>
       </c>
       <c r="K46" s="3">
         <v>224000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68500</v>
+        <v>68800</v>
       </c>
       <c r="E47" s="3">
-        <v>61100</v>
+        <v>61300</v>
       </c>
       <c r="F47" s="3">
-        <v>67700</v>
+        <v>68000</v>
       </c>
       <c r="G47" s="3">
-        <v>79900</v>
+        <v>80200</v>
       </c>
       <c r="H47" s="3">
-        <v>78600</v>
+        <v>79000</v>
       </c>
       <c r="I47" s="3">
-        <v>76900</v>
+        <v>77300</v>
       </c>
       <c r="J47" s="3">
-        <v>85000</v>
+        <v>85400</v>
       </c>
       <c r="K47" s="3">
         <v>73900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80200</v>
+        <v>80500</v>
       </c>
       <c r="E48" s="3">
-        <v>83000</v>
+        <v>83300</v>
       </c>
       <c r="F48" s="3">
-        <v>84100</v>
+        <v>84500</v>
       </c>
       <c r="G48" s="3">
-        <v>83900</v>
+        <v>84200</v>
       </c>
       <c r="H48" s="3">
-        <v>87400</v>
+        <v>87800</v>
       </c>
       <c r="I48" s="3">
-        <v>91800</v>
+        <v>92200</v>
       </c>
       <c r="J48" s="3">
-        <v>95300</v>
+        <v>95700</v>
       </c>
       <c r="K48" s="3">
         <v>65600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="E49" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="F49" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="G49" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="H49" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="I49" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="J49" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="K49" s="3">
         <v>17500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73500</v>
+        <v>73800</v>
       </c>
       <c r="E52" s="3">
-        <v>54600</v>
+        <v>54800</v>
       </c>
       <c r="F52" s="3">
-        <v>51100</v>
+        <v>51400</v>
       </c>
       <c r="G52" s="3">
-        <v>50000</v>
+        <v>50200</v>
       </c>
       <c r="H52" s="3">
-        <v>45500</v>
+        <v>45700</v>
       </c>
       <c r="I52" s="3">
-        <v>41400</v>
+        <v>41600</v>
       </c>
       <c r="J52" s="3">
-        <v>40600</v>
+        <v>40800</v>
       </c>
       <c r="K52" s="3">
         <v>37500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1098300</v>
+        <v>1103000</v>
       </c>
       <c r="E54" s="3">
-        <v>996500</v>
+        <v>1000900</v>
       </c>
       <c r="F54" s="3">
-        <v>889100</v>
+        <v>892900</v>
       </c>
       <c r="G54" s="3">
-        <v>788400</v>
+        <v>791800</v>
       </c>
       <c r="H54" s="3">
-        <v>713100</v>
+        <v>716200</v>
       </c>
       <c r="I54" s="3">
-        <v>625500</v>
+        <v>628200</v>
       </c>
       <c r="J54" s="3">
-        <v>552400</v>
+        <v>554700</v>
       </c>
       <c r="K54" s="3">
         <v>418600</v>
@@ -2144,7 +2144,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
         <v>5100</v>
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>156900</v>
+        <v>157500</v>
       </c>
       <c r="H58" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="I58" s="3">
         <v>18300</v>
       </c>
       <c r="J58" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="K58" s="3">
         <v>7000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>83800</v>
+        <v>84100</v>
       </c>
       <c r="E59" s="3">
-        <v>85500</v>
+        <v>85900</v>
       </c>
       <c r="F59" s="3">
-        <v>69500</v>
+        <v>69800</v>
       </c>
       <c r="G59" s="3">
-        <v>61600</v>
+        <v>61900</v>
       </c>
       <c r="H59" s="3">
-        <v>60100</v>
+        <v>60400</v>
       </c>
       <c r="I59" s="3">
-        <v>52900</v>
+        <v>53100</v>
       </c>
       <c r="J59" s="3">
-        <v>49700</v>
+        <v>49900</v>
       </c>
       <c r="K59" s="3">
         <v>38200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>86800</v>
+        <v>87200</v>
       </c>
       <c r="E60" s="3">
-        <v>90600</v>
+        <v>91000</v>
       </c>
       <c r="F60" s="3">
-        <v>71200</v>
+        <v>71500</v>
       </c>
       <c r="G60" s="3">
-        <v>220100</v>
+        <v>221100</v>
       </c>
       <c r="H60" s="3">
-        <v>69100</v>
+        <v>69400</v>
       </c>
       <c r="I60" s="3">
-        <v>63900</v>
+        <v>64200</v>
       </c>
       <c r="J60" s="3">
-        <v>60400</v>
+        <v>60700</v>
       </c>
       <c r="K60" s="3">
         <v>46600</v>
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>137900</v>
+        <v>138500</v>
       </c>
       <c r="I61" s="3">
-        <v>122900</v>
+        <v>123500</v>
       </c>
       <c r="J61" s="3">
-        <v>118300</v>
+        <v>118800</v>
       </c>
       <c r="K61" s="3">
         <v>105400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>419900</v>
+        <v>421800</v>
       </c>
       <c r="E62" s="3">
-        <v>385300</v>
+        <v>386900</v>
       </c>
       <c r="F62" s="3">
-        <v>343400</v>
+        <v>344900</v>
       </c>
       <c r="G62" s="3">
-        <v>288000</v>
+        <v>289200</v>
       </c>
       <c r="H62" s="3">
-        <v>245600</v>
+        <v>246600</v>
       </c>
       <c r="I62" s="3">
-        <v>203900</v>
+        <v>204800</v>
       </c>
       <c r="J62" s="3">
-        <v>154500</v>
+        <v>155200</v>
       </c>
       <c r="K62" s="3">
         <v>92600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>507700</v>
+        <v>509900</v>
       </c>
       <c r="E66" s="3">
-        <v>476700</v>
+        <v>478800</v>
       </c>
       <c r="F66" s="3">
-        <v>415500</v>
+        <v>417300</v>
       </c>
       <c r="G66" s="3">
-        <v>508900</v>
+        <v>511100</v>
       </c>
       <c r="H66" s="3">
-        <v>453100</v>
+        <v>455100</v>
       </c>
       <c r="I66" s="3">
-        <v>391500</v>
+        <v>393200</v>
       </c>
       <c r="J66" s="3">
-        <v>334100</v>
+        <v>335500</v>
       </c>
       <c r="K66" s="3">
         <v>245200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>285700</v>
+        <v>286900</v>
       </c>
       <c r="E72" s="3">
-        <v>214100</v>
+        <v>215000</v>
       </c>
       <c r="F72" s="3">
-        <v>169900</v>
+        <v>170600</v>
       </c>
       <c r="G72" s="3">
-        <v>133800</v>
+        <v>134400</v>
       </c>
       <c r="H72" s="3">
-        <v>114600</v>
+        <v>115100</v>
       </c>
       <c r="I72" s="3">
-        <v>100800</v>
+        <v>101200</v>
       </c>
       <c r="J72" s="3">
-        <v>84500</v>
+        <v>84800</v>
       </c>
       <c r="K72" s="3">
         <v>59300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>590500</v>
+        <v>593100</v>
       </c>
       <c r="E76" s="3">
-        <v>519800</v>
+        <v>522100</v>
       </c>
       <c r="F76" s="3">
-        <v>473600</v>
+        <v>475700</v>
       </c>
       <c r="G76" s="3">
-        <v>279600</v>
+        <v>280800</v>
       </c>
       <c r="H76" s="3">
-        <v>260000</v>
+        <v>261100</v>
       </c>
       <c r="I76" s="3">
-        <v>233900</v>
+        <v>234900</v>
       </c>
       <c r="J76" s="3">
-        <v>218300</v>
+        <v>219200</v>
       </c>
       <c r="K76" s="3">
         <v>173400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>71600</v>
+        <v>71900</v>
       </c>
       <c r="E81" s="3">
-        <v>44300</v>
+        <v>44500</v>
       </c>
       <c r="F81" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="G81" s="3">
         <v>17700</v>
       </c>
       <c r="H81" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="I81" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="J81" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="K81" s="3">
         <v>15700</v>
@@ -2905,7 +2905,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="E83" s="3">
         <v>8000</v>
@@ -2917,13 +2917,13 @@
         <v>7700</v>
       </c>
       <c r="H83" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="I83" s="3">
         <v>7700</v>
       </c>
       <c r="J83" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="K83" s="3">
         <v>5000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>94900</v>
+        <v>95300</v>
       </c>
       <c r="E89" s="3">
-        <v>120500</v>
+        <v>121000</v>
       </c>
       <c r="F89" s="3">
-        <v>124600</v>
+        <v>125100</v>
       </c>
       <c r="G89" s="3">
-        <v>97000</v>
+        <v>97400</v>
       </c>
       <c r="H89" s="3">
-        <v>88400</v>
+        <v>88800</v>
       </c>
       <c r="I89" s="3">
-        <v>90500</v>
+        <v>90900</v>
       </c>
       <c r="J89" s="3">
-        <v>81500</v>
+        <v>81900</v>
       </c>
       <c r="K89" s="3">
         <v>81000</v>
@@ -3166,10 +3166,10 @@
         <v>-2500</v>
       </c>
       <c r="I91" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="J91" s="3">
-        <v>-22800</v>
+        <v>-22900</v>
       </c>
       <c r="K91" s="3">
         <v>-31700</v>
@@ -3250,13 +3250,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22200</v>
+        <v>-22300</v>
       </c>
       <c r="E94" s="3">
         <v>-4600</v>
       </c>
       <c r="F94" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="G94" s="3">
         <v>-13800</v>
@@ -3268,7 +3268,7 @@
         <v>-6500</v>
       </c>
       <c r="J94" s="3">
-        <v>-22800</v>
+        <v>-22900</v>
       </c>
       <c r="K94" s="3">
         <v>-69100</v>
@@ -3439,7 +3439,7 @@
         <v>-300</v>
       </c>
       <c r="G100" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="H100" s="3">
         <v>-300</v>
@@ -3472,7 +3472,7 @@
         <v>-1500</v>
       </c>
       <c r="G101" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H101" s="3">
         <v>1400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>72300</v>
+        <v>72600</v>
       </c>
       <c r="E102" s="3">
-        <v>113700</v>
+        <v>114200</v>
       </c>
       <c r="F102" s="3">
-        <v>112600</v>
+        <v>113100</v>
       </c>
       <c r="G102" s="3">
-        <v>76300</v>
+        <v>76700</v>
       </c>
       <c r="H102" s="3">
-        <v>87000</v>
+        <v>87400</v>
       </c>
       <c r="I102" s="3">
-        <v>84200</v>
+        <v>84600</v>
       </c>
       <c r="J102" s="3">
-        <v>59100</v>
+        <v>59400</v>
       </c>
       <c r="K102" s="3">
         <v>97900</v>

--- a/AAII_Financials/Yearly/CO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CO_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>186600</v>
+        <v>190600</v>
       </c>
       <c r="E8" s="3">
-        <v>150800</v>
+        <v>153900</v>
       </c>
       <c r="F8" s="3">
-        <v>143100</v>
+        <v>146100</v>
       </c>
       <c r="G8" s="3">
-        <v>116100</v>
+        <v>118600</v>
       </c>
       <c r="H8" s="3">
-        <v>101300</v>
+        <v>103400</v>
       </c>
       <c r="I8" s="3">
-        <v>97000</v>
+        <v>99100</v>
       </c>
       <c r="J8" s="3">
-        <v>87500</v>
+        <v>89400</v>
       </c>
       <c r="K8" s="3">
         <v>73600</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28900</v>
+        <v>29500</v>
       </c>
       <c r="E9" s="3">
-        <v>28400</v>
+        <v>29000</v>
       </c>
       <c r="F9" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="G9" s="3">
-        <v>21800</v>
+        <v>22300</v>
       </c>
       <c r="H9" s="3">
-        <v>22100</v>
+        <v>22600</v>
       </c>
       <c r="I9" s="3">
-        <v>20000</v>
+        <v>20400</v>
       </c>
       <c r="J9" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="K9" s="3">
         <v>14900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>157700</v>
+        <v>161100</v>
       </c>
       <c r="E10" s="3">
-        <v>122300</v>
+        <v>124900</v>
       </c>
       <c r="F10" s="3">
-        <v>115400</v>
+        <v>117800</v>
       </c>
       <c r="G10" s="3">
-        <v>94300</v>
+        <v>96300</v>
       </c>
       <c r="H10" s="3">
-        <v>79200</v>
+        <v>80900</v>
       </c>
       <c r="I10" s="3">
-        <v>77100</v>
+        <v>78700</v>
       </c>
       <c r="J10" s="3">
-        <v>71300</v>
+        <v>72800</v>
       </c>
       <c r="K10" s="3">
         <v>58700</v>
@@ -831,10 +831,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E12" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F12" s="3">
         <v>1800</v>
@@ -930,22 +930,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E15" s="3">
         <v>2600</v>
       </c>
       <c r="F15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I15" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J15" s="3">
         <v>2200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>101200</v>
+        <v>103300</v>
       </c>
       <c r="E17" s="3">
-        <v>92400</v>
+        <v>94400</v>
       </c>
       <c r="F17" s="3">
-        <v>100400</v>
+        <v>102500</v>
       </c>
       <c r="G17" s="3">
-        <v>76000</v>
+        <v>77600</v>
       </c>
       <c r="H17" s="3">
-        <v>73300</v>
+        <v>74900</v>
       </c>
       <c r="I17" s="3">
-        <v>61100</v>
+        <v>62400</v>
       </c>
       <c r="J17" s="3">
-        <v>52100</v>
+        <v>53200</v>
       </c>
       <c r="K17" s="3">
         <v>44300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>85400</v>
+        <v>87200</v>
       </c>
       <c r="E18" s="3">
-        <v>58300</v>
+        <v>59500</v>
       </c>
       <c r="F18" s="3">
-        <v>42800</v>
+        <v>43700</v>
       </c>
       <c r="G18" s="3">
-        <v>40100</v>
+        <v>40900</v>
       </c>
       <c r="H18" s="3">
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="I18" s="3">
-        <v>35900</v>
+        <v>36700</v>
       </c>
       <c r="J18" s="3">
-        <v>35400</v>
+        <v>36200</v>
       </c>
       <c r="K18" s="3">
         <v>29300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="F20" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G20" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H20" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="I20" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="J20" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K20" s="3">
         <v>2700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>96000</v>
+        <v>98000</v>
       </c>
       <c r="E21" s="3">
-        <v>62500</v>
+        <v>63800</v>
       </c>
       <c r="F21" s="3">
-        <v>54600</v>
+        <v>55700</v>
       </c>
       <c r="G21" s="3">
-        <v>51400</v>
+        <v>52400</v>
       </c>
       <c r="H21" s="3">
-        <v>45800</v>
+        <v>46700</v>
       </c>
       <c r="I21" s="3">
-        <v>46900</v>
+        <v>47900</v>
       </c>
       <c r="J21" s="3">
-        <v>45600</v>
+        <v>46500</v>
       </c>
       <c r="K21" s="3">
         <v>37000</v>
@@ -1131,16 +1131,16 @@
         <v>500</v>
       </c>
       <c r="G22" s="3">
-        <v>18200</v>
+        <v>18600</v>
       </c>
       <c r="H22" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="I22" s="3">
-        <v>15400</v>
+        <v>15800</v>
       </c>
       <c r="J22" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="K22" s="3">
         <v>9800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>88400</v>
+        <v>90300</v>
       </c>
       <c r="E23" s="3">
-        <v>54500</v>
+        <v>55600</v>
       </c>
       <c r="F23" s="3">
-        <v>46400</v>
+        <v>47400</v>
       </c>
       <c r="G23" s="3">
-        <v>25400</v>
+        <v>25900</v>
       </c>
       <c r="H23" s="3">
-        <v>21600</v>
+        <v>22000</v>
       </c>
       <c r="I23" s="3">
-        <v>23700</v>
+        <v>24200</v>
       </c>
       <c r="J23" s="3">
-        <v>29200</v>
+        <v>29800</v>
       </c>
       <c r="K23" s="3">
         <v>22100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15400</v>
+        <v>15800</v>
       </c>
       <c r="E24" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="F24" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="G24" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="H24" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="I24" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="J24" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="K24" s="3">
         <v>5400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>73000</v>
+        <v>74500</v>
       </c>
       <c r="E26" s="3">
-        <v>45100</v>
+        <v>46100</v>
       </c>
       <c r="F26" s="3">
-        <v>36800</v>
+        <v>37600</v>
       </c>
       <c r="G26" s="3">
-        <v>19700</v>
+        <v>20100</v>
       </c>
       <c r="H26" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="I26" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="J26" s="3">
-        <v>20200</v>
+        <v>20700</v>
       </c>
       <c r="K26" s="3">
         <v>16700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>71900</v>
+        <v>73400</v>
       </c>
       <c r="E27" s="3">
-        <v>44500</v>
+        <v>45400</v>
       </c>
       <c r="F27" s="3">
-        <v>36200</v>
+        <v>37000</v>
       </c>
       <c r="G27" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="H27" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="I27" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="J27" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="K27" s="3">
         <v>15700</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E32" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F32" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="G32" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="H32" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="I32" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J32" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="K32" s="3">
         <v>-2700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>71900</v>
+        <v>73400</v>
       </c>
       <c r="E33" s="3">
-        <v>44500</v>
+        <v>45400</v>
       </c>
       <c r="F33" s="3">
-        <v>36200</v>
+        <v>37000</v>
       </c>
       <c r="G33" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="H33" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="I33" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="J33" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="K33" s="3">
         <v>15700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>71900</v>
+        <v>73400</v>
       </c>
       <c r="E35" s="3">
-        <v>44500</v>
+        <v>45400</v>
       </c>
       <c r="F35" s="3">
-        <v>36200</v>
+        <v>37000</v>
       </c>
       <c r="G35" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="H35" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="I35" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="J35" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="K35" s="3">
         <v>15700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>836200</v>
+        <v>853900</v>
       </c>
       <c r="E41" s="3">
-        <v>763600</v>
+        <v>779700</v>
       </c>
       <c r="F41" s="3">
-        <v>649400</v>
+        <v>663100</v>
       </c>
       <c r="G41" s="3">
-        <v>536300</v>
+        <v>547600</v>
       </c>
       <c r="H41" s="3">
-        <v>459600</v>
+        <v>469300</v>
       </c>
       <c r="I41" s="3">
-        <v>372300</v>
+        <v>380100</v>
       </c>
       <c r="J41" s="3">
-        <v>287700</v>
+        <v>293800</v>
       </c>
       <c r="K41" s="3">
         <v>209400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E43" s="3">
         <v>16800</v>
       </c>
-      <c r="E43" s="3">
-        <v>16500</v>
-      </c>
       <c r="F43" s="3">
-        <v>17900</v>
+        <v>18300</v>
       </c>
       <c r="G43" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="H43" s="3">
-        <v>20100</v>
+        <v>20600</v>
       </c>
       <c r="I43" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="J43" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="K43" s="3">
         <v>10600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E44" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F44" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G44" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H44" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I44" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J44" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K44" s="3">
         <v>1400</v>
@@ -1784,7 +1784,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E45" s="3">
         <v>2300</v>
@@ -1796,13 +1796,13 @@
         <v>1900</v>
       </c>
       <c r="H45" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I45" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J45" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K45" s="3">
         <v>2600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>865700</v>
+        <v>884000</v>
       </c>
       <c r="E46" s="3">
-        <v>786500</v>
+        <v>803100</v>
       </c>
       <c r="F46" s="3">
-        <v>673500</v>
+        <v>687800</v>
       </c>
       <c r="G46" s="3">
-        <v>560900</v>
+        <v>572800</v>
       </c>
       <c r="H46" s="3">
-        <v>486700</v>
+        <v>497000</v>
       </c>
       <c r="I46" s="3">
-        <v>400100</v>
+        <v>408500</v>
       </c>
       <c r="J46" s="3">
-        <v>314400</v>
+        <v>321100</v>
       </c>
       <c r="K46" s="3">
         <v>224000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68800</v>
+        <v>70300</v>
       </c>
       <c r="E47" s="3">
-        <v>61300</v>
+        <v>62600</v>
       </c>
       <c r="F47" s="3">
-        <v>68000</v>
+        <v>69400</v>
       </c>
       <c r="G47" s="3">
-        <v>80200</v>
+        <v>81900</v>
       </c>
       <c r="H47" s="3">
-        <v>79000</v>
+        <v>80600</v>
       </c>
       <c r="I47" s="3">
-        <v>77300</v>
+        <v>78900</v>
       </c>
       <c r="J47" s="3">
-        <v>85400</v>
+        <v>87200</v>
       </c>
       <c r="K47" s="3">
         <v>73900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80500</v>
+        <v>82300</v>
       </c>
       <c r="E48" s="3">
-        <v>83300</v>
+        <v>85100</v>
       </c>
       <c r="F48" s="3">
-        <v>84500</v>
+        <v>86300</v>
       </c>
       <c r="G48" s="3">
-        <v>84200</v>
+        <v>86000</v>
       </c>
       <c r="H48" s="3">
-        <v>87800</v>
+        <v>89600</v>
       </c>
       <c r="I48" s="3">
-        <v>92200</v>
+        <v>94100</v>
       </c>
       <c r="J48" s="3">
-        <v>95700</v>
+        <v>97800</v>
       </c>
       <c r="K48" s="3">
         <v>65600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="E49" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="F49" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="G49" s="3">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="H49" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="I49" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="J49" s="3">
-        <v>18400</v>
+        <v>18800</v>
       </c>
       <c r="K49" s="3">
         <v>17500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73800</v>
+        <v>75400</v>
       </c>
       <c r="E52" s="3">
-        <v>54800</v>
+        <v>56000</v>
       </c>
       <c r="F52" s="3">
-        <v>51400</v>
+        <v>52400</v>
       </c>
       <c r="G52" s="3">
-        <v>50200</v>
+        <v>51200</v>
       </c>
       <c r="H52" s="3">
-        <v>45700</v>
+        <v>46700</v>
       </c>
       <c r="I52" s="3">
+        <v>42500</v>
+      </c>
+      <c r="J52" s="3">
         <v>41600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>40800</v>
       </c>
       <c r="K52" s="3">
         <v>37500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1103000</v>
+        <v>1126400</v>
       </c>
       <c r="E54" s="3">
-        <v>1000900</v>
+        <v>1022000</v>
       </c>
       <c r="F54" s="3">
-        <v>892900</v>
+        <v>911800</v>
       </c>
       <c r="G54" s="3">
-        <v>791800</v>
+        <v>808600</v>
       </c>
       <c r="H54" s="3">
-        <v>716200</v>
+        <v>731400</v>
       </c>
       <c r="I54" s="3">
-        <v>628200</v>
+        <v>641500</v>
       </c>
       <c r="J54" s="3">
-        <v>554700</v>
+        <v>566500</v>
       </c>
       <c r="K54" s="3">
         <v>418600</v>
@@ -2147,19 +2147,19 @@
         <v>3100</v>
       </c>
       <c r="E57" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G57" s="3">
         <v>1700</v>
       </c>
       <c r="H57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I57" s="3">
         <v>2000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1900</v>
       </c>
       <c r="J57" s="3">
         <v>1600</v>
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>157500</v>
+        <v>160900</v>
       </c>
       <c r="H58" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="I58" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="J58" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="K58" s="3">
         <v>7000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>84100</v>
+        <v>85900</v>
       </c>
       <c r="E59" s="3">
-        <v>85900</v>
+        <v>87700</v>
       </c>
       <c r="F59" s="3">
-        <v>69800</v>
+        <v>71300</v>
       </c>
       <c r="G59" s="3">
-        <v>61900</v>
+        <v>63200</v>
       </c>
       <c r="H59" s="3">
-        <v>60400</v>
+        <v>61600</v>
       </c>
       <c r="I59" s="3">
-        <v>53100</v>
+        <v>54200</v>
       </c>
       <c r="J59" s="3">
-        <v>49900</v>
+        <v>51000</v>
       </c>
       <c r="K59" s="3">
         <v>38200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>87200</v>
+        <v>89000</v>
       </c>
       <c r="E60" s="3">
-        <v>91000</v>
+        <v>92900</v>
       </c>
       <c r="F60" s="3">
-        <v>71500</v>
+        <v>73000</v>
       </c>
       <c r="G60" s="3">
-        <v>221100</v>
+        <v>225800</v>
       </c>
       <c r="H60" s="3">
-        <v>69400</v>
+        <v>70800</v>
       </c>
       <c r="I60" s="3">
-        <v>64200</v>
+        <v>65600</v>
       </c>
       <c r="J60" s="3">
-        <v>60700</v>
+        <v>62000</v>
       </c>
       <c r="K60" s="3">
         <v>46600</v>
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>138500</v>
+        <v>141400</v>
       </c>
       <c r="I61" s="3">
-        <v>123500</v>
+        <v>126100</v>
       </c>
       <c r="J61" s="3">
-        <v>118800</v>
+        <v>121300</v>
       </c>
       <c r="K61" s="3">
         <v>105400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>421800</v>
+        <v>430700</v>
       </c>
       <c r="E62" s="3">
-        <v>386900</v>
+        <v>395100</v>
       </c>
       <c r="F62" s="3">
-        <v>344900</v>
+        <v>352200</v>
       </c>
       <c r="G62" s="3">
-        <v>289200</v>
+        <v>295400</v>
       </c>
       <c r="H62" s="3">
-        <v>246600</v>
+        <v>251800</v>
       </c>
       <c r="I62" s="3">
-        <v>204800</v>
+        <v>209100</v>
       </c>
       <c r="J62" s="3">
-        <v>155200</v>
+        <v>158500</v>
       </c>
       <c r="K62" s="3">
         <v>92600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>509900</v>
+        <v>520700</v>
       </c>
       <c r="E66" s="3">
-        <v>478800</v>
+        <v>488900</v>
       </c>
       <c r="F66" s="3">
-        <v>417300</v>
+        <v>426100</v>
       </c>
       <c r="G66" s="3">
-        <v>511100</v>
+        <v>521900</v>
       </c>
       <c r="H66" s="3">
-        <v>455100</v>
+        <v>464700</v>
       </c>
       <c r="I66" s="3">
-        <v>393200</v>
+        <v>401600</v>
       </c>
       <c r="J66" s="3">
-        <v>335500</v>
+        <v>342600</v>
       </c>
       <c r="K66" s="3">
         <v>245200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>286900</v>
+        <v>293000</v>
       </c>
       <c r="E72" s="3">
-        <v>215000</v>
+        <v>219500</v>
       </c>
       <c r="F72" s="3">
-        <v>170600</v>
+        <v>174200</v>
       </c>
       <c r="G72" s="3">
-        <v>134400</v>
+        <v>137300</v>
       </c>
       <c r="H72" s="3">
-        <v>115100</v>
+        <v>117600</v>
       </c>
       <c r="I72" s="3">
-        <v>101200</v>
+        <v>103400</v>
       </c>
       <c r="J72" s="3">
-        <v>84800</v>
+        <v>86600</v>
       </c>
       <c r="K72" s="3">
         <v>59300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>593100</v>
+        <v>605700</v>
       </c>
       <c r="E76" s="3">
-        <v>522100</v>
+        <v>533100</v>
       </c>
       <c r="F76" s="3">
-        <v>475700</v>
+        <v>485700</v>
       </c>
       <c r="G76" s="3">
-        <v>280800</v>
+        <v>286700</v>
       </c>
       <c r="H76" s="3">
-        <v>261100</v>
+        <v>266700</v>
       </c>
       <c r="I76" s="3">
-        <v>234900</v>
+        <v>239900</v>
       </c>
       <c r="J76" s="3">
-        <v>219200</v>
+        <v>223900</v>
       </c>
       <c r="K76" s="3">
         <v>173400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>71900</v>
+        <v>73400</v>
       </c>
       <c r="E81" s="3">
-        <v>44500</v>
+        <v>45400</v>
       </c>
       <c r="F81" s="3">
-        <v>36200</v>
+        <v>37000</v>
       </c>
       <c r="G81" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="H81" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="I81" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="J81" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="K81" s="3">
         <v>15700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="E83" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="F83" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G83" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="H83" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="I83" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="J83" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="K83" s="3">
         <v>5000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>95300</v>
+        <v>97400</v>
       </c>
       <c r="E89" s="3">
-        <v>121000</v>
+        <v>123600</v>
       </c>
       <c r="F89" s="3">
-        <v>125100</v>
+        <v>127700</v>
       </c>
       <c r="G89" s="3">
-        <v>97400</v>
+        <v>99500</v>
       </c>
       <c r="H89" s="3">
-        <v>88800</v>
+        <v>90600</v>
       </c>
       <c r="I89" s="3">
-        <v>90900</v>
+        <v>92800</v>
       </c>
       <c r="J89" s="3">
-        <v>81900</v>
+        <v>83600</v>
       </c>
       <c r="K89" s="3">
         <v>81000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="E91" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="F91" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I91" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="J91" s="3">
-        <v>-22900</v>
+        <v>-23400</v>
       </c>
       <c r="K91" s="3">
         <v>-31700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22300</v>
+        <v>-22800</v>
       </c>
       <c r="E94" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="F94" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="G94" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I94" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="J94" s="3">
-        <v>-22900</v>
+        <v>-23400</v>
       </c>
       <c r="K94" s="3">
         <v>-69100</v>
@@ -3433,13 +3433,13 @@
         <v>-600</v>
       </c>
       <c r="E100" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="F100" s="3">
         <v>-300</v>
       </c>
       <c r="G100" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="H100" s="3">
         <v>-300</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
         <v>1000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>72600</v>
+        <v>74200</v>
       </c>
       <c r="E102" s="3">
-        <v>114200</v>
+        <v>116600</v>
       </c>
       <c r="F102" s="3">
-        <v>113100</v>
+        <v>115500</v>
       </c>
       <c r="G102" s="3">
-        <v>76700</v>
+        <v>78300</v>
       </c>
       <c r="H102" s="3">
-        <v>87400</v>
+        <v>89200</v>
       </c>
       <c r="I102" s="3">
-        <v>84600</v>
+        <v>86400</v>
       </c>
       <c r="J102" s="3">
-        <v>59400</v>
+        <v>60700</v>
       </c>
       <c r="K102" s="3">
         <v>97900</v>

--- a/AAII_Financials/Yearly/CO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>190600</v>
+        <v>178600</v>
       </c>
       <c r="E8" s="3">
-        <v>153900</v>
+        <v>188100</v>
       </c>
       <c r="F8" s="3">
-        <v>146100</v>
+        <v>151900</v>
       </c>
       <c r="G8" s="3">
-        <v>118600</v>
+        <v>144200</v>
       </c>
       <c r="H8" s="3">
-        <v>103400</v>
+        <v>117000</v>
       </c>
       <c r="I8" s="3">
-        <v>99100</v>
+        <v>102100</v>
       </c>
       <c r="J8" s="3">
+        <v>97800</v>
+      </c>
+      <c r="K8" s="3">
         <v>89400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>56500</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>29500</v>
+        <v>27600</v>
       </c>
       <c r="E9" s="3">
-        <v>29000</v>
+        <v>29100</v>
       </c>
       <c r="F9" s="3">
-        <v>28300</v>
+        <v>28600</v>
       </c>
       <c r="G9" s="3">
+        <v>27900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I9" s="3">
         <v>22300</v>
       </c>
-      <c r="H9" s="3">
-        <v>22600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>20400</v>
-      </c>
       <c r="J9" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K9" s="3">
         <v>16600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>161100</v>
+        <v>151000</v>
       </c>
       <c r="E10" s="3">
-        <v>124900</v>
+        <v>159000</v>
       </c>
       <c r="F10" s="3">
-        <v>117800</v>
+        <v>123300</v>
       </c>
       <c r="G10" s="3">
-        <v>96300</v>
+        <v>116300</v>
       </c>
       <c r="H10" s="3">
-        <v>80900</v>
+        <v>95100</v>
       </c>
       <c r="I10" s="3">
-        <v>78700</v>
+        <v>79800</v>
       </c>
       <c r="J10" s="3">
+        <v>77700</v>
+      </c>
+      <c r="K10" s="3">
         <v>72800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>58700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>43600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,25 +837,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1200</v>
       </c>
       <c r="I12" s="3">
         <v>1200</v>
@@ -852,14 +865,17 @@
         <v>1200</v>
       </c>
       <c r="K12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,29 +906,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -920,23 +939,26 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F15" s="3">
         <v>2600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2500</v>
       </c>
       <c r="G15" s="3">
         <v>2500</v>
@@ -945,20 +967,23 @@
         <v>2500</v>
       </c>
       <c r="I15" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="J15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K15" s="3">
         <v>2200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1900</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>103300</v>
+        <v>94700</v>
       </c>
       <c r="E17" s="3">
-        <v>94400</v>
+        <v>102000</v>
       </c>
       <c r="F17" s="3">
-        <v>102500</v>
+        <v>93200</v>
       </c>
       <c r="G17" s="3">
-        <v>77600</v>
+        <v>101200</v>
       </c>
       <c r="H17" s="3">
-        <v>74900</v>
+        <v>76600</v>
       </c>
       <c r="I17" s="3">
-        <v>62400</v>
+        <v>73900</v>
       </c>
       <c r="J17" s="3">
+        <v>61600</v>
+      </c>
+      <c r="K17" s="3">
         <v>53200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>87200</v>
+        <v>83900</v>
       </c>
       <c r="E18" s="3">
-        <v>59500</v>
+        <v>86100</v>
       </c>
       <c r="F18" s="3">
-        <v>43700</v>
+        <v>58800</v>
       </c>
       <c r="G18" s="3">
-        <v>40900</v>
+        <v>43100</v>
       </c>
       <c r="H18" s="3">
-        <v>28500</v>
+        <v>40400</v>
       </c>
       <c r="I18" s="3">
-        <v>36700</v>
+        <v>28200</v>
       </c>
       <c r="J18" s="3">
         <v>36200</v>
       </c>
       <c r="K18" s="3">
+        <v>36200</v>
+      </c>
+      <c r="L18" s="3">
         <v>29300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3100</v>
+        <v>10100</v>
       </c>
       <c r="E20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3900</v>
       </c>
-      <c r="F20" s="3">
-        <v>4200</v>
-      </c>
       <c r="G20" s="3">
-        <v>3700</v>
+        <v>4100</v>
       </c>
       <c r="H20" s="3">
-        <v>10300</v>
+        <v>3600</v>
       </c>
       <c r="I20" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>98000</v>
+        <v>101600</v>
       </c>
       <c r="E21" s="3">
-        <v>63800</v>
+        <v>96800</v>
       </c>
       <c r="F21" s="3">
-        <v>55700</v>
+        <v>63000</v>
       </c>
       <c r="G21" s="3">
-        <v>52400</v>
+        <v>55000</v>
       </c>
       <c r="H21" s="3">
-        <v>46700</v>
+        <v>51800</v>
       </c>
       <c r="I21" s="3">
-        <v>47900</v>
+        <v>46100</v>
       </c>
       <c r="J21" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K21" s="3">
         <v>46500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>37000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27400</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
-        <v>18600</v>
-      </c>
       <c r="H22" s="3">
-        <v>16800</v>
+        <v>18400</v>
       </c>
       <c r="I22" s="3">
-        <v>15800</v>
+        <v>16600</v>
       </c>
       <c r="J22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K22" s="3">
         <v>10900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>90300</v>
+        <v>94000</v>
       </c>
       <c r="E23" s="3">
-        <v>55600</v>
+        <v>89100</v>
       </c>
       <c r="F23" s="3">
-        <v>47400</v>
+        <v>54900</v>
       </c>
       <c r="G23" s="3">
-        <v>25900</v>
+        <v>46700</v>
       </c>
       <c r="H23" s="3">
-        <v>22000</v>
+        <v>25600</v>
       </c>
       <c r="I23" s="3">
-        <v>24200</v>
+        <v>21800</v>
       </c>
       <c r="J23" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K23" s="3">
         <v>29800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15800</v>
+        <v>14600</v>
       </c>
       <c r="E24" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G24" s="3">
         <v>9600</v>
       </c>
-      <c r="F24" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>5900</v>
-      </c>
       <c r="H24" s="3">
-        <v>7800</v>
+        <v>5800</v>
       </c>
       <c r="I24" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="J24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K24" s="3">
         <v>9100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>74500</v>
+        <v>79500</v>
       </c>
       <c r="E26" s="3">
-        <v>46100</v>
+        <v>73600</v>
       </c>
       <c r="F26" s="3">
-        <v>37600</v>
+        <v>45500</v>
       </c>
       <c r="G26" s="3">
-        <v>20100</v>
+        <v>37100</v>
       </c>
       <c r="H26" s="3">
-        <v>14200</v>
+        <v>19800</v>
       </c>
       <c r="I26" s="3">
-        <v>16800</v>
+        <v>14100</v>
       </c>
       <c r="J26" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K26" s="3">
         <v>20700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73400</v>
+        <v>78300</v>
       </c>
       <c r="E27" s="3">
-        <v>45400</v>
+        <v>72500</v>
       </c>
       <c r="F27" s="3">
-        <v>37000</v>
+        <v>44800</v>
       </c>
       <c r="G27" s="3">
-        <v>18100</v>
+        <v>36500</v>
       </c>
       <c r="H27" s="3">
-        <v>14200</v>
+        <v>17900</v>
       </c>
       <c r="I27" s="3">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="J27" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K27" s="3">
         <v>18200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19600</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3100</v>
+        <v>-10100</v>
       </c>
       <c r="E32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>3900</v>
       </c>
-      <c r="F32" s="3">
-        <v>-4200</v>
-      </c>
       <c r="G32" s="3">
-        <v>-3700</v>
+        <v>-4100</v>
       </c>
       <c r="H32" s="3">
-        <v>-10300</v>
+        <v>-3600</v>
       </c>
       <c r="I32" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73400</v>
+        <v>78300</v>
       </c>
       <c r="E33" s="3">
-        <v>45400</v>
+        <v>72500</v>
       </c>
       <c r="F33" s="3">
-        <v>37000</v>
+        <v>44800</v>
       </c>
       <c r="G33" s="3">
-        <v>18100</v>
+        <v>36500</v>
       </c>
       <c r="H33" s="3">
-        <v>14200</v>
+        <v>17900</v>
       </c>
       <c r="I33" s="3">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="J33" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K33" s="3">
         <v>18200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19600</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73400</v>
+        <v>78300</v>
       </c>
       <c r="E35" s="3">
-        <v>45400</v>
+        <v>72500</v>
       </c>
       <c r="F35" s="3">
-        <v>37000</v>
+        <v>44800</v>
       </c>
       <c r="G35" s="3">
-        <v>18100</v>
+        <v>36500</v>
       </c>
       <c r="H35" s="3">
-        <v>14200</v>
+        <v>17900</v>
       </c>
       <c r="I35" s="3">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="J35" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K35" s="3">
         <v>18200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19600</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>853900</v>
+        <v>935600</v>
       </c>
       <c r="E41" s="3">
-        <v>779700</v>
+        <v>842800</v>
       </c>
       <c r="F41" s="3">
-        <v>663100</v>
+        <v>769600</v>
       </c>
       <c r="G41" s="3">
-        <v>547600</v>
+        <v>654500</v>
       </c>
       <c r="H41" s="3">
-        <v>469300</v>
+        <v>540500</v>
       </c>
       <c r="I41" s="3">
-        <v>380100</v>
+        <v>463200</v>
       </c>
       <c r="J41" s="3">
+        <v>375200</v>
+      </c>
+      <c r="K41" s="3">
         <v>293800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>209400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>117900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1696,57 +1785,63 @@
       <c r="G42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>1200</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>100</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17200</v>
+        <v>20800</v>
       </c>
       <c r="E43" s="3">
-        <v>16800</v>
+        <v>17000</v>
       </c>
       <c r="F43" s="3">
-        <v>18300</v>
+        <v>16600</v>
       </c>
       <c r="G43" s="3">
-        <v>18400</v>
+        <v>18000</v>
       </c>
       <c r="H43" s="3">
-        <v>20600</v>
+        <v>18100</v>
       </c>
       <c r="I43" s="3">
-        <v>19600</v>
+        <v>20300</v>
       </c>
       <c r="J43" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K43" s="3">
         <v>17400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1754,197 +1849,215 @@
         <v>6800</v>
       </c>
       <c r="E44" s="3">
-        <v>4300</v>
+        <v>6700</v>
       </c>
       <c r="F44" s="3">
         <v>4300</v>
       </c>
       <c r="G44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H44" s="3">
         <v>4800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E45" s="3">
         <v>6000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
-        <v>4900</v>
-      </c>
       <c r="I45" s="3">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="J45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K45" s="3">
         <v>5000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>884000</v>
+        <v>969800</v>
       </c>
       <c r="E46" s="3">
-        <v>803100</v>
+        <v>872500</v>
       </c>
       <c r="F46" s="3">
-        <v>687800</v>
+        <v>792700</v>
       </c>
       <c r="G46" s="3">
-        <v>572800</v>
+        <v>678800</v>
       </c>
       <c r="H46" s="3">
-        <v>497000</v>
+        <v>565300</v>
       </c>
       <c r="I46" s="3">
-        <v>408500</v>
+        <v>490600</v>
       </c>
       <c r="J46" s="3">
+        <v>403200</v>
+      </c>
+      <c r="K46" s="3">
         <v>321100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>224000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>133100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70300</v>
+        <v>80700</v>
       </c>
       <c r="E47" s="3">
-        <v>62600</v>
+        <v>69400</v>
       </c>
       <c r="F47" s="3">
-        <v>69400</v>
+        <v>61800</v>
       </c>
       <c r="G47" s="3">
-        <v>81900</v>
+        <v>68500</v>
       </c>
       <c r="H47" s="3">
-        <v>80600</v>
+        <v>80800</v>
       </c>
       <c r="I47" s="3">
-        <v>78900</v>
+        <v>79600</v>
       </c>
       <c r="J47" s="3">
+        <v>77900</v>
+      </c>
+      <c r="K47" s="3">
         <v>87200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>73900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>72200</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>82300</v>
+        <v>77600</v>
       </c>
       <c r="E48" s="3">
+        <v>81200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>84000</v>
+      </c>
+      <c r="G48" s="3">
         <v>85100</v>
       </c>
-      <c r="F48" s="3">
-        <v>86300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>86000</v>
-      </c>
       <c r="H48" s="3">
-        <v>89600</v>
+        <v>84900</v>
       </c>
       <c r="I48" s="3">
-        <v>94100</v>
+        <v>88500</v>
       </c>
       <c r="J48" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K48" s="3">
         <v>97800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>65600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>39800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="E49" s="3">
-        <v>15200</v>
+        <v>14300</v>
       </c>
       <c r="F49" s="3">
-        <v>15900</v>
+        <v>15000</v>
       </c>
       <c r="G49" s="3">
-        <v>16600</v>
+        <v>15700</v>
       </c>
       <c r="H49" s="3">
-        <v>17400</v>
+        <v>16400</v>
       </c>
       <c r="I49" s="3">
-        <v>18100</v>
+        <v>17100</v>
       </c>
       <c r="J49" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K49" s="3">
         <v>18800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19300</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>75400</v>
+        <v>75800</v>
       </c>
       <c r="E52" s="3">
-        <v>56000</v>
+        <v>74400</v>
       </c>
       <c r="F52" s="3">
-        <v>52400</v>
+        <v>55300</v>
       </c>
       <c r="G52" s="3">
-        <v>51200</v>
+        <v>51800</v>
       </c>
       <c r="H52" s="3">
-        <v>46700</v>
+        <v>50600</v>
       </c>
       <c r="I52" s="3">
-        <v>42500</v>
+        <v>46100</v>
       </c>
       <c r="J52" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K52" s="3">
         <v>41600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1126400</v>
+        <v>1217400</v>
       </c>
       <c r="E54" s="3">
-        <v>1022000</v>
+        <v>1111700</v>
       </c>
       <c r="F54" s="3">
-        <v>911800</v>
+        <v>1008700</v>
       </c>
       <c r="G54" s="3">
-        <v>808600</v>
+        <v>899900</v>
       </c>
       <c r="H54" s="3">
-        <v>731400</v>
+        <v>798100</v>
       </c>
       <c r="I54" s="3">
-        <v>641500</v>
+        <v>721800</v>
       </c>
       <c r="J54" s="3">
+        <v>633100</v>
+      </c>
+      <c r="K54" s="3">
         <v>566500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>418600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>270700</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,41 +2267,45 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2100</v>
       </c>
       <c r="I57" s="3">
         <v>2000</v>
       </c>
       <c r="J57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2182,96 +2315,105 @@
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G58" s="3">
-        <v>160900</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>158800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K58" s="3">
         <v>9400</v>
       </c>
-      <c r="I58" s="3">
-        <v>18700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>9400</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6700</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>85900</v>
+        <v>95000</v>
       </c>
       <c r="E59" s="3">
-        <v>87700</v>
+        <v>84800</v>
       </c>
       <c r="F59" s="3">
-        <v>71300</v>
+        <v>86500</v>
       </c>
       <c r="G59" s="3">
-        <v>63200</v>
+        <v>70300</v>
       </c>
       <c r="H59" s="3">
-        <v>61600</v>
+        <v>62300</v>
       </c>
       <c r="I59" s="3">
-        <v>54200</v>
+        <v>60800</v>
       </c>
       <c r="J59" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K59" s="3">
         <v>51000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>89000</v>
+        <v>96500</v>
       </c>
       <c r="E60" s="3">
-        <v>92900</v>
+        <v>87900</v>
       </c>
       <c r="F60" s="3">
-        <v>73000</v>
+        <v>91700</v>
       </c>
       <c r="G60" s="3">
-        <v>225800</v>
+        <v>72100</v>
       </c>
       <c r="H60" s="3">
-        <v>70800</v>
+        <v>222800</v>
       </c>
       <c r="I60" s="3">
-        <v>65600</v>
+        <v>69900</v>
       </c>
       <c r="J60" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K60" s="3">
         <v>62000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29300</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2288,56 +2430,62 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>141400</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>126100</v>
+        <v>139500</v>
       </c>
       <c r="J61" s="3">
+        <v>124400</v>
+      </c>
+      <c r="K61" s="3">
         <v>121300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>105400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>430700</v>
+        <v>445200</v>
       </c>
       <c r="E62" s="3">
-        <v>395100</v>
+        <v>425100</v>
       </c>
       <c r="F62" s="3">
-        <v>352200</v>
+        <v>390000</v>
       </c>
       <c r="G62" s="3">
-        <v>295400</v>
+        <v>347600</v>
       </c>
       <c r="H62" s="3">
-        <v>251800</v>
+        <v>291500</v>
       </c>
       <c r="I62" s="3">
-        <v>209100</v>
+        <v>248600</v>
       </c>
       <c r="J62" s="3">
+        <v>206400</v>
+      </c>
+      <c r="K62" s="3">
         <v>158500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>92600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>58100</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>520700</v>
+        <v>542700</v>
       </c>
       <c r="E66" s="3">
-        <v>488900</v>
+        <v>513900</v>
       </c>
       <c r="F66" s="3">
-        <v>426100</v>
+        <v>482500</v>
       </c>
       <c r="G66" s="3">
-        <v>521900</v>
+        <v>420500</v>
       </c>
       <c r="H66" s="3">
-        <v>464700</v>
+        <v>515100</v>
       </c>
       <c r="I66" s="3">
-        <v>401600</v>
+        <v>458700</v>
       </c>
       <c r="J66" s="3">
+        <v>396300</v>
+      </c>
+      <c r="K66" s="3">
         <v>342600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>245200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>92200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>293000</v>
+        <v>367400</v>
       </c>
       <c r="E72" s="3">
-        <v>219500</v>
+        <v>289200</v>
       </c>
       <c r="F72" s="3">
-        <v>174200</v>
+        <v>216700</v>
       </c>
       <c r="G72" s="3">
-        <v>137300</v>
+        <v>172000</v>
       </c>
       <c r="H72" s="3">
-        <v>117600</v>
+        <v>135500</v>
       </c>
       <c r="I72" s="3">
-        <v>103400</v>
+        <v>116000</v>
       </c>
       <c r="J72" s="3">
+        <v>102000</v>
+      </c>
+      <c r="K72" s="3">
         <v>86600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>59300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>605700</v>
+        <v>674700</v>
       </c>
       <c r="E76" s="3">
-        <v>533100</v>
+        <v>597800</v>
       </c>
       <c r="F76" s="3">
-        <v>485700</v>
+        <v>526200</v>
       </c>
       <c r="G76" s="3">
-        <v>286700</v>
+        <v>479400</v>
       </c>
       <c r="H76" s="3">
-        <v>266700</v>
+        <v>283000</v>
       </c>
       <c r="I76" s="3">
-        <v>239900</v>
+        <v>263200</v>
       </c>
       <c r="J76" s="3">
+        <v>236800</v>
+      </c>
+      <c r="K76" s="3">
         <v>223900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>173400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>178500</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73400</v>
+        <v>78300</v>
       </c>
       <c r="E81" s="3">
-        <v>45400</v>
+        <v>72500</v>
       </c>
       <c r="F81" s="3">
-        <v>37000</v>
+        <v>44800</v>
       </c>
       <c r="G81" s="3">
-        <v>18100</v>
+        <v>36500</v>
       </c>
       <c r="H81" s="3">
-        <v>14200</v>
+        <v>17900</v>
       </c>
       <c r="I81" s="3">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="J81" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K81" s="3">
         <v>18200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19600</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E83" s="3">
-        <v>8200</v>
+        <v>7600</v>
       </c>
       <c r="F83" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="G83" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="H83" s="3">
         <v>7800</v>
       </c>
       <c r="I83" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="J83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K83" s="3">
         <v>5800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4400</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>97400</v>
+        <v>97100</v>
       </c>
       <c r="E89" s="3">
-        <v>123600</v>
+        <v>96100</v>
       </c>
       <c r="F89" s="3">
-        <v>127700</v>
+        <v>122000</v>
       </c>
       <c r="G89" s="3">
-        <v>99500</v>
+        <v>126100</v>
       </c>
       <c r="H89" s="3">
-        <v>90600</v>
+        <v>98200</v>
       </c>
       <c r="I89" s="3">
-        <v>92800</v>
+        <v>89500</v>
       </c>
       <c r="J89" s="3">
+        <v>91600</v>
+      </c>
+      <c r="K89" s="3">
         <v>83600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>81000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>52500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3">
-        <v>-5900</v>
-      </c>
       <c r="J91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22800</v>
+        <v>-3100</v>
       </c>
       <c r="E94" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4700</v>
       </c>
-      <c r="F94" s="3">
-        <v>-10400</v>
-      </c>
       <c r="G94" s="3">
-        <v>-14100</v>
+        <v>-10200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2600</v>
+        <v>-13900</v>
       </c>
       <c r="I94" s="3">
-        <v>-6600</v>
+        <v>-2500</v>
       </c>
       <c r="J94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-69100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3301,11 +3534,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2800</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
-        <v>-9400</v>
-      </c>
       <c r="H100" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>86600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-500</v>
       </c>
       <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>74200</v>
+        <v>92800</v>
       </c>
       <c r="E102" s="3">
-        <v>116600</v>
+        <v>73200</v>
       </c>
       <c r="F102" s="3">
-        <v>115500</v>
+        <v>115100</v>
       </c>
       <c r="G102" s="3">
-        <v>78300</v>
+        <v>114000</v>
       </c>
       <c r="H102" s="3">
-        <v>89200</v>
+        <v>77300</v>
       </c>
       <c r="I102" s="3">
-        <v>86400</v>
+        <v>88000</v>
       </c>
       <c r="J102" s="3">
+        <v>85300</v>
+      </c>
+      <c r="K102" s="3">
         <v>60700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>97900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CO_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>178600</v>
+        <v>181600</v>
       </c>
       <c r="E8" s="3">
-        <v>188100</v>
+        <v>191200</v>
       </c>
       <c r="F8" s="3">
-        <v>151900</v>
+        <v>154500</v>
       </c>
       <c r="G8" s="3">
-        <v>144200</v>
+        <v>146700</v>
       </c>
       <c r="H8" s="3">
-        <v>117000</v>
+        <v>119000</v>
       </c>
       <c r="I8" s="3">
-        <v>102100</v>
+        <v>103800</v>
       </c>
       <c r="J8" s="3">
-        <v>97800</v>
+        <v>99400</v>
       </c>
       <c r="K8" s="3">
         <v>89400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27600</v>
+        <v>28000</v>
       </c>
       <c r="E9" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F9" s="3">
         <v>29100</v>
       </c>
-      <c r="F9" s="3">
-        <v>28600</v>
-      </c>
       <c r="G9" s="3">
-        <v>27900</v>
+        <v>28400</v>
       </c>
       <c r="H9" s="3">
-        <v>22000</v>
+        <v>22300</v>
       </c>
       <c r="I9" s="3">
-        <v>22300</v>
+        <v>22600</v>
       </c>
       <c r="J9" s="3">
-        <v>20100</v>
+        <v>20400</v>
       </c>
       <c r="K9" s="3">
         <v>16600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>151000</v>
+        <v>153500</v>
       </c>
       <c r="E10" s="3">
-        <v>159000</v>
+        <v>161600</v>
       </c>
       <c r="F10" s="3">
-        <v>123300</v>
+        <v>125400</v>
       </c>
       <c r="G10" s="3">
-        <v>116300</v>
+        <v>118200</v>
       </c>
       <c r="H10" s="3">
-        <v>95100</v>
+        <v>96700</v>
       </c>
       <c r="I10" s="3">
-        <v>79800</v>
+        <v>81200</v>
       </c>
       <c r="J10" s="3">
-        <v>77700</v>
+        <v>79000</v>
       </c>
       <c r="K10" s="3">
         <v>72800</v>
@@ -952,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F15" s="3">
         <v>2600</v>
@@ -967,10 +967,10 @@
         <v>2500</v>
       </c>
       <c r="I15" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J15" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K15" s="3">
         <v>2200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>103700</v>
+      </c>
+      <c r="F17" s="3">
         <v>94700</v>
       </c>
-      <c r="E17" s="3">
-        <v>102000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>93200</v>
-      </c>
       <c r="G17" s="3">
-        <v>101200</v>
+        <v>102800</v>
       </c>
       <c r="H17" s="3">
-        <v>76600</v>
+        <v>77900</v>
       </c>
       <c r="I17" s="3">
-        <v>73900</v>
+        <v>75200</v>
       </c>
       <c r="J17" s="3">
-        <v>61600</v>
+        <v>62600</v>
       </c>
       <c r="K17" s="3">
         <v>53200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>83900</v>
+        <v>85300</v>
       </c>
       <c r="E18" s="3">
-        <v>86100</v>
+        <v>87500</v>
       </c>
       <c r="F18" s="3">
-        <v>58800</v>
+        <v>59800</v>
       </c>
       <c r="G18" s="3">
-        <v>43100</v>
+        <v>43800</v>
       </c>
       <c r="H18" s="3">
-        <v>40400</v>
+        <v>41100</v>
       </c>
       <c r="I18" s="3">
-        <v>28200</v>
+        <v>28600</v>
       </c>
       <c r="J18" s="3">
-        <v>36200</v>
+        <v>36800</v>
       </c>
       <c r="K18" s="3">
         <v>36200</v>
@@ -1089,22 +1089,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="E20" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F20" s="3">
         <v>-3900</v>
       </c>
       <c r="G20" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H20" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I20" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="J20" s="3">
         <v>3300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>101600</v>
+        <v>103300</v>
       </c>
       <c r="E21" s="3">
-        <v>96800</v>
+        <v>98400</v>
       </c>
       <c r="F21" s="3">
-        <v>63000</v>
+        <v>64000</v>
       </c>
       <c r="G21" s="3">
-        <v>55000</v>
+        <v>55900</v>
       </c>
       <c r="H21" s="3">
-        <v>51800</v>
+        <v>52600</v>
       </c>
       <c r="I21" s="3">
-        <v>46100</v>
+        <v>46900</v>
       </c>
       <c r="J21" s="3">
-        <v>47300</v>
+        <v>48000</v>
       </c>
       <c r="K21" s="3">
         <v>46500</v>
@@ -1173,13 +1173,13 @@
         <v>500</v>
       </c>
       <c r="H22" s="3">
-        <v>18400</v>
+        <v>18700</v>
       </c>
       <c r="I22" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="J22" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="K22" s="3">
         <v>10900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>94000</v>
+        <v>95600</v>
       </c>
       <c r="E23" s="3">
-        <v>89100</v>
+        <v>90600</v>
       </c>
       <c r="F23" s="3">
-        <v>54900</v>
+        <v>55800</v>
       </c>
       <c r="G23" s="3">
-        <v>46700</v>
+        <v>47500</v>
       </c>
       <c r="H23" s="3">
-        <v>25600</v>
+        <v>26000</v>
       </c>
       <c r="I23" s="3">
-        <v>21800</v>
+        <v>22100</v>
       </c>
       <c r="J23" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="K23" s="3">
         <v>29800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14600</v>
+        <v>14800</v>
       </c>
       <c r="E24" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="F24" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="G24" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="H24" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="I24" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="J24" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="K24" s="3">
         <v>9100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>79500</v>
+        <v>80800</v>
       </c>
       <c r="E26" s="3">
-        <v>73600</v>
+        <v>74800</v>
       </c>
       <c r="F26" s="3">
-        <v>45500</v>
+        <v>46200</v>
       </c>
       <c r="G26" s="3">
-        <v>37100</v>
+        <v>37700</v>
       </c>
       <c r="H26" s="3">
-        <v>19800</v>
+        <v>20100</v>
       </c>
       <c r="I26" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="J26" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="K26" s="3">
         <v>20700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>78300</v>
+        <v>79600</v>
       </c>
       <c r="E27" s="3">
-        <v>72500</v>
+        <v>73700</v>
       </c>
       <c r="F27" s="3">
-        <v>44800</v>
+        <v>45600</v>
       </c>
       <c r="G27" s="3">
-        <v>36500</v>
+        <v>37100</v>
       </c>
       <c r="H27" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="I27" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="J27" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="K27" s="3">
         <v>18200</v>
@@ -1521,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="E32" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F32" s="3">
         <v>3900</v>
       </c>
       <c r="G32" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H32" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="I32" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="J32" s="3">
         <v>-3300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>78300</v>
+        <v>79600</v>
       </c>
       <c r="E33" s="3">
-        <v>72500</v>
+        <v>73700</v>
       </c>
       <c r="F33" s="3">
-        <v>44800</v>
+        <v>45600</v>
       </c>
       <c r="G33" s="3">
-        <v>36500</v>
+        <v>37100</v>
       </c>
       <c r="H33" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="I33" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="J33" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="K33" s="3">
         <v>18200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>78300</v>
+        <v>79600</v>
       </c>
       <c r="E35" s="3">
-        <v>72500</v>
+        <v>73700</v>
       </c>
       <c r="F35" s="3">
-        <v>44800</v>
+        <v>45600</v>
       </c>
       <c r="G35" s="3">
-        <v>36500</v>
+        <v>37100</v>
       </c>
       <c r="H35" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="I35" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="J35" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="K35" s="3">
         <v>18200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>935600</v>
+        <v>951200</v>
       </c>
       <c r="E41" s="3">
-        <v>842800</v>
+        <v>856900</v>
       </c>
       <c r="F41" s="3">
-        <v>769600</v>
+        <v>782500</v>
       </c>
       <c r="G41" s="3">
-        <v>654500</v>
+        <v>665500</v>
       </c>
       <c r="H41" s="3">
-        <v>540500</v>
+        <v>549600</v>
       </c>
       <c r="I41" s="3">
-        <v>463200</v>
+        <v>471000</v>
       </c>
       <c r="J41" s="3">
-        <v>375200</v>
+        <v>381500</v>
       </c>
       <c r="K41" s="3">
         <v>293800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20800</v>
+        <v>21100</v>
       </c>
       <c r="E43" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="F43" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="G43" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="H43" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="I43" s="3">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="J43" s="3">
-        <v>19400</v>
+        <v>19700</v>
       </c>
       <c r="K43" s="3">
         <v>17400</v>
@@ -1846,10 +1846,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="E44" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="F44" s="3">
         <v>4300</v>
@@ -1858,7 +1858,7 @@
         <v>4300</v>
       </c>
       <c r="H44" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I44" s="3">
         <v>4400</v>
@@ -1882,10 +1882,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E45" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="F45" s="3">
         <v>2300</v>
@@ -1897,10 +1897,10 @@
         <v>1900</v>
       </c>
       <c r="I45" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J45" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K45" s="3">
         <v>5000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>969800</v>
+        <v>986000</v>
       </c>
       <c r="E46" s="3">
-        <v>872500</v>
+        <v>887100</v>
       </c>
       <c r="F46" s="3">
-        <v>792700</v>
+        <v>806000</v>
       </c>
       <c r="G46" s="3">
-        <v>678800</v>
+        <v>690200</v>
       </c>
       <c r="H46" s="3">
-        <v>565300</v>
+        <v>574800</v>
       </c>
       <c r="I46" s="3">
-        <v>490600</v>
+        <v>498800</v>
       </c>
       <c r="J46" s="3">
-        <v>403200</v>
+        <v>410000</v>
       </c>
       <c r="K46" s="3">
         <v>321100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80700</v>
+        <v>82100</v>
       </c>
       <c r="E47" s="3">
-        <v>69400</v>
+        <v>70500</v>
       </c>
       <c r="F47" s="3">
-        <v>61800</v>
+        <v>62800</v>
       </c>
       <c r="G47" s="3">
-        <v>68500</v>
+        <v>69600</v>
       </c>
       <c r="H47" s="3">
-        <v>80800</v>
+        <v>82200</v>
       </c>
       <c r="I47" s="3">
-        <v>79600</v>
+        <v>80900</v>
       </c>
       <c r="J47" s="3">
-        <v>77900</v>
+        <v>79200</v>
       </c>
       <c r="K47" s="3">
         <v>87200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>77600</v>
+        <v>78900</v>
       </c>
       <c r="E48" s="3">
-        <v>81200</v>
+        <v>82500</v>
       </c>
       <c r="F48" s="3">
-        <v>84000</v>
+        <v>85400</v>
       </c>
       <c r="G48" s="3">
-        <v>85100</v>
+        <v>86600</v>
       </c>
       <c r="H48" s="3">
-        <v>84900</v>
+        <v>86300</v>
       </c>
       <c r="I48" s="3">
-        <v>88500</v>
+        <v>90000</v>
       </c>
       <c r="J48" s="3">
-        <v>92900</v>
+        <v>94400</v>
       </c>
       <c r="K48" s="3">
         <v>97800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="E49" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="F49" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="G49" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="H49" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="I49" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="J49" s="3">
-        <v>17900</v>
+        <v>18100</v>
       </c>
       <c r="K49" s="3">
         <v>18800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>75800</v>
+        <v>77000</v>
       </c>
       <c r="E52" s="3">
-        <v>74400</v>
+        <v>75600</v>
       </c>
       <c r="F52" s="3">
-        <v>55300</v>
+        <v>56200</v>
       </c>
       <c r="G52" s="3">
-        <v>51800</v>
+        <v>52600</v>
       </c>
       <c r="H52" s="3">
-        <v>50600</v>
+        <v>51400</v>
       </c>
       <c r="I52" s="3">
-        <v>46100</v>
+        <v>46900</v>
       </c>
       <c r="J52" s="3">
-        <v>41900</v>
+        <v>42600</v>
       </c>
       <c r="K52" s="3">
         <v>41600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1217400</v>
+        <v>1237800</v>
       </c>
       <c r="E54" s="3">
-        <v>1111700</v>
+        <v>1130300</v>
       </c>
       <c r="F54" s="3">
-        <v>1008700</v>
+        <v>1025600</v>
       </c>
       <c r="G54" s="3">
-        <v>899900</v>
+        <v>915000</v>
       </c>
       <c r="H54" s="3">
-        <v>798100</v>
+        <v>811400</v>
       </c>
       <c r="I54" s="3">
-        <v>721800</v>
+        <v>733900</v>
       </c>
       <c r="J54" s="3">
-        <v>633100</v>
+        <v>643700</v>
       </c>
       <c r="K54" s="3">
         <v>566500</v>
@@ -2280,7 +2280,7 @@
         <v>3100</v>
       </c>
       <c r="F57" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="G57" s="3">
         <v>1800</v>
@@ -2289,7 +2289,7 @@
         <v>1700</v>
       </c>
       <c r="I57" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J57" s="3">
         <v>2000</v>
@@ -2322,13 +2322,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>158800</v>
+        <v>161400</v>
       </c>
       <c r="I58" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="J58" s="3">
-        <v>18500</v>
+        <v>18800</v>
       </c>
       <c r="K58" s="3">
         <v>9400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>95000</v>
+        <v>96600</v>
       </c>
       <c r="E59" s="3">
-        <v>84800</v>
+        <v>86200</v>
       </c>
       <c r="F59" s="3">
-        <v>86500</v>
+        <v>88000</v>
       </c>
       <c r="G59" s="3">
-        <v>70300</v>
+        <v>71500</v>
       </c>
       <c r="H59" s="3">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="I59" s="3">
-        <v>60800</v>
+        <v>61900</v>
       </c>
       <c r="J59" s="3">
-        <v>53500</v>
+        <v>54400</v>
       </c>
       <c r="K59" s="3">
         <v>51000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>96500</v>
+        <v>98100</v>
       </c>
       <c r="E60" s="3">
-        <v>87900</v>
+        <v>89400</v>
       </c>
       <c r="F60" s="3">
-        <v>91700</v>
+        <v>93300</v>
       </c>
       <c r="G60" s="3">
-        <v>72100</v>
+        <v>73300</v>
       </c>
       <c r="H60" s="3">
-        <v>222800</v>
+        <v>226600</v>
       </c>
       <c r="I60" s="3">
-        <v>69900</v>
+        <v>71100</v>
       </c>
       <c r="J60" s="3">
-        <v>64700</v>
+        <v>65800</v>
       </c>
       <c r="K60" s="3">
         <v>62000</v>
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>139500</v>
+        <v>141900</v>
       </c>
       <c r="J61" s="3">
-        <v>124400</v>
+        <v>126500</v>
       </c>
       <c r="K61" s="3">
         <v>121300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>445200</v>
+        <v>452700</v>
       </c>
       <c r="E62" s="3">
-        <v>425100</v>
+        <v>432200</v>
       </c>
       <c r="F62" s="3">
-        <v>390000</v>
+        <v>396500</v>
       </c>
       <c r="G62" s="3">
-        <v>347600</v>
+        <v>353400</v>
       </c>
       <c r="H62" s="3">
-        <v>291500</v>
+        <v>296400</v>
       </c>
       <c r="I62" s="3">
-        <v>248600</v>
+        <v>252700</v>
       </c>
       <c r="J62" s="3">
-        <v>206400</v>
+        <v>209800</v>
       </c>
       <c r="K62" s="3">
         <v>158500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>542700</v>
+        <v>551800</v>
       </c>
       <c r="E66" s="3">
-        <v>513900</v>
+        <v>522600</v>
       </c>
       <c r="F66" s="3">
-        <v>482500</v>
+        <v>490600</v>
       </c>
       <c r="G66" s="3">
-        <v>420500</v>
+        <v>427600</v>
       </c>
       <c r="H66" s="3">
-        <v>515100</v>
+        <v>523700</v>
       </c>
       <c r="I66" s="3">
-        <v>458700</v>
+        <v>466300</v>
       </c>
       <c r="J66" s="3">
-        <v>396300</v>
+        <v>403000</v>
       </c>
       <c r="K66" s="3">
         <v>342600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>367400</v>
+        <v>373600</v>
       </c>
       <c r="E72" s="3">
-        <v>289200</v>
+        <v>294000</v>
       </c>
       <c r="F72" s="3">
-        <v>216700</v>
+        <v>220300</v>
       </c>
       <c r="G72" s="3">
-        <v>172000</v>
+        <v>174900</v>
       </c>
       <c r="H72" s="3">
-        <v>135500</v>
+        <v>137700</v>
       </c>
       <c r="I72" s="3">
-        <v>116000</v>
+        <v>118000</v>
       </c>
       <c r="J72" s="3">
-        <v>102000</v>
+        <v>103700</v>
       </c>
       <c r="K72" s="3">
         <v>86600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>674700</v>
+        <v>686000</v>
       </c>
       <c r="E76" s="3">
-        <v>597800</v>
+        <v>607800</v>
       </c>
       <c r="F76" s="3">
-        <v>526200</v>
+        <v>535000</v>
       </c>
       <c r="G76" s="3">
-        <v>479400</v>
+        <v>487400</v>
       </c>
       <c r="H76" s="3">
-        <v>283000</v>
+        <v>287700</v>
       </c>
       <c r="I76" s="3">
-        <v>263200</v>
+        <v>267600</v>
       </c>
       <c r="J76" s="3">
-        <v>236800</v>
+        <v>240800</v>
       </c>
       <c r="K76" s="3">
         <v>223900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>78300</v>
+        <v>79600</v>
       </c>
       <c r="E81" s="3">
-        <v>72500</v>
+        <v>73700</v>
       </c>
       <c r="F81" s="3">
-        <v>44800</v>
+        <v>45600</v>
       </c>
       <c r="G81" s="3">
-        <v>36500</v>
+        <v>37100</v>
       </c>
       <c r="H81" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="I81" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="J81" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="K81" s="3">
         <v>18200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="E83" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="F83" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="G83" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H83" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="I83" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="J83" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="K83" s="3">
         <v>5800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>97100</v>
+        <v>98700</v>
       </c>
       <c r="E89" s="3">
-        <v>96100</v>
+        <v>97700</v>
       </c>
       <c r="F89" s="3">
-        <v>122000</v>
+        <v>124000</v>
       </c>
       <c r="G89" s="3">
-        <v>126100</v>
+        <v>128200</v>
       </c>
       <c r="H89" s="3">
-        <v>98200</v>
+        <v>99800</v>
       </c>
       <c r="I89" s="3">
-        <v>89500</v>
+        <v>91000</v>
       </c>
       <c r="J89" s="3">
-        <v>91600</v>
+        <v>93100</v>
       </c>
       <c r="K89" s="3">
         <v>83600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="E91" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="F91" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="G91" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="H91" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="I91" s="3">
         <v>-2600</v>
       </c>
       <c r="J91" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="K91" s="3">
         <v>-23400</v>
@@ -3482,22 +3482,22 @@
         <v>-3100</v>
       </c>
       <c r="E94" s="3">
-        <v>-22500</v>
+        <v>-22900</v>
       </c>
       <c r="F94" s="3">
         <v>-4700</v>
       </c>
       <c r="G94" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="H94" s="3">
-        <v>-13900</v>
+        <v>-14200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="J94" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="K94" s="3">
         <v>-23400</v>
@@ -3675,7 +3675,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="E100" s="3">
         <v>-600</v>
@@ -3687,7 +3687,7 @@
         <v>-300</v>
       </c>
       <c r="H100" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="I100" s="3">
         <v>-300</v>
@@ -3714,13 +3714,13 @@
         <v>-300</v>
       </c>
       <c r="E101" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F101" s="3">
         <v>1000</v>
       </c>
       <c r="G101" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="H101" s="3">
         <v>2300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>92800</v>
+        <v>94300</v>
       </c>
       <c r="E102" s="3">
-        <v>73200</v>
+        <v>74400</v>
       </c>
       <c r="F102" s="3">
-        <v>115100</v>
+        <v>117000</v>
       </c>
       <c r="G102" s="3">
-        <v>114000</v>
+        <v>115900</v>
       </c>
       <c r="H102" s="3">
-        <v>77300</v>
+        <v>78600</v>
       </c>
       <c r="I102" s="3">
-        <v>88000</v>
+        <v>89500</v>
       </c>
       <c r="J102" s="3">
-        <v>85300</v>
+        <v>86700</v>
       </c>
       <c r="K102" s="3">
         <v>60700</v>

--- a/AAII_Financials/Yearly/CO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CO_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>181600</v>
+        <v>182900</v>
       </c>
       <c r="E8" s="3">
-        <v>191200</v>
+        <v>192700</v>
       </c>
       <c r="F8" s="3">
-        <v>154500</v>
+        <v>155700</v>
       </c>
       <c r="G8" s="3">
-        <v>146700</v>
+        <v>147800</v>
       </c>
       <c r="H8" s="3">
-        <v>119000</v>
+        <v>119900</v>
       </c>
       <c r="I8" s="3">
-        <v>103800</v>
+        <v>104600</v>
       </c>
       <c r="J8" s="3">
-        <v>99400</v>
+        <v>100200</v>
       </c>
       <c r="K8" s="3">
         <v>89400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="E9" s="3">
-        <v>29600</v>
+        <v>29800</v>
       </c>
       <c r="F9" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="G9" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="H9" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="I9" s="3">
-        <v>22600</v>
+        <v>22800</v>
       </c>
       <c r="J9" s="3">
-        <v>20400</v>
+        <v>20600</v>
       </c>
       <c r="K9" s="3">
         <v>16600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>153500</v>
+        <v>154700</v>
       </c>
       <c r="E10" s="3">
-        <v>161600</v>
+        <v>162900</v>
       </c>
       <c r="F10" s="3">
-        <v>125400</v>
+        <v>126300</v>
       </c>
       <c r="G10" s="3">
-        <v>118200</v>
+        <v>119200</v>
       </c>
       <c r="H10" s="3">
-        <v>96700</v>
+        <v>97400</v>
       </c>
       <c r="I10" s="3">
-        <v>81200</v>
+        <v>81800</v>
       </c>
       <c r="J10" s="3">
-        <v>79000</v>
+        <v>79600</v>
       </c>
       <c r="K10" s="3">
         <v>72800</v>
@@ -844,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E12" s="3">
         <v>3000</v>
@@ -958,7 +958,7 @@
         <v>2500</v>
       </c>
       <c r="F15" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G15" s="3">
         <v>2500</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>96200</v>
+        <v>97000</v>
       </c>
       <c r="E17" s="3">
-        <v>103700</v>
+        <v>104500</v>
       </c>
       <c r="F17" s="3">
-        <v>94700</v>
+        <v>95500</v>
       </c>
       <c r="G17" s="3">
-        <v>102800</v>
+        <v>103600</v>
       </c>
       <c r="H17" s="3">
-        <v>77900</v>
+        <v>78500</v>
       </c>
       <c r="I17" s="3">
-        <v>75200</v>
+        <v>75700</v>
       </c>
       <c r="J17" s="3">
-        <v>62600</v>
+        <v>63100</v>
       </c>
       <c r="K17" s="3">
         <v>53200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>85300</v>
+        <v>86000</v>
       </c>
       <c r="E18" s="3">
-        <v>87500</v>
+        <v>88200</v>
       </c>
       <c r="F18" s="3">
-        <v>59800</v>
+        <v>60200</v>
       </c>
       <c r="G18" s="3">
-        <v>43800</v>
+        <v>44200</v>
       </c>
       <c r="H18" s="3">
-        <v>41100</v>
+        <v>41400</v>
       </c>
       <c r="I18" s="3">
-        <v>28600</v>
+        <v>28900</v>
       </c>
       <c r="J18" s="3">
-        <v>36800</v>
+        <v>37100</v>
       </c>
       <c r="K18" s="3">
         <v>36200</v>
@@ -1089,13 +1089,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="E20" s="3">
         <v>3100</v>
       </c>
       <c r="F20" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="G20" s="3">
         <v>4200</v>
@@ -1104,7 +1104,7 @@
         <v>3700</v>
       </c>
       <c r="I20" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="J20" s="3">
         <v>3300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>103300</v>
+        <v>104100</v>
       </c>
       <c r="E21" s="3">
-        <v>98400</v>
+        <v>99100</v>
       </c>
       <c r="F21" s="3">
-        <v>64000</v>
+        <v>64500</v>
       </c>
       <c r="G21" s="3">
-        <v>55900</v>
+        <v>56400</v>
       </c>
       <c r="H21" s="3">
-        <v>52600</v>
+        <v>53100</v>
       </c>
       <c r="I21" s="3">
-        <v>46900</v>
+        <v>47300</v>
       </c>
       <c r="J21" s="3">
-        <v>48000</v>
+        <v>48400</v>
       </c>
       <c r="K21" s="3">
         <v>46500</v>
@@ -1173,13 +1173,13 @@
         <v>500</v>
       </c>
       <c r="H22" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="I22" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="J22" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="K22" s="3">
         <v>10900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>95600</v>
+        <v>96400</v>
       </c>
       <c r="E23" s="3">
-        <v>90600</v>
+        <v>91300</v>
       </c>
       <c r="F23" s="3">
-        <v>55800</v>
+        <v>56200</v>
       </c>
       <c r="G23" s="3">
-        <v>47500</v>
+        <v>47900</v>
       </c>
       <c r="H23" s="3">
-        <v>26000</v>
+        <v>26200</v>
       </c>
       <c r="I23" s="3">
-        <v>22100</v>
+        <v>22300</v>
       </c>
       <c r="J23" s="3">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="K23" s="3">
         <v>29800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="E24" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="F24" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="G24" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="H24" s="3">
         <v>5900</v>
       </c>
       <c r="I24" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="J24" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="K24" s="3">
         <v>9100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>80800</v>
+        <v>81400</v>
       </c>
       <c r="E26" s="3">
-        <v>74800</v>
+        <v>75400</v>
       </c>
       <c r="F26" s="3">
-        <v>46200</v>
+        <v>46600</v>
       </c>
       <c r="G26" s="3">
-        <v>37700</v>
+        <v>38000</v>
       </c>
       <c r="H26" s="3">
-        <v>20100</v>
+        <v>20300</v>
       </c>
       <c r="I26" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="J26" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="K26" s="3">
         <v>20700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>79600</v>
+        <v>80200</v>
       </c>
       <c r="E27" s="3">
-        <v>73700</v>
+        <v>74300</v>
       </c>
       <c r="F27" s="3">
-        <v>45600</v>
+        <v>45900</v>
       </c>
       <c r="G27" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="H27" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="I27" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="J27" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="K27" s="3">
         <v>18200</v>
@@ -1521,13 +1521,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="E32" s="3">
         <v>-3100</v>
       </c>
       <c r="F32" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G32" s="3">
         <v>-4200</v>
@@ -1536,7 +1536,7 @@
         <v>-3700</v>
       </c>
       <c r="I32" s="3">
-        <v>-10400</v>
+        <v>-10500</v>
       </c>
       <c r="J32" s="3">
         <v>-3300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>79600</v>
+        <v>80200</v>
       </c>
       <c r="E33" s="3">
-        <v>73700</v>
+        <v>74300</v>
       </c>
       <c r="F33" s="3">
-        <v>45600</v>
+        <v>45900</v>
       </c>
       <c r="G33" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="H33" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="I33" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="J33" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="K33" s="3">
         <v>18200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>79600</v>
+        <v>80200</v>
       </c>
       <c r="E35" s="3">
-        <v>73700</v>
+        <v>74300</v>
       </c>
       <c r="F35" s="3">
-        <v>45600</v>
+        <v>45900</v>
       </c>
       <c r="G35" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="H35" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="I35" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="J35" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="K35" s="3">
         <v>18200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>951200</v>
+        <v>958500</v>
       </c>
       <c r="E41" s="3">
-        <v>856900</v>
+        <v>863500</v>
       </c>
       <c r="F41" s="3">
-        <v>782500</v>
+        <v>788500</v>
       </c>
       <c r="G41" s="3">
-        <v>665500</v>
+        <v>670600</v>
       </c>
       <c r="H41" s="3">
-        <v>549600</v>
+        <v>553800</v>
       </c>
       <c r="I41" s="3">
-        <v>471000</v>
+        <v>474600</v>
       </c>
       <c r="J41" s="3">
-        <v>381500</v>
+        <v>384400</v>
       </c>
       <c r="K41" s="3">
         <v>293800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
       <c r="E43" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="F43" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="G43" s="3">
-        <v>18300</v>
+        <v>18500</v>
       </c>
       <c r="H43" s="3">
-        <v>18400</v>
+        <v>18600</v>
       </c>
       <c r="I43" s="3">
-        <v>20600</v>
+        <v>20800</v>
       </c>
       <c r="J43" s="3">
-        <v>19700</v>
+        <v>19900</v>
       </c>
       <c r="K43" s="3">
         <v>17400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="E44" s="3">
         <v>6900</v>
       </c>
       <c r="F44" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G44" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="H44" s="3">
         <v>4900</v>
       </c>
       <c r="I44" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J44" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K44" s="3">
         <v>4900</v>
@@ -1882,7 +1882,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E45" s="3">
         <v>6100</v>
@@ -1891,7 +1891,7 @@
         <v>2300</v>
       </c>
       <c r="G45" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H45" s="3">
         <v>1900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>986000</v>
+        <v>993600</v>
       </c>
       <c r="E46" s="3">
-        <v>887100</v>
+        <v>893900</v>
       </c>
       <c r="F46" s="3">
-        <v>806000</v>
+        <v>812100</v>
       </c>
       <c r="G46" s="3">
-        <v>690200</v>
+        <v>695500</v>
       </c>
       <c r="H46" s="3">
-        <v>574800</v>
+        <v>579200</v>
       </c>
       <c r="I46" s="3">
-        <v>498800</v>
+        <v>502600</v>
       </c>
       <c r="J46" s="3">
-        <v>410000</v>
+        <v>413100</v>
       </c>
       <c r="K46" s="3">
         <v>321100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>82100</v>
+        <v>82700</v>
       </c>
       <c r="E47" s="3">
-        <v>70500</v>
+        <v>71100</v>
       </c>
       <c r="F47" s="3">
-        <v>62800</v>
+        <v>63300</v>
       </c>
       <c r="G47" s="3">
-        <v>69600</v>
+        <v>70200</v>
       </c>
       <c r="H47" s="3">
-        <v>82200</v>
+        <v>82800</v>
       </c>
       <c r="I47" s="3">
-        <v>80900</v>
+        <v>81500</v>
       </c>
       <c r="J47" s="3">
-        <v>79200</v>
+        <v>79800</v>
       </c>
       <c r="K47" s="3">
         <v>87200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>78900</v>
+        <v>79500</v>
       </c>
       <c r="E48" s="3">
-        <v>82500</v>
+        <v>83200</v>
       </c>
       <c r="F48" s="3">
-        <v>85400</v>
+        <v>86000</v>
       </c>
       <c r="G48" s="3">
-        <v>86600</v>
+        <v>87200</v>
       </c>
       <c r="H48" s="3">
-        <v>86300</v>
+        <v>87000</v>
       </c>
       <c r="I48" s="3">
-        <v>90000</v>
+        <v>90600</v>
       </c>
       <c r="J48" s="3">
-        <v>94400</v>
+        <v>95200</v>
       </c>
       <c r="K48" s="3">
         <v>97800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="E49" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="F49" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="G49" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="H49" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="I49" s="3">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="J49" s="3">
-        <v>18100</v>
+        <v>18300</v>
       </c>
       <c r="K49" s="3">
         <v>18800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>77000</v>
+        <v>77600</v>
       </c>
       <c r="E52" s="3">
-        <v>75600</v>
+        <v>76200</v>
       </c>
       <c r="F52" s="3">
-        <v>56200</v>
+        <v>56600</v>
       </c>
       <c r="G52" s="3">
-        <v>52600</v>
+        <v>53000</v>
       </c>
       <c r="H52" s="3">
-        <v>51400</v>
+        <v>51800</v>
       </c>
       <c r="I52" s="3">
-        <v>46900</v>
+        <v>47200</v>
       </c>
       <c r="J52" s="3">
-        <v>42600</v>
+        <v>43000</v>
       </c>
       <c r="K52" s="3">
         <v>41600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1237800</v>
+        <v>1247300</v>
       </c>
       <c r="E54" s="3">
-        <v>1130300</v>
+        <v>1139000</v>
       </c>
       <c r="F54" s="3">
-        <v>1025600</v>
+        <v>1033500</v>
       </c>
       <c r="G54" s="3">
-        <v>915000</v>
+        <v>922000</v>
       </c>
       <c r="H54" s="3">
-        <v>811400</v>
+        <v>817700</v>
       </c>
       <c r="I54" s="3">
-        <v>733900</v>
+        <v>739600</v>
       </c>
       <c r="J54" s="3">
-        <v>643700</v>
+        <v>648700</v>
       </c>
       <c r="K54" s="3">
         <v>566500</v>
@@ -2277,7 +2277,7 @@
         <v>1500</v>
       </c>
       <c r="E57" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F57" s="3">
         <v>5300</v>
@@ -2322,13 +2322,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>161400</v>
+        <v>162700</v>
       </c>
       <c r="I58" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="J58" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="K58" s="3">
         <v>9400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>96600</v>
+        <v>97300</v>
       </c>
       <c r="E59" s="3">
-        <v>86200</v>
+        <v>86900</v>
       </c>
       <c r="F59" s="3">
-        <v>88000</v>
+        <v>88700</v>
       </c>
       <c r="G59" s="3">
-        <v>71500</v>
+        <v>72100</v>
       </c>
       <c r="H59" s="3">
-        <v>63400</v>
+        <v>63900</v>
       </c>
       <c r="I59" s="3">
-        <v>61900</v>
+        <v>62300</v>
       </c>
       <c r="J59" s="3">
-        <v>54400</v>
+        <v>54800</v>
       </c>
       <c r="K59" s="3">
         <v>51000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>98100</v>
+        <v>98800</v>
       </c>
       <c r="E60" s="3">
-        <v>89400</v>
+        <v>90000</v>
       </c>
       <c r="F60" s="3">
-        <v>93300</v>
+        <v>94000</v>
       </c>
       <c r="G60" s="3">
-        <v>73300</v>
+        <v>73900</v>
       </c>
       <c r="H60" s="3">
-        <v>226600</v>
+        <v>228300</v>
       </c>
       <c r="I60" s="3">
-        <v>71100</v>
+        <v>71600</v>
       </c>
       <c r="J60" s="3">
-        <v>65800</v>
+        <v>66300</v>
       </c>
       <c r="K60" s="3">
         <v>62000</v>
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>141900</v>
+        <v>143000</v>
       </c>
       <c r="J61" s="3">
-        <v>126500</v>
+        <v>127500</v>
       </c>
       <c r="K61" s="3">
         <v>121300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>452700</v>
+        <v>456100</v>
       </c>
       <c r="E62" s="3">
-        <v>432200</v>
+        <v>435500</v>
       </c>
       <c r="F62" s="3">
-        <v>396500</v>
+        <v>399500</v>
       </c>
       <c r="G62" s="3">
-        <v>353400</v>
+        <v>356100</v>
       </c>
       <c r="H62" s="3">
-        <v>296400</v>
+        <v>298700</v>
       </c>
       <c r="I62" s="3">
-        <v>252700</v>
+        <v>254700</v>
       </c>
       <c r="J62" s="3">
-        <v>209800</v>
+        <v>211400</v>
       </c>
       <c r="K62" s="3">
         <v>158500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>551800</v>
+        <v>556000</v>
       </c>
       <c r="E66" s="3">
-        <v>522600</v>
+        <v>526600</v>
       </c>
       <c r="F66" s="3">
-        <v>490600</v>
+        <v>494400</v>
       </c>
       <c r="G66" s="3">
-        <v>427600</v>
+        <v>430900</v>
       </c>
       <c r="H66" s="3">
-        <v>523700</v>
+        <v>527700</v>
       </c>
       <c r="I66" s="3">
-        <v>466300</v>
+        <v>469900</v>
       </c>
       <c r="J66" s="3">
-        <v>403000</v>
+        <v>406100</v>
       </c>
       <c r="K66" s="3">
         <v>342600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>373600</v>
+        <v>376400</v>
       </c>
       <c r="E72" s="3">
-        <v>294000</v>
+        <v>296300</v>
       </c>
       <c r="F72" s="3">
-        <v>220300</v>
+        <v>222000</v>
       </c>
       <c r="G72" s="3">
-        <v>174900</v>
+        <v>176200</v>
       </c>
       <c r="H72" s="3">
-        <v>137700</v>
+        <v>138800</v>
       </c>
       <c r="I72" s="3">
-        <v>118000</v>
+        <v>118900</v>
       </c>
       <c r="J72" s="3">
-        <v>103700</v>
+        <v>104500</v>
       </c>
       <c r="K72" s="3">
         <v>86600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>686000</v>
+        <v>691300</v>
       </c>
       <c r="E76" s="3">
-        <v>607800</v>
+        <v>612400</v>
       </c>
       <c r="F76" s="3">
-        <v>535000</v>
+        <v>539100</v>
       </c>
       <c r="G76" s="3">
-        <v>487400</v>
+        <v>491200</v>
       </c>
       <c r="H76" s="3">
-        <v>287700</v>
+        <v>289900</v>
       </c>
       <c r="I76" s="3">
-        <v>267600</v>
+        <v>269700</v>
       </c>
       <c r="J76" s="3">
-        <v>240800</v>
+        <v>242600</v>
       </c>
       <c r="K76" s="3">
         <v>223900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>79600</v>
+        <v>80200</v>
       </c>
       <c r="E81" s="3">
-        <v>73700</v>
+        <v>74300</v>
       </c>
       <c r="F81" s="3">
-        <v>45600</v>
+        <v>45900</v>
       </c>
       <c r="G81" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="H81" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="I81" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="J81" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="K81" s="3">
         <v>18200</v>
@@ -3106,22 +3106,22 @@
         <v>7700</v>
       </c>
       <c r="E83" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="F83" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="G83" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="H83" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="I83" s="3">
         <v>7900</v>
       </c>
       <c r="J83" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="K83" s="3">
         <v>5800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>98700</v>
+        <v>99500</v>
       </c>
       <c r="E89" s="3">
-        <v>97700</v>
+        <v>98400</v>
       </c>
       <c r="F89" s="3">
-        <v>124000</v>
+        <v>125000</v>
       </c>
       <c r="G89" s="3">
-        <v>128200</v>
+        <v>129200</v>
       </c>
       <c r="H89" s="3">
-        <v>99800</v>
+        <v>100600</v>
       </c>
       <c r="I89" s="3">
-        <v>91000</v>
+        <v>91700</v>
       </c>
       <c r="J89" s="3">
-        <v>93100</v>
+        <v>93800</v>
       </c>
       <c r="K89" s="3">
         <v>83600</v>
@@ -3380,7 +3380,7 @@
         <v>-4800</v>
       </c>
       <c r="G91" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="H91" s="3">
         <v>-3900</v>
@@ -3389,7 +3389,7 @@
         <v>-2600</v>
       </c>
       <c r="J91" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="K91" s="3">
         <v>-23400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="E94" s="3">
-        <v>-22900</v>
+        <v>-23000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="G94" s="3">
-        <v>-10400</v>
+        <v>-10500</v>
       </c>
       <c r="H94" s="3">
-        <v>-14200</v>
+        <v>-14300</v>
       </c>
       <c r="I94" s="3">
         <v>-2600</v>
       </c>
       <c r="J94" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="K94" s="3">
         <v>-23400</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>-300</v>
       </c>
       <c r="H100" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="I100" s="3">
         <v>-300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>94300</v>
+        <v>95000</v>
       </c>
       <c r="E102" s="3">
-        <v>74400</v>
+        <v>75000</v>
       </c>
       <c r="F102" s="3">
-        <v>117000</v>
+        <v>117900</v>
       </c>
       <c r="G102" s="3">
-        <v>115900</v>
+        <v>116800</v>
       </c>
       <c r="H102" s="3">
-        <v>78600</v>
+        <v>79200</v>
       </c>
       <c r="I102" s="3">
-        <v>89500</v>
+        <v>90200</v>
       </c>
       <c r="J102" s="3">
-        <v>86700</v>
+        <v>87400</v>
       </c>
       <c r="K102" s="3">
         <v>60700</v>

--- a/AAII_Financials/Yearly/CO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CO_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>182900</v>
+        <v>170900</v>
       </c>
       <c r="E8" s="3">
-        <v>192700</v>
+        <v>180000</v>
       </c>
       <c r="F8" s="3">
-        <v>155700</v>
+        <v>145400</v>
       </c>
       <c r="G8" s="3">
-        <v>147800</v>
+        <v>138000</v>
       </c>
       <c r="H8" s="3">
-        <v>119900</v>
+        <v>112000</v>
       </c>
       <c r="I8" s="3">
-        <v>104600</v>
+        <v>97700</v>
       </c>
       <c r="J8" s="3">
-        <v>100200</v>
+        <v>93600</v>
       </c>
       <c r="K8" s="3">
         <v>89400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28200</v>
+        <v>26400</v>
       </c>
       <c r="E9" s="3">
-        <v>29800</v>
+        <v>27900</v>
       </c>
       <c r="F9" s="3">
-        <v>29300</v>
+        <v>27400</v>
       </c>
       <c r="G9" s="3">
-        <v>28600</v>
+        <v>26700</v>
       </c>
       <c r="H9" s="3">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="I9" s="3">
-        <v>22800</v>
+        <v>21300</v>
       </c>
       <c r="J9" s="3">
-        <v>20600</v>
+        <v>19200</v>
       </c>
       <c r="K9" s="3">
         <v>16600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>154700</v>
+        <v>144500</v>
       </c>
       <c r="E10" s="3">
-        <v>162900</v>
+        <v>152100</v>
       </c>
       <c r="F10" s="3">
-        <v>126300</v>
+        <v>118000</v>
       </c>
       <c r="G10" s="3">
-        <v>119200</v>
+        <v>111300</v>
       </c>
       <c r="H10" s="3">
-        <v>97400</v>
+        <v>91000</v>
       </c>
       <c r="I10" s="3">
-        <v>81800</v>
+        <v>76400</v>
       </c>
       <c r="J10" s="3">
-        <v>79600</v>
+        <v>74300</v>
       </c>
       <c r="K10" s="3">
         <v>72800</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="E12" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F12" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H12" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I12" s="3">
         <v>1200</v>
       </c>
       <c r="J12" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K12" s="3">
         <v>1200</v>
@@ -931,7 +931,7 @@
         <v>400</v>
       </c>
       <c r="I14" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F15" s="3">
         <v>2500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J15" s="3">
         <v>2500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2700</v>
       </c>
       <c r="K15" s="3">
         <v>2200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>97000</v>
+        <v>90600</v>
       </c>
       <c r="E17" s="3">
-        <v>104500</v>
+        <v>97600</v>
       </c>
       <c r="F17" s="3">
-        <v>95500</v>
+        <v>89200</v>
       </c>
       <c r="G17" s="3">
-        <v>103600</v>
+        <v>96800</v>
       </c>
       <c r="H17" s="3">
-        <v>78500</v>
+        <v>73300</v>
       </c>
       <c r="I17" s="3">
-        <v>75700</v>
+        <v>70700</v>
       </c>
       <c r="J17" s="3">
-        <v>63100</v>
+        <v>59000</v>
       </c>
       <c r="K17" s="3">
         <v>53200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>86000</v>
+        <v>80300</v>
       </c>
       <c r="E18" s="3">
-        <v>88200</v>
+        <v>82400</v>
       </c>
       <c r="F18" s="3">
-        <v>60200</v>
+        <v>56200</v>
       </c>
       <c r="G18" s="3">
-        <v>44200</v>
+        <v>41200</v>
       </c>
       <c r="H18" s="3">
-        <v>41400</v>
+        <v>38700</v>
       </c>
       <c r="I18" s="3">
-        <v>28900</v>
+        <v>27000</v>
       </c>
       <c r="J18" s="3">
-        <v>37100</v>
+        <v>34600</v>
       </c>
       <c r="K18" s="3">
         <v>36200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="E20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J20" s="3">
         <v>3100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3300</v>
       </c>
       <c r="K20" s="3">
         <v>4500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>104100</v>
+        <v>97300</v>
       </c>
       <c r="E21" s="3">
-        <v>99100</v>
+        <v>92700</v>
       </c>
       <c r="F21" s="3">
-        <v>64500</v>
+        <v>60300</v>
       </c>
       <c r="G21" s="3">
-        <v>56400</v>
+        <v>52700</v>
       </c>
       <c r="H21" s="3">
-        <v>53100</v>
+        <v>49600</v>
       </c>
       <c r="I21" s="3">
-        <v>47300</v>
+        <v>44200</v>
       </c>
       <c r="J21" s="3">
-        <v>48400</v>
+        <v>45300</v>
       </c>
       <c r="K21" s="3">
         <v>46500</v>
@@ -1173,13 +1173,13 @@
         <v>500</v>
       </c>
       <c r="H22" s="3">
-        <v>18800</v>
+        <v>17600</v>
       </c>
       <c r="I22" s="3">
-        <v>17000</v>
+        <v>15900</v>
       </c>
       <c r="J22" s="3">
-        <v>15900</v>
+        <v>14900</v>
       </c>
       <c r="K22" s="3">
         <v>10900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>96400</v>
+        <v>90000</v>
       </c>
       <c r="E23" s="3">
-        <v>91300</v>
+        <v>85300</v>
       </c>
       <c r="F23" s="3">
-        <v>56200</v>
+        <v>52500</v>
       </c>
       <c r="G23" s="3">
-        <v>47900</v>
+        <v>44700</v>
       </c>
       <c r="H23" s="3">
-        <v>26200</v>
+        <v>24500</v>
       </c>
       <c r="I23" s="3">
-        <v>22300</v>
+        <v>20800</v>
       </c>
       <c r="J23" s="3">
-        <v>24500</v>
+        <v>22900</v>
       </c>
       <c r="K23" s="3">
         <v>29800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E24" s="3">
         <v>14900</v>
       </c>
-      <c r="E24" s="3">
-        <v>15900</v>
-      </c>
       <c r="F24" s="3">
-        <v>9700</v>
+        <v>9000</v>
       </c>
       <c r="G24" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="H24" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="I24" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="J24" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="K24" s="3">
         <v>9100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>81400</v>
+        <v>76100</v>
       </c>
       <c r="E26" s="3">
-        <v>75400</v>
+        <v>70400</v>
       </c>
       <c r="F26" s="3">
-        <v>46600</v>
+        <v>43500</v>
       </c>
       <c r="G26" s="3">
-        <v>38000</v>
+        <v>35500</v>
       </c>
       <c r="H26" s="3">
-        <v>20300</v>
+        <v>19000</v>
       </c>
       <c r="I26" s="3">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="J26" s="3">
-        <v>17000</v>
+        <v>15900</v>
       </c>
       <c r="K26" s="3">
         <v>20700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>80200</v>
+        <v>74900</v>
       </c>
       <c r="E27" s="3">
-        <v>74300</v>
+        <v>69400</v>
       </c>
       <c r="F27" s="3">
-        <v>45900</v>
+        <v>42900</v>
       </c>
       <c r="G27" s="3">
-        <v>37400</v>
+        <v>34900</v>
       </c>
       <c r="H27" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="I27" s="3">
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="J27" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="K27" s="3">
         <v>18200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10400</v>
+        <v>-9700</v>
       </c>
       <c r="E32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-3300</v>
       </c>
       <c r="K32" s="3">
         <v>-4500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>80200</v>
+        <v>74900</v>
       </c>
       <c r="E33" s="3">
-        <v>74300</v>
+        <v>69400</v>
       </c>
       <c r="F33" s="3">
-        <v>45900</v>
+        <v>42900</v>
       </c>
       <c r="G33" s="3">
-        <v>37400</v>
+        <v>34900</v>
       </c>
       <c r="H33" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="I33" s="3">
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="J33" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="K33" s="3">
         <v>18200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>80200</v>
+        <v>74900</v>
       </c>
       <c r="E35" s="3">
-        <v>74300</v>
+        <v>69400</v>
       </c>
       <c r="F35" s="3">
-        <v>45900</v>
+        <v>42900</v>
       </c>
       <c r="G35" s="3">
-        <v>37400</v>
+        <v>34900</v>
       </c>
       <c r="H35" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="I35" s="3">
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="J35" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="K35" s="3">
         <v>18200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>958500</v>
+        <v>895300</v>
       </c>
       <c r="E41" s="3">
-        <v>863500</v>
+        <v>806600</v>
       </c>
       <c r="F41" s="3">
-        <v>788500</v>
+        <v>736500</v>
       </c>
       <c r="G41" s="3">
-        <v>670600</v>
+        <v>626400</v>
       </c>
       <c r="H41" s="3">
-        <v>553800</v>
+        <v>517300</v>
       </c>
       <c r="I41" s="3">
-        <v>474600</v>
+        <v>443300</v>
       </c>
       <c r="J41" s="3">
-        <v>384400</v>
+        <v>359100</v>
       </c>
       <c r="K41" s="3">
         <v>293800</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>10</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21300</v>
+        <v>19900</v>
       </c>
       <c r="E43" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>15900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>17200</v>
+      </c>
+      <c r="H43" s="3">
         <v>17400</v>
       </c>
-      <c r="F43" s="3">
-        <v>17000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>18500</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J43" s="3">
         <v>18600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>20800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>19900</v>
       </c>
       <c r="K43" s="3">
         <v>17400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="E44" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="F44" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="G44" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="H44" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="I44" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="J44" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K44" s="3">
         <v>4900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="E45" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="F45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G45" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="H45" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I45" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="J45" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="K45" s="3">
         <v>5000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>993600</v>
+        <v>928100</v>
       </c>
       <c r="E46" s="3">
-        <v>893900</v>
+        <v>835000</v>
       </c>
       <c r="F46" s="3">
-        <v>812100</v>
+        <v>758600</v>
       </c>
       <c r="G46" s="3">
-        <v>695500</v>
+        <v>649600</v>
       </c>
       <c r="H46" s="3">
-        <v>579200</v>
+        <v>541000</v>
       </c>
       <c r="I46" s="3">
-        <v>502600</v>
+        <v>469500</v>
       </c>
       <c r="J46" s="3">
-        <v>413100</v>
+        <v>385900</v>
       </c>
       <c r="K46" s="3">
         <v>321100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>82700</v>
+        <v>77300</v>
       </c>
       <c r="E47" s="3">
-        <v>71100</v>
+        <v>66400</v>
       </c>
       <c r="F47" s="3">
-        <v>63300</v>
+        <v>59100</v>
       </c>
       <c r="G47" s="3">
-        <v>70200</v>
+        <v>65500</v>
       </c>
       <c r="H47" s="3">
-        <v>82800</v>
+        <v>77400</v>
       </c>
       <c r="I47" s="3">
-        <v>81500</v>
+        <v>76200</v>
       </c>
       <c r="J47" s="3">
-        <v>79800</v>
+        <v>74500</v>
       </c>
       <c r="K47" s="3">
         <v>87200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>79500</v>
+        <v>74200</v>
       </c>
       <c r="E48" s="3">
-        <v>83200</v>
+        <v>77700</v>
       </c>
       <c r="F48" s="3">
-        <v>86000</v>
+        <v>80400</v>
       </c>
       <c r="G48" s="3">
-        <v>87200</v>
+        <v>81500</v>
       </c>
       <c r="H48" s="3">
-        <v>87000</v>
+        <v>81300</v>
       </c>
       <c r="I48" s="3">
-        <v>90600</v>
+        <v>84700</v>
       </c>
       <c r="J48" s="3">
-        <v>95200</v>
+        <v>88900</v>
       </c>
       <c r="K48" s="3">
         <v>97800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="E49" s="3">
-        <v>14600</v>
+        <v>13700</v>
       </c>
       <c r="F49" s="3">
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="G49" s="3">
-        <v>16100</v>
+        <v>15000</v>
       </c>
       <c r="H49" s="3">
-        <v>16800</v>
+        <v>15700</v>
       </c>
       <c r="I49" s="3">
-        <v>17600</v>
+        <v>16400</v>
       </c>
       <c r="J49" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="K49" s="3">
         <v>18800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>77600</v>
+        <v>72500</v>
       </c>
       <c r="E52" s="3">
-        <v>76200</v>
+        <v>71200</v>
       </c>
       <c r="F52" s="3">
-        <v>56600</v>
+        <v>52900</v>
       </c>
       <c r="G52" s="3">
-        <v>53000</v>
+        <v>49500</v>
       </c>
       <c r="H52" s="3">
-        <v>51800</v>
+        <v>48400</v>
       </c>
       <c r="I52" s="3">
-        <v>47200</v>
+        <v>44100</v>
       </c>
       <c r="J52" s="3">
-        <v>43000</v>
+        <v>40100</v>
       </c>
       <c r="K52" s="3">
         <v>41600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1247300</v>
+        <v>1165100</v>
       </c>
       <c r="E54" s="3">
-        <v>1139000</v>
+        <v>1063900</v>
       </c>
       <c r="F54" s="3">
-        <v>1033500</v>
+        <v>965300</v>
       </c>
       <c r="G54" s="3">
-        <v>922000</v>
+        <v>861200</v>
       </c>
       <c r="H54" s="3">
-        <v>817700</v>
+        <v>763800</v>
       </c>
       <c r="I54" s="3">
-        <v>739600</v>
+        <v>690800</v>
       </c>
       <c r="J54" s="3">
-        <v>648700</v>
+        <v>605900</v>
       </c>
       <c r="K54" s="3">
         <v>566500</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="F57" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="G57" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H57" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I57" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J57" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K57" s="3">
         <v>1600</v>
@@ -2322,13 +2322,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>162700</v>
+        <v>152000</v>
       </c>
       <c r="I58" s="3">
-        <v>9500</v>
+        <v>8800</v>
       </c>
       <c r="J58" s="3">
-        <v>18900</v>
+        <v>17700</v>
       </c>
       <c r="K58" s="3">
         <v>9400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>97300</v>
+        <v>90900</v>
       </c>
       <c r="E59" s="3">
-        <v>86900</v>
+        <v>81200</v>
       </c>
       <c r="F59" s="3">
-        <v>88700</v>
+        <v>82800</v>
       </c>
       <c r="G59" s="3">
-        <v>72100</v>
+        <v>67300</v>
       </c>
       <c r="H59" s="3">
-        <v>63900</v>
+        <v>59700</v>
       </c>
       <c r="I59" s="3">
-        <v>62300</v>
+        <v>58200</v>
       </c>
       <c r="J59" s="3">
-        <v>54800</v>
+        <v>51200</v>
       </c>
       <c r="K59" s="3">
         <v>51000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>98800</v>
+        <v>92300</v>
       </c>
       <c r="E60" s="3">
-        <v>90000</v>
+        <v>84100</v>
       </c>
       <c r="F60" s="3">
-        <v>94000</v>
+        <v>87800</v>
       </c>
       <c r="G60" s="3">
-        <v>73900</v>
+        <v>69000</v>
       </c>
       <c r="H60" s="3">
-        <v>228300</v>
+        <v>213200</v>
       </c>
       <c r="I60" s="3">
-        <v>71600</v>
+        <v>66900</v>
       </c>
       <c r="J60" s="3">
-        <v>66300</v>
+        <v>61900</v>
       </c>
       <c r="K60" s="3">
         <v>62000</v>
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>143000</v>
+        <v>133500</v>
       </c>
       <c r="J61" s="3">
-        <v>127500</v>
+        <v>119100</v>
       </c>
       <c r="K61" s="3">
         <v>121300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>456100</v>
+        <v>426100</v>
       </c>
       <c r="E62" s="3">
-        <v>435500</v>
+        <v>406800</v>
       </c>
       <c r="F62" s="3">
-        <v>399500</v>
+        <v>373200</v>
       </c>
       <c r="G62" s="3">
-        <v>356100</v>
+        <v>332700</v>
       </c>
       <c r="H62" s="3">
-        <v>298700</v>
+        <v>279000</v>
       </c>
       <c r="I62" s="3">
-        <v>254700</v>
+        <v>237900</v>
       </c>
       <c r="J62" s="3">
-        <v>211400</v>
+        <v>197500</v>
       </c>
       <c r="K62" s="3">
         <v>158500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>556000</v>
+        <v>519400</v>
       </c>
       <c r="E66" s="3">
-        <v>526600</v>
+        <v>491800</v>
       </c>
       <c r="F66" s="3">
-        <v>494400</v>
+        <v>461800</v>
       </c>
       <c r="G66" s="3">
-        <v>430900</v>
+        <v>402500</v>
       </c>
       <c r="H66" s="3">
-        <v>527700</v>
+        <v>492900</v>
       </c>
       <c r="I66" s="3">
-        <v>469900</v>
+        <v>438900</v>
       </c>
       <c r="J66" s="3">
-        <v>406100</v>
+        <v>379300</v>
       </c>
       <c r="K66" s="3">
         <v>342600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>376400</v>
+        <v>351600</v>
       </c>
       <c r="E72" s="3">
-        <v>296300</v>
+        <v>276700</v>
       </c>
       <c r="F72" s="3">
-        <v>222000</v>
+        <v>207400</v>
       </c>
       <c r="G72" s="3">
-        <v>176200</v>
+        <v>164600</v>
       </c>
       <c r="H72" s="3">
-        <v>138800</v>
+        <v>129600</v>
       </c>
       <c r="I72" s="3">
-        <v>118900</v>
+        <v>111000</v>
       </c>
       <c r="J72" s="3">
-        <v>104500</v>
+        <v>97600</v>
       </c>
       <c r="K72" s="3">
         <v>86600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>691300</v>
+        <v>645700</v>
       </c>
       <c r="E76" s="3">
-        <v>612400</v>
+        <v>572100</v>
       </c>
       <c r="F76" s="3">
-        <v>539100</v>
+        <v>503600</v>
       </c>
       <c r="G76" s="3">
-        <v>491200</v>
+        <v>458800</v>
       </c>
       <c r="H76" s="3">
-        <v>289900</v>
+        <v>270800</v>
       </c>
       <c r="I76" s="3">
-        <v>269700</v>
+        <v>251900</v>
       </c>
       <c r="J76" s="3">
-        <v>242600</v>
+        <v>226600</v>
       </c>
       <c r="K76" s="3">
         <v>223900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>80200</v>
+        <v>74900</v>
       </c>
       <c r="E81" s="3">
-        <v>74300</v>
+        <v>69400</v>
       </c>
       <c r="F81" s="3">
-        <v>45900</v>
+        <v>42900</v>
       </c>
       <c r="G81" s="3">
-        <v>37400</v>
+        <v>34900</v>
       </c>
       <c r="H81" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="I81" s="3">
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="J81" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="K81" s="3">
         <v>18200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F83" s="3">
         <v>7700</v>
       </c>
-      <c r="E83" s="3">
-        <v>7800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>8300</v>
-      </c>
       <c r="G83" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="H83" s="3">
-        <v>8000</v>
+        <v>7400</v>
       </c>
       <c r="I83" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="J83" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="K83" s="3">
         <v>5800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>99500</v>
+        <v>92900</v>
       </c>
       <c r="E89" s="3">
-        <v>98400</v>
+        <v>92000</v>
       </c>
       <c r="F89" s="3">
-        <v>125000</v>
+        <v>116700</v>
       </c>
       <c r="G89" s="3">
-        <v>129200</v>
+        <v>120700</v>
       </c>
       <c r="H89" s="3">
-        <v>100600</v>
+        <v>94000</v>
       </c>
       <c r="I89" s="3">
-        <v>91700</v>
+        <v>85600</v>
       </c>
       <c r="J89" s="3">
-        <v>93800</v>
+        <v>87700</v>
       </c>
       <c r="K89" s="3">
         <v>83600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="F91" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="G91" s="3">
-        <v>-10600</v>
+        <v>-9900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="J91" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="K91" s="3">
         <v>-23400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="E94" s="3">
-        <v>-23000</v>
+        <v>-21500</v>
       </c>
       <c r="F94" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="G94" s="3">
-        <v>-10500</v>
+        <v>-9800</v>
       </c>
       <c r="H94" s="3">
-        <v>-14300</v>
+        <v>-13300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="J94" s="3">
-        <v>-6700</v>
+        <v>-6300</v>
       </c>
       <c r="K94" s="3">
         <v>-23400</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3675,22 +3675,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E100" s="3">
         <v>-600</v>
       </c>
       <c r="F100" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="G100" s="3">
         <v>-300</v>
       </c>
       <c r="H100" s="3">
-        <v>-9500</v>
+        <v>-8800</v>
       </c>
       <c r="I100" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>-300</v>
       </c>
       <c r="E101" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>1000</v>
       </c>
       <c r="G101" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="H101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I101" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J101" s="3">
         <v>200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>95000</v>
+        <v>88800</v>
       </c>
       <c r="E102" s="3">
-        <v>75000</v>
+        <v>70100</v>
       </c>
       <c r="F102" s="3">
-        <v>117900</v>
+        <v>110100</v>
       </c>
       <c r="G102" s="3">
-        <v>116800</v>
+        <v>109100</v>
       </c>
       <c r="H102" s="3">
-        <v>79200</v>
+        <v>74000</v>
       </c>
       <c r="I102" s="3">
-        <v>90200</v>
+        <v>84300</v>
       </c>
       <c r="J102" s="3">
-        <v>87400</v>
+        <v>81600</v>
       </c>
       <c r="K102" s="3">
         <v>60700</v>

--- a/AAII_Financials/Yearly/CO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>CO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>170900</v>
+        <v>181600</v>
       </c>
       <c r="E8" s="3">
-        <v>180000</v>
+        <v>169300</v>
       </c>
       <c r="F8" s="3">
-        <v>145400</v>
+        <v>178400</v>
       </c>
       <c r="G8" s="3">
-        <v>138000</v>
+        <v>144100</v>
       </c>
       <c r="H8" s="3">
-        <v>112000</v>
+        <v>136800</v>
       </c>
       <c r="I8" s="3">
-        <v>97700</v>
+        <v>111000</v>
       </c>
       <c r="J8" s="3">
+        <v>96800</v>
+      </c>
+      <c r="K8" s="3">
         <v>93600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>89400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>73600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>56500</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26400</v>
+        <v>26800</v>
       </c>
       <c r="E9" s="3">
-        <v>27900</v>
+        <v>26100</v>
       </c>
       <c r="F9" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="G9" s="3">
-        <v>26700</v>
+        <v>27200</v>
       </c>
       <c r="H9" s="3">
-        <v>21000</v>
+        <v>26500</v>
       </c>
       <c r="I9" s="3">
-        <v>21300</v>
+        <v>20800</v>
       </c>
       <c r="J9" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K9" s="3">
         <v>19200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>144500</v>
+        <v>154800</v>
       </c>
       <c r="E10" s="3">
-        <v>152100</v>
+        <v>143200</v>
       </c>
       <c r="F10" s="3">
-        <v>118000</v>
+        <v>150800</v>
       </c>
       <c r="G10" s="3">
-        <v>111300</v>
+        <v>116900</v>
       </c>
       <c r="H10" s="3">
-        <v>91000</v>
+        <v>110300</v>
       </c>
       <c r="I10" s="3">
-        <v>76400</v>
+        <v>90100</v>
       </c>
       <c r="J10" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K10" s="3">
         <v>74300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>72800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>58700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
         <v>3200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2800</v>
       </c>
-      <c r="F12" s="3">
-        <v>2000</v>
-      </c>
       <c r="G12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H12" s="3">
         <v>1700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1200</v>
       </c>
       <c r="J12" s="3">
         <v>1100</v>
       </c>
       <c r="K12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -921,20 +940,20 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -942,48 +961,54 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E15" s="3">
         <v>2300</v>
       </c>
       <c r="F15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G15" s="3">
         <v>2500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2400</v>
       </c>
       <c r="I15" s="3">
         <v>2300</v>
       </c>
       <c r="J15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K15" s="3">
         <v>2500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1900</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>90600</v>
+        <v>92600</v>
       </c>
       <c r="E17" s="3">
-        <v>97600</v>
+        <v>89800</v>
       </c>
       <c r="F17" s="3">
-        <v>89200</v>
+        <v>96700</v>
       </c>
       <c r="G17" s="3">
-        <v>96800</v>
+        <v>88400</v>
       </c>
       <c r="H17" s="3">
-        <v>73300</v>
+        <v>95900</v>
       </c>
       <c r="I17" s="3">
-        <v>70700</v>
+        <v>72700</v>
       </c>
       <c r="J17" s="3">
+        <v>70100</v>
+      </c>
+      <c r="K17" s="3">
         <v>59000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>44300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>80300</v>
+        <v>88900</v>
       </c>
       <c r="E18" s="3">
-        <v>82400</v>
+        <v>79600</v>
       </c>
       <c r="F18" s="3">
-        <v>56200</v>
+        <v>81600</v>
       </c>
       <c r="G18" s="3">
-        <v>41200</v>
+        <v>55700</v>
       </c>
       <c r="H18" s="3">
-        <v>38700</v>
+        <v>40900</v>
       </c>
       <c r="I18" s="3">
-        <v>27000</v>
+        <v>38300</v>
       </c>
       <c r="J18" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K18" s="3">
         <v>34600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>36200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>29300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J20" s="3">
         <v>9700</v>
       </c>
-      <c r="E20" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>9800</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>97300</v>
+        <v>98700</v>
       </c>
       <c r="E21" s="3">
-        <v>92700</v>
+        <v>96300</v>
       </c>
       <c r="F21" s="3">
-        <v>60300</v>
+        <v>91700</v>
       </c>
       <c r="G21" s="3">
-        <v>52700</v>
+        <v>59700</v>
       </c>
       <c r="H21" s="3">
-        <v>49600</v>
+        <v>52200</v>
       </c>
       <c r="I21" s="3">
-        <v>44200</v>
+        <v>49100</v>
       </c>
       <c r="J21" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K21" s="3">
         <v>45300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>46500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>37000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27400</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
-        <v>17600</v>
-      </c>
       <c r="I22" s="3">
-        <v>15900</v>
+        <v>17400</v>
       </c>
       <c r="J22" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K22" s="3">
         <v>14900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>90000</v>
+        <v>91700</v>
       </c>
       <c r="E23" s="3">
-        <v>85300</v>
+        <v>89200</v>
       </c>
       <c r="F23" s="3">
-        <v>52500</v>
+        <v>84500</v>
       </c>
       <c r="G23" s="3">
-        <v>44700</v>
+        <v>52100</v>
       </c>
       <c r="H23" s="3">
-        <v>24500</v>
+        <v>44300</v>
       </c>
       <c r="I23" s="3">
-        <v>20800</v>
+        <v>24300</v>
       </c>
       <c r="J23" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K23" s="3">
         <v>22900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13900</v>
+        <v>17300</v>
       </c>
       <c r="E24" s="3">
-        <v>14900</v>
+        <v>13800</v>
       </c>
       <c r="F24" s="3">
-        <v>9000</v>
+        <v>14800</v>
       </c>
       <c r="G24" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="H24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I24" s="3">
         <v>5500</v>
       </c>
-      <c r="I24" s="3">
-        <v>7400</v>
-      </c>
       <c r="J24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>76100</v>
+        <v>74400</v>
       </c>
       <c r="E26" s="3">
-        <v>70400</v>
+        <v>75400</v>
       </c>
       <c r="F26" s="3">
-        <v>43500</v>
+        <v>69800</v>
       </c>
       <c r="G26" s="3">
-        <v>35500</v>
+        <v>43100</v>
       </c>
       <c r="H26" s="3">
-        <v>19000</v>
+        <v>35200</v>
       </c>
       <c r="I26" s="3">
-        <v>13500</v>
+        <v>18800</v>
       </c>
       <c r="J26" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K26" s="3">
         <v>15900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>74900</v>
+        <v>73200</v>
       </c>
       <c r="E27" s="3">
-        <v>69400</v>
+        <v>74200</v>
       </c>
       <c r="F27" s="3">
-        <v>42900</v>
+        <v>68700</v>
       </c>
       <c r="G27" s="3">
-        <v>34900</v>
+        <v>42500</v>
       </c>
       <c r="H27" s="3">
-        <v>17100</v>
+        <v>34600</v>
       </c>
       <c r="I27" s="3">
-        <v>13400</v>
+        <v>17000</v>
       </c>
       <c r="J27" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K27" s="3">
         <v>14600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19600</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-9700</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>74900</v>
+        <v>73200</v>
       </c>
       <c r="E33" s="3">
-        <v>69400</v>
+        <v>74200</v>
       </c>
       <c r="F33" s="3">
-        <v>42900</v>
+        <v>68700</v>
       </c>
       <c r="G33" s="3">
-        <v>34900</v>
+        <v>42500</v>
       </c>
       <c r="H33" s="3">
-        <v>17100</v>
+        <v>34600</v>
       </c>
       <c r="I33" s="3">
-        <v>13400</v>
+        <v>17000</v>
       </c>
       <c r="J33" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K33" s="3">
         <v>14600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19600</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>74900</v>
+        <v>73200</v>
       </c>
       <c r="E35" s="3">
-        <v>69400</v>
+        <v>74200</v>
       </c>
       <c r="F35" s="3">
-        <v>42900</v>
+        <v>68700</v>
       </c>
       <c r="G35" s="3">
-        <v>34900</v>
+        <v>42500</v>
       </c>
       <c r="H35" s="3">
-        <v>17100</v>
+        <v>34600</v>
       </c>
       <c r="I35" s="3">
-        <v>13400</v>
+        <v>17000</v>
       </c>
       <c r="J35" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K35" s="3">
         <v>14600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19600</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>895300</v>
+        <v>972700</v>
       </c>
       <c r="E41" s="3">
-        <v>806600</v>
+        <v>887200</v>
       </c>
       <c r="F41" s="3">
-        <v>736500</v>
+        <v>799300</v>
       </c>
       <c r="G41" s="3">
-        <v>626400</v>
+        <v>729800</v>
       </c>
       <c r="H41" s="3">
-        <v>517300</v>
+        <v>620700</v>
       </c>
       <c r="I41" s="3">
-        <v>443300</v>
+        <v>512600</v>
       </c>
       <c r="J41" s="3">
+        <v>439300</v>
+      </c>
+      <c r="K41" s="3">
         <v>359100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>293800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>209400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>117900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>100</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19900</v>
+        <v>31600</v>
       </c>
       <c r="E43" s="3">
-        <v>16300</v>
+        <v>19700</v>
       </c>
       <c r="F43" s="3">
-        <v>15900</v>
+        <v>16100</v>
       </c>
       <c r="G43" s="3">
+        <v>15700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>17100</v>
+      </c>
+      <c r="I43" s="3">
         <v>17200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K43" s="3">
+        <v>18600</v>
+      </c>
+      <c r="L43" s="3">
         <v>17400</v>
       </c>
-      <c r="I43" s="3">
-        <v>19400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>18600</v>
-      </c>
-      <c r="K43" s="3">
-        <v>17400</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E44" s="3">
         <v>6500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J44" s="3">
         <v>4100</v>
       </c>
-      <c r="G44" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>6300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>928100</v>
+        <v>1012700</v>
       </c>
       <c r="E46" s="3">
-        <v>835000</v>
+        <v>919700</v>
       </c>
       <c r="F46" s="3">
-        <v>758600</v>
+        <v>827400</v>
       </c>
       <c r="G46" s="3">
-        <v>649600</v>
+        <v>751800</v>
       </c>
       <c r="H46" s="3">
-        <v>541000</v>
+        <v>643800</v>
       </c>
       <c r="I46" s="3">
-        <v>469500</v>
+        <v>536100</v>
       </c>
       <c r="J46" s="3">
+        <v>465200</v>
+      </c>
+      <c r="K46" s="3">
         <v>385900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>321100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>224000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>133100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>77300</v>
+        <v>78400</v>
       </c>
       <c r="E47" s="3">
-        <v>66400</v>
+        <v>76600</v>
       </c>
       <c r="F47" s="3">
-        <v>59100</v>
+        <v>65800</v>
       </c>
       <c r="G47" s="3">
-        <v>65500</v>
+        <v>58600</v>
       </c>
       <c r="H47" s="3">
-        <v>77400</v>
+        <v>65000</v>
       </c>
       <c r="I47" s="3">
-        <v>76200</v>
+        <v>76700</v>
       </c>
       <c r="J47" s="3">
+        <v>75500</v>
+      </c>
+      <c r="K47" s="3">
         <v>74500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>87200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>73900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>72200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>74200</v>
+        <v>69600</v>
       </c>
       <c r="E48" s="3">
-        <v>77700</v>
+        <v>73600</v>
       </c>
       <c r="F48" s="3">
-        <v>80400</v>
+        <v>77000</v>
       </c>
       <c r="G48" s="3">
-        <v>81500</v>
+        <v>79600</v>
       </c>
       <c r="H48" s="3">
-        <v>81300</v>
+        <v>80700</v>
       </c>
       <c r="I48" s="3">
-        <v>84700</v>
+        <v>80500</v>
       </c>
       <c r="J48" s="3">
+        <v>83900</v>
+      </c>
+      <c r="K48" s="3">
         <v>88900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>97800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>65600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>39800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13000</v>
+        <v>12200</v>
       </c>
       <c r="E49" s="3">
-        <v>13700</v>
+        <v>12900</v>
       </c>
       <c r="F49" s="3">
-        <v>14400</v>
+        <v>13600</v>
       </c>
       <c r="G49" s="3">
-        <v>15000</v>
+        <v>14200</v>
       </c>
       <c r="H49" s="3">
-        <v>15700</v>
+        <v>14900</v>
       </c>
       <c r="I49" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="J49" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K49" s="3">
         <v>17100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19300</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>72500</v>
+        <v>73300</v>
       </c>
       <c r="E52" s="3">
-        <v>71200</v>
+        <v>71900</v>
       </c>
       <c r="F52" s="3">
-        <v>52900</v>
+        <v>70600</v>
       </c>
       <c r="G52" s="3">
-        <v>49500</v>
+        <v>52400</v>
       </c>
       <c r="H52" s="3">
-        <v>48400</v>
+        <v>49100</v>
       </c>
       <c r="I52" s="3">
-        <v>44100</v>
+        <v>48000</v>
       </c>
       <c r="J52" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K52" s="3">
         <v>40100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1165100</v>
+        <v>1246300</v>
       </c>
       <c r="E54" s="3">
-        <v>1063900</v>
+        <v>1154600</v>
       </c>
       <c r="F54" s="3">
-        <v>965300</v>
+        <v>1054300</v>
       </c>
       <c r="G54" s="3">
-        <v>861200</v>
+        <v>956600</v>
       </c>
       <c r="H54" s="3">
-        <v>763800</v>
+        <v>853500</v>
       </c>
       <c r="I54" s="3">
-        <v>690800</v>
+        <v>756900</v>
       </c>
       <c r="J54" s="3">
+        <v>684600</v>
+      </c>
+      <c r="K54" s="3">
         <v>605900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>566500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>418600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>270700</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,44 +2397,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2000</v>
       </c>
       <c r="J57" s="3">
         <v>1900</v>
       </c>
       <c r="K57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2318,102 +2451,111 @@
       <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H58" s="3">
-        <v>152000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>150600</v>
+      </c>
+      <c r="J58" s="3">
         <v>8800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6700</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>90900</v>
+        <v>93200</v>
       </c>
       <c r="E59" s="3">
-        <v>81200</v>
+        <v>90100</v>
       </c>
       <c r="F59" s="3">
-        <v>82800</v>
+        <v>80400</v>
       </c>
       <c r="G59" s="3">
-        <v>67300</v>
+        <v>82100</v>
       </c>
       <c r="H59" s="3">
-        <v>59700</v>
+        <v>66700</v>
       </c>
       <c r="I59" s="3">
-        <v>58200</v>
+        <v>59100</v>
       </c>
       <c r="J59" s="3">
+        <v>57700</v>
+      </c>
+      <c r="K59" s="3">
         <v>51200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>38200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92300</v>
+        <v>94400</v>
       </c>
       <c r="E60" s="3">
-        <v>84100</v>
+        <v>91500</v>
       </c>
       <c r="F60" s="3">
-        <v>87800</v>
+        <v>83400</v>
       </c>
       <c r="G60" s="3">
-        <v>69000</v>
+        <v>87000</v>
       </c>
       <c r="H60" s="3">
-        <v>213200</v>
+        <v>68400</v>
       </c>
       <c r="I60" s="3">
-        <v>66900</v>
+        <v>211300</v>
       </c>
       <c r="J60" s="3">
+        <v>66300</v>
+      </c>
+      <c r="K60" s="3">
         <v>61900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>62000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29300</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2433,59 +2575,65 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>133500</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>132300</v>
+      </c>
+      <c r="K61" s="3">
         <v>119100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>121300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>105400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>426100</v>
+        <v>438500</v>
       </c>
       <c r="E62" s="3">
-        <v>406800</v>
+        <v>422200</v>
       </c>
       <c r="F62" s="3">
-        <v>373200</v>
+        <v>403100</v>
       </c>
       <c r="G62" s="3">
-        <v>332700</v>
+        <v>369800</v>
       </c>
       <c r="H62" s="3">
-        <v>279000</v>
+        <v>329700</v>
       </c>
       <c r="I62" s="3">
-        <v>237900</v>
+        <v>276500</v>
       </c>
       <c r="J62" s="3">
+        <v>235700</v>
+      </c>
+      <c r="K62" s="3">
         <v>197500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>158500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>92600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>58100</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>519400</v>
+        <v>533800</v>
       </c>
       <c r="E66" s="3">
-        <v>491800</v>
+        <v>514700</v>
       </c>
       <c r="F66" s="3">
-        <v>461800</v>
+        <v>487400</v>
       </c>
       <c r="G66" s="3">
-        <v>402500</v>
+        <v>457600</v>
       </c>
       <c r="H66" s="3">
-        <v>492900</v>
+        <v>398800</v>
       </c>
       <c r="I66" s="3">
-        <v>438900</v>
+        <v>488500</v>
       </c>
       <c r="J66" s="3">
+        <v>435000</v>
+      </c>
+      <c r="K66" s="3">
         <v>379300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>342600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>245200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>92200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>351600</v>
+        <v>421600</v>
       </c>
       <c r="E72" s="3">
-        <v>276700</v>
+        <v>348500</v>
       </c>
       <c r="F72" s="3">
-        <v>207400</v>
+        <v>274200</v>
       </c>
       <c r="G72" s="3">
-        <v>164600</v>
+        <v>205500</v>
       </c>
       <c r="H72" s="3">
-        <v>129600</v>
+        <v>163100</v>
       </c>
       <c r="I72" s="3">
-        <v>111000</v>
+        <v>128500</v>
       </c>
       <c r="J72" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K72" s="3">
         <v>97600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>86600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>59300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>645700</v>
+        <v>712500</v>
       </c>
       <c r="E76" s="3">
-        <v>572100</v>
+        <v>639900</v>
       </c>
       <c r="F76" s="3">
-        <v>503600</v>
+        <v>566900</v>
       </c>
       <c r="G76" s="3">
-        <v>458800</v>
+        <v>499000</v>
       </c>
       <c r="H76" s="3">
-        <v>270800</v>
+        <v>454600</v>
       </c>
       <c r="I76" s="3">
-        <v>251900</v>
+        <v>268400</v>
       </c>
       <c r="J76" s="3">
+        <v>249600</v>
+      </c>
+      <c r="K76" s="3">
         <v>226600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>223900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>173400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>178500</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>74900</v>
+        <v>73200</v>
       </c>
       <c r="E81" s="3">
-        <v>69400</v>
+        <v>74200</v>
       </c>
       <c r="F81" s="3">
-        <v>42900</v>
+        <v>68700</v>
       </c>
       <c r="G81" s="3">
-        <v>34900</v>
+        <v>42500</v>
       </c>
       <c r="H81" s="3">
-        <v>17100</v>
+        <v>34600</v>
       </c>
       <c r="I81" s="3">
-        <v>13400</v>
+        <v>17000</v>
       </c>
       <c r="J81" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K81" s="3">
         <v>14600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19600</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,22 +3294,23 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>7200</v>
       </c>
-      <c r="E83" s="3">
-        <v>7300</v>
-      </c>
       <c r="F83" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="G83" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="H83" s="3">
         <v>7400</v>
@@ -3121,20 +3319,23 @@
         <v>7400</v>
       </c>
       <c r="J83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K83" s="3">
         <v>7500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4400</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>92900</v>
+        <v>89600</v>
       </c>
       <c r="E89" s="3">
-        <v>92000</v>
+        <v>92100</v>
       </c>
       <c r="F89" s="3">
-        <v>116700</v>
+        <v>91100</v>
       </c>
       <c r="G89" s="3">
-        <v>120700</v>
+        <v>115700</v>
       </c>
       <c r="H89" s="3">
-        <v>94000</v>
+        <v>119600</v>
       </c>
       <c r="I89" s="3">
-        <v>85600</v>
+        <v>93100</v>
       </c>
       <c r="J89" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K89" s="3">
         <v>87700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>83600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>81000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>52500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2500</v>
-      </c>
       <c r="J91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="E94" s="3">
-        <v>-21500</v>
+        <v>-2900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4500</v>
+        <v>-21300</v>
       </c>
       <c r="G94" s="3">
-        <v>-9800</v>
+        <v>-4400</v>
       </c>
       <c r="H94" s="3">
-        <v>-13300</v>
+        <v>-9700</v>
       </c>
       <c r="I94" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-69100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3537,11 +3770,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-2700</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>86600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6600</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1500</v>
-      </c>
       <c r="H101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-500</v>
       </c>
       <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>88800</v>
+        <v>85500</v>
       </c>
       <c r="E102" s="3">
-        <v>70100</v>
+        <v>88000</v>
       </c>
       <c r="F102" s="3">
-        <v>110100</v>
+        <v>69400</v>
       </c>
       <c r="G102" s="3">
         <v>109100</v>
       </c>
       <c r="H102" s="3">
-        <v>74000</v>
+        <v>108100</v>
       </c>
       <c r="I102" s="3">
-        <v>84300</v>
+        <v>73300</v>
       </c>
       <c r="J102" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K102" s="3">
         <v>81600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>60700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>97900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>27100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CO_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>181600</v>
+        <v>173100</v>
       </c>
       <c r="E8" s="3">
-        <v>169300</v>
+        <v>161400</v>
       </c>
       <c r="F8" s="3">
-        <v>178400</v>
+        <v>170000</v>
       </c>
       <c r="G8" s="3">
-        <v>144100</v>
+        <v>137400</v>
       </c>
       <c r="H8" s="3">
-        <v>136800</v>
+        <v>130400</v>
       </c>
       <c r="I8" s="3">
-        <v>111000</v>
+        <v>105800</v>
       </c>
       <c r="J8" s="3">
-        <v>96800</v>
+        <v>92300</v>
       </c>
       <c r="K8" s="3">
         <v>93600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26800</v>
+        <v>25500</v>
       </c>
       <c r="E9" s="3">
-        <v>26100</v>
+        <v>24900</v>
       </c>
       <c r="F9" s="3">
-        <v>27600</v>
+        <v>26300</v>
       </c>
       <c r="G9" s="3">
-        <v>27200</v>
+        <v>25900</v>
       </c>
       <c r="H9" s="3">
-        <v>26500</v>
+        <v>25300</v>
       </c>
       <c r="I9" s="3">
-        <v>20800</v>
+        <v>19900</v>
       </c>
       <c r="J9" s="3">
-        <v>21100</v>
+        <v>20100</v>
       </c>
       <c r="K9" s="3">
         <v>19200</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>154800</v>
+        <v>147500</v>
       </c>
       <c r="E10" s="3">
-        <v>143200</v>
+        <v>136500</v>
       </c>
       <c r="F10" s="3">
-        <v>150800</v>
+        <v>143700</v>
       </c>
       <c r="G10" s="3">
-        <v>116900</v>
+        <v>111500</v>
       </c>
       <c r="H10" s="3">
-        <v>110300</v>
+        <v>105100</v>
       </c>
       <c r="I10" s="3">
-        <v>90100</v>
+        <v>85900</v>
       </c>
       <c r="J10" s="3">
-        <v>75700</v>
+        <v>72200</v>
       </c>
       <c r="K10" s="3">
         <v>74300</v>
@@ -857,19 +857,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
-        <v>3200</v>
-      </c>
       <c r="F12" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G12" s="3">
         <v>1900</v>
       </c>
       <c r="H12" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I12" s="3">
         <v>1300</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G15" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K15" s="3">
         <v>2500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>92600</v>
+        <v>88300</v>
       </c>
       <c r="E17" s="3">
-        <v>89800</v>
+        <v>85600</v>
       </c>
       <c r="F17" s="3">
-        <v>96700</v>
+        <v>92200</v>
       </c>
       <c r="G17" s="3">
-        <v>88400</v>
+        <v>84200</v>
       </c>
       <c r="H17" s="3">
-        <v>95900</v>
+        <v>91400</v>
       </c>
       <c r="I17" s="3">
-        <v>72700</v>
+        <v>69300</v>
       </c>
       <c r="J17" s="3">
-        <v>70100</v>
+        <v>66800</v>
       </c>
       <c r="K17" s="3">
         <v>59000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>88900</v>
+        <v>84800</v>
       </c>
       <c r="E18" s="3">
-        <v>79600</v>
+        <v>75800</v>
       </c>
       <c r="F18" s="3">
-        <v>81600</v>
+        <v>77800</v>
       </c>
       <c r="G18" s="3">
-        <v>55700</v>
+        <v>53100</v>
       </c>
       <c r="H18" s="3">
-        <v>40900</v>
+        <v>39000</v>
       </c>
       <c r="I18" s="3">
-        <v>38300</v>
+        <v>36500</v>
       </c>
       <c r="J18" s="3">
-        <v>26700</v>
+        <v>25500</v>
       </c>
       <c r="K18" s="3">
         <v>34600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="E20" s="3">
-        <v>9600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2900</v>
-      </c>
       <c r="G20" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="H20" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="I20" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J20" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="K20" s="3">
         <v>3100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>98700</v>
+        <v>94000</v>
       </c>
       <c r="E21" s="3">
-        <v>96300</v>
+        <v>91800</v>
       </c>
       <c r="F21" s="3">
-        <v>91700</v>
+        <v>87400</v>
       </c>
       <c r="G21" s="3">
-        <v>59700</v>
+        <v>56900</v>
       </c>
       <c r="H21" s="3">
-        <v>52200</v>
+        <v>49700</v>
       </c>
       <c r="I21" s="3">
-        <v>49100</v>
+        <v>46700</v>
       </c>
       <c r="J21" s="3">
-        <v>43700</v>
+        <v>41600</v>
       </c>
       <c r="K21" s="3">
         <v>45300</v>
@@ -1215,10 +1215,10 @@
         <v>500</v>
       </c>
       <c r="I22" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="J22" s="3">
-        <v>15800</v>
+        <v>15000</v>
       </c>
       <c r="K22" s="3">
         <v>14900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>91700</v>
+        <v>87400</v>
       </c>
       <c r="E23" s="3">
-        <v>89200</v>
+        <v>85000</v>
       </c>
       <c r="F23" s="3">
-        <v>84500</v>
+        <v>80600</v>
       </c>
       <c r="G23" s="3">
-        <v>52100</v>
+        <v>49600</v>
       </c>
       <c r="H23" s="3">
-        <v>44300</v>
+        <v>42300</v>
       </c>
       <c r="I23" s="3">
-        <v>24300</v>
+        <v>23200</v>
       </c>
       <c r="J23" s="3">
-        <v>20600</v>
+        <v>19700</v>
       </c>
       <c r="K23" s="3">
         <v>22900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17300</v>
+        <v>16500</v>
       </c>
       <c r="E24" s="3">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="F24" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="G24" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="H24" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="I24" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="J24" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K24" s="3">
         <v>7000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>74400</v>
+        <v>70900</v>
       </c>
       <c r="E26" s="3">
-        <v>75400</v>
+        <v>71900</v>
       </c>
       <c r="F26" s="3">
-        <v>69800</v>
+        <v>66500</v>
       </c>
       <c r="G26" s="3">
-        <v>43100</v>
+        <v>41100</v>
       </c>
       <c r="H26" s="3">
-        <v>35200</v>
+        <v>33500</v>
       </c>
       <c r="I26" s="3">
-        <v>18800</v>
+        <v>17900</v>
       </c>
       <c r="J26" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="K26" s="3">
         <v>15900</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73200</v>
+        <v>69700</v>
       </c>
       <c r="E27" s="3">
-        <v>74200</v>
+        <v>70700</v>
       </c>
       <c r="F27" s="3">
-        <v>68700</v>
+        <v>65500</v>
       </c>
       <c r="G27" s="3">
-        <v>42500</v>
+        <v>40500</v>
       </c>
       <c r="H27" s="3">
-        <v>34600</v>
+        <v>33000</v>
       </c>
       <c r="I27" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="J27" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="K27" s="3">
         <v>14600</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="E32" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2900</v>
-      </c>
       <c r="G32" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H32" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="I32" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="J32" s="3">
-        <v>-9700</v>
+        <v>-9200</v>
       </c>
       <c r="K32" s="3">
         <v>-3100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73200</v>
+        <v>69700</v>
       </c>
       <c r="E33" s="3">
-        <v>74200</v>
+        <v>70700</v>
       </c>
       <c r="F33" s="3">
-        <v>68700</v>
+        <v>65500</v>
       </c>
       <c r="G33" s="3">
-        <v>42500</v>
+        <v>40500</v>
       </c>
       <c r="H33" s="3">
-        <v>34600</v>
+        <v>33000</v>
       </c>
       <c r="I33" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="J33" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="K33" s="3">
         <v>14600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73200</v>
+        <v>69700</v>
       </c>
       <c r="E35" s="3">
-        <v>74200</v>
+        <v>70700</v>
       </c>
       <c r="F35" s="3">
-        <v>68700</v>
+        <v>65500</v>
       </c>
       <c r="G35" s="3">
-        <v>42500</v>
+        <v>40500</v>
       </c>
       <c r="H35" s="3">
-        <v>34600</v>
+        <v>33000</v>
       </c>
       <c r="I35" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="J35" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="K35" s="3">
         <v>14600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>972700</v>
+        <v>927200</v>
       </c>
       <c r="E41" s="3">
-        <v>887200</v>
+        <v>845800</v>
       </c>
       <c r="F41" s="3">
-        <v>799300</v>
+        <v>761900</v>
       </c>
       <c r="G41" s="3">
-        <v>729800</v>
+        <v>695700</v>
       </c>
       <c r="H41" s="3">
-        <v>620700</v>
+        <v>591700</v>
       </c>
       <c r="I41" s="3">
-        <v>512600</v>
+        <v>488600</v>
       </c>
       <c r="J41" s="3">
-        <v>439300</v>
+        <v>418800</v>
       </c>
       <c r="K41" s="3">
         <v>359100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="E43" s="3">
-        <v>19700</v>
+        <v>18800</v>
       </c>
       <c r="F43" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="G43" s="3">
-        <v>15700</v>
+        <v>15000</v>
       </c>
       <c r="H43" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="I43" s="3">
-        <v>17200</v>
+        <v>16400</v>
       </c>
       <c r="J43" s="3">
-        <v>19200</v>
+        <v>18300</v>
       </c>
       <c r="K43" s="3">
         <v>18600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="E44" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="F44" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="G44" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="H44" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I44" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="J44" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="K44" s="3">
         <v>3500</v>
@@ -1983,22 +1983,22 @@
         <v>1700</v>
       </c>
       <c r="E45" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="F45" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="G45" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H45" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I45" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J45" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="K45" s="3">
         <v>4200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1012700</v>
+        <v>965400</v>
       </c>
       <c r="E46" s="3">
-        <v>919700</v>
+        <v>876700</v>
       </c>
       <c r="F46" s="3">
-        <v>827400</v>
+        <v>788700</v>
       </c>
       <c r="G46" s="3">
-        <v>751800</v>
+        <v>716600</v>
       </c>
       <c r="H46" s="3">
-        <v>643800</v>
+        <v>613700</v>
       </c>
       <c r="I46" s="3">
-        <v>536100</v>
+        <v>511000</v>
       </c>
       <c r="J46" s="3">
-        <v>465200</v>
+        <v>443500</v>
       </c>
       <c r="K46" s="3">
         <v>385900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>78400</v>
+        <v>74800</v>
       </c>
       <c r="E47" s="3">
-        <v>76600</v>
+        <v>73000</v>
       </c>
       <c r="F47" s="3">
-        <v>65800</v>
+        <v>62700</v>
       </c>
       <c r="G47" s="3">
-        <v>58600</v>
+        <v>55900</v>
       </c>
       <c r="H47" s="3">
-        <v>65000</v>
+        <v>61900</v>
       </c>
       <c r="I47" s="3">
-        <v>76700</v>
+        <v>73100</v>
       </c>
       <c r="J47" s="3">
-        <v>75500</v>
+        <v>71900</v>
       </c>
       <c r="K47" s="3">
         <v>74500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>69600</v>
+        <v>66400</v>
       </c>
       <c r="E48" s="3">
-        <v>73600</v>
+        <v>70100</v>
       </c>
       <c r="F48" s="3">
+        <v>73400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>75900</v>
+      </c>
+      <c r="H48" s="3">
         <v>77000</v>
       </c>
-      <c r="G48" s="3">
-        <v>79600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>80700</v>
-      </c>
       <c r="I48" s="3">
-        <v>80500</v>
+        <v>76800</v>
       </c>
       <c r="J48" s="3">
-        <v>83900</v>
+        <v>80000</v>
       </c>
       <c r="K48" s="3">
         <v>88900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12200</v>
+        <v>11600</v>
       </c>
       <c r="E49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F49" s="3">
         <v>12900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14900</v>
       </c>
-      <c r="I49" s="3">
-        <v>15600</v>
-      </c>
       <c r="J49" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="K49" s="3">
         <v>17100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73300</v>
+        <v>69900</v>
       </c>
       <c r="E52" s="3">
-        <v>71900</v>
+        <v>68500</v>
       </c>
       <c r="F52" s="3">
-        <v>70600</v>
+        <v>67300</v>
       </c>
       <c r="G52" s="3">
-        <v>52400</v>
+        <v>50000</v>
       </c>
       <c r="H52" s="3">
-        <v>49100</v>
+        <v>46800</v>
       </c>
       <c r="I52" s="3">
-        <v>48000</v>
+        <v>45700</v>
       </c>
       <c r="J52" s="3">
-        <v>43700</v>
+        <v>41700</v>
       </c>
       <c r="K52" s="3">
         <v>40100</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1246300</v>
+        <v>1188000</v>
       </c>
       <c r="E54" s="3">
-        <v>1154600</v>
+        <v>1100600</v>
       </c>
       <c r="F54" s="3">
-        <v>1054300</v>
+        <v>1005000</v>
       </c>
       <c r="G54" s="3">
-        <v>956600</v>
+        <v>911900</v>
       </c>
       <c r="H54" s="3">
-        <v>853500</v>
+        <v>813500</v>
       </c>
       <c r="I54" s="3">
-        <v>756900</v>
+        <v>721500</v>
       </c>
       <c r="J54" s="3">
-        <v>684600</v>
+        <v>652600</v>
       </c>
       <c r="K54" s="3">
         <v>605900</v>
@@ -2407,22 +2407,22 @@
         <v>1200</v>
       </c>
       <c r="E57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F57" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G57" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="H57" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I57" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J57" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K57" s="3">
         <v>1900</v>
@@ -2458,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>150600</v>
+        <v>143500</v>
       </c>
       <c r="J58" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="K58" s="3">
         <v>17700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>93200</v>
+        <v>88800</v>
       </c>
       <c r="E59" s="3">
-        <v>90100</v>
+        <v>85900</v>
       </c>
       <c r="F59" s="3">
-        <v>80400</v>
+        <v>76700</v>
       </c>
       <c r="G59" s="3">
-        <v>82100</v>
+        <v>78200</v>
       </c>
       <c r="H59" s="3">
-        <v>66700</v>
+        <v>63600</v>
       </c>
       <c r="I59" s="3">
-        <v>59100</v>
+        <v>56400</v>
       </c>
       <c r="J59" s="3">
-        <v>57700</v>
+        <v>55000</v>
       </c>
       <c r="K59" s="3">
         <v>51200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>94400</v>
+        <v>90000</v>
       </c>
       <c r="E60" s="3">
-        <v>91500</v>
+        <v>87200</v>
       </c>
       <c r="F60" s="3">
-        <v>83400</v>
+        <v>79500</v>
       </c>
       <c r="G60" s="3">
-        <v>87000</v>
+        <v>82900</v>
       </c>
       <c r="H60" s="3">
-        <v>68400</v>
+        <v>65200</v>
       </c>
       <c r="I60" s="3">
-        <v>211300</v>
+        <v>201400</v>
       </c>
       <c r="J60" s="3">
-        <v>66300</v>
+        <v>63200</v>
       </c>
       <c r="K60" s="3">
         <v>61900</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>132300</v>
+        <v>126100</v>
       </c>
       <c r="K61" s="3">
         <v>119100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>438500</v>
+        <v>418000</v>
       </c>
       <c r="E62" s="3">
-        <v>422200</v>
+        <v>402500</v>
       </c>
       <c r="F62" s="3">
-        <v>403100</v>
+        <v>384300</v>
       </c>
       <c r="G62" s="3">
-        <v>369800</v>
+        <v>352500</v>
       </c>
       <c r="H62" s="3">
-        <v>329700</v>
+        <v>314200</v>
       </c>
       <c r="I62" s="3">
-        <v>276500</v>
+        <v>263500</v>
       </c>
       <c r="J62" s="3">
-        <v>235700</v>
+        <v>224700</v>
       </c>
       <c r="K62" s="3">
         <v>197500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>533800</v>
+        <v>508800</v>
       </c>
       <c r="E66" s="3">
-        <v>514700</v>
+        <v>490600</v>
       </c>
       <c r="F66" s="3">
-        <v>487400</v>
+        <v>464600</v>
       </c>
       <c r="G66" s="3">
-        <v>457600</v>
+        <v>436200</v>
       </c>
       <c r="H66" s="3">
-        <v>398800</v>
+        <v>380200</v>
       </c>
       <c r="I66" s="3">
-        <v>488500</v>
+        <v>465600</v>
       </c>
       <c r="J66" s="3">
-        <v>435000</v>
+        <v>414600</v>
       </c>
       <c r="K66" s="3">
         <v>379300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>421600</v>
+        <v>401900</v>
       </c>
       <c r="E72" s="3">
-        <v>348500</v>
+        <v>332200</v>
       </c>
       <c r="F72" s="3">
-        <v>274200</v>
+        <v>261400</v>
       </c>
       <c r="G72" s="3">
-        <v>205500</v>
+        <v>195900</v>
       </c>
       <c r="H72" s="3">
-        <v>163100</v>
+        <v>155500</v>
       </c>
       <c r="I72" s="3">
-        <v>128500</v>
+        <v>122500</v>
       </c>
       <c r="J72" s="3">
-        <v>110000</v>
+        <v>104900</v>
       </c>
       <c r="K72" s="3">
         <v>97600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>712500</v>
+        <v>679200</v>
       </c>
       <c r="E76" s="3">
-        <v>639900</v>
+        <v>610000</v>
       </c>
       <c r="F76" s="3">
-        <v>566900</v>
+        <v>540400</v>
       </c>
       <c r="G76" s="3">
-        <v>499000</v>
+        <v>475700</v>
       </c>
       <c r="H76" s="3">
-        <v>454600</v>
+        <v>433400</v>
       </c>
       <c r="I76" s="3">
-        <v>268400</v>
+        <v>255800</v>
       </c>
       <c r="J76" s="3">
-        <v>249600</v>
+        <v>237900</v>
       </c>
       <c r="K76" s="3">
         <v>226600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73200</v>
+        <v>69700</v>
       </c>
       <c r="E81" s="3">
-        <v>74200</v>
+        <v>70700</v>
       </c>
       <c r="F81" s="3">
-        <v>68700</v>
+        <v>65500</v>
       </c>
       <c r="G81" s="3">
-        <v>42500</v>
+        <v>40500</v>
       </c>
       <c r="H81" s="3">
-        <v>34600</v>
+        <v>33000</v>
       </c>
       <c r="I81" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="J81" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="K81" s="3">
         <v>14600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F83" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7400</v>
-      </c>
       <c r="I83" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="J83" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K83" s="3">
         <v>7500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>89600</v>
+        <v>85400</v>
       </c>
       <c r="E89" s="3">
-        <v>92100</v>
+        <v>87800</v>
       </c>
       <c r="F89" s="3">
-        <v>91100</v>
+        <v>86900</v>
       </c>
       <c r="G89" s="3">
-        <v>115700</v>
+        <v>110300</v>
       </c>
       <c r="H89" s="3">
-        <v>119600</v>
+        <v>114000</v>
       </c>
       <c r="I89" s="3">
-        <v>93100</v>
+        <v>88800</v>
       </c>
       <c r="J89" s="3">
-        <v>84800</v>
+        <v>80900</v>
       </c>
       <c r="K89" s="3">
         <v>87700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
-        <v>-3100</v>
-      </c>
       <c r="F91" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="G91" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="H91" s="3">
-        <v>-9800</v>
+        <v>-9300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K91" s="3">
         <v>-5600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="F94" s="3">
-        <v>-21300</v>
+        <v>-20300</v>
       </c>
       <c r="G94" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="H94" s="3">
-        <v>-9700</v>
+        <v>-9300</v>
       </c>
       <c r="I94" s="3">
-        <v>-13200</v>
+        <v>-12600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K94" s="3">
         <v>-6300</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3923,19 +3923,19 @@
         <v>-1100</v>
       </c>
       <c r="E100" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F100" s="3">
         <v>-600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="H100" s="3">
         <v>-300</v>
       </c>
       <c r="I100" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="J100" s="3">
         <v>-200</v>
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>-300</v>
@@ -3968,16 +3968,16 @@
         <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H101" s="3">
         <v>-1400</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K101" s="3">
         <v>200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>85500</v>
+        <v>81500</v>
       </c>
       <c r="E102" s="3">
-        <v>88000</v>
+        <v>83900</v>
       </c>
       <c r="F102" s="3">
-        <v>69400</v>
+        <v>66200</v>
       </c>
       <c r="G102" s="3">
-        <v>109100</v>
+        <v>104000</v>
       </c>
       <c r="H102" s="3">
-        <v>108100</v>
+        <v>103100</v>
       </c>
       <c r="I102" s="3">
-        <v>73300</v>
+        <v>69900</v>
       </c>
       <c r="J102" s="3">
-        <v>83500</v>
+        <v>79600</v>
       </c>
       <c r="K102" s="3">
         <v>81600</v>
